--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2030/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2030/group.xlsx
@@ -956,6 +956,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -963,9 +966,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1272,7 +1272,7 @@
   <dimension ref="A1:F324"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1301,19 +1301,19 @@
       <c r="A2" s="2">
         <v>4020000279</v>
       </c>
-      <c r="B2" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C2" s="3">
         <v>2010010116</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1321,19 +1321,19 @@
       <c r="A3" s="2">
         <v>4020000280</v>
       </c>
-      <c r="B3" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C3" s="3">
         <v>2010010117</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1341,19 +1341,19 @@
       <c r="A4" s="2">
         <v>4020000190</v>
       </c>
-      <c r="B4" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C4" s="3">
         <v>2010010123</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1361,19 +1361,19 @@
       <c r="A5" s="2">
         <v>4020000062</v>
       </c>
-      <c r="B5" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C5" s="3">
         <v>2010010124</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1381,19 +1381,19 @@
       <c r="A6" s="2">
         <v>4020000063</v>
       </c>
-      <c r="B6" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="B6" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C6" s="3">
         <v>2010010125</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1401,19 +1401,19 @@
       <c r="A7" s="2">
         <v>4020000064</v>
       </c>
-      <c r="B7" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B7" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C7" s="3">
         <v>2010010126</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1421,19 +1421,19 @@
       <c r="A8" s="2">
         <v>4020000065</v>
       </c>
-      <c r="B8" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="B8" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C8" s="3">
         <v>2010010127</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1441,19 +1441,19 @@
       <c r="A9" s="2">
         <v>4020000068</v>
       </c>
-      <c r="B9" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="B9" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C9" s="3">
         <v>2010010131</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>2010000548</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1461,19 +1461,19 @@
       <c r="A10" s="2">
         <v>4020000066</v>
       </c>
-      <c r="B10" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C10" s="3">
         <v>2010010144</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1481,19 +1481,19 @@
       <c r="A11" s="2">
         <v>4020000069</v>
       </c>
-      <c r="B11" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="B11" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C11" s="3">
         <v>2010010149</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>2010000559</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1501,19 +1501,19 @@
       <c r="A12" s="2">
         <v>4020000067</v>
       </c>
-      <c r="B12" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C12" s="4">
+      <c r="B12" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C12" s="3">
         <v>2010010155</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1521,19 +1521,19 @@
       <c r="A13" s="2">
         <v>4020000082</v>
       </c>
-      <c r="B13" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C13" s="4">
+      <c r="B13" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C13" s="3">
         <v>2010010303</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>100000000558</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1541,19 +1541,19 @@
       <c r="A14" s="2">
         <v>4020000071</v>
       </c>
-      <c r="B14" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C14" s="4">
+      <c r="B14" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C14" s="3">
         <v>2010010307</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>2010000562</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1561,19 +1561,19 @@
       <c r="A15" s="2">
         <v>4020000058</v>
       </c>
-      <c r="B15" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C15" s="4">
+      <c r="B15" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C15" s="3">
         <v>2010010544</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1581,19 +1581,19 @@
       <c r="A16" s="2">
         <v>4020000072</v>
       </c>
-      <c r="B16" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C16" s="4">
+      <c r="B16" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C16" s="3">
         <v>2010010668</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>2010000548</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1601,19 +1601,19 @@
       <c r="A17" s="2">
         <v>4020000073</v>
       </c>
-      <c r="B17" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C17" s="4">
+      <c r="B17" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C17" s="3">
         <v>2010010669</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>2010000548</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1621,19 +1621,19 @@
       <c r="A18" s="2">
         <v>4020000070</v>
       </c>
-      <c r="B18" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C18" s="4">
+      <c r="B18" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C18" s="3">
         <v>2010010670</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>2010000561</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1641,19 +1641,19 @@
       <c r="A19" s="2">
         <v>4020000074</v>
       </c>
-      <c r="B19" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C19" s="4">
+      <c r="B19" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C19" s="3">
         <v>2010010672</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>2010000561</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1661,19 +1661,19 @@
       <c r="A20" s="2">
         <v>4020000075</v>
       </c>
-      <c r="B20" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C20" s="4">
+      <c r="B20" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C20" s="3">
         <v>2010010676</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>2010000675</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1681,19 +1681,19 @@
       <c r="A21" s="2">
         <v>4020000078</v>
       </c>
-      <c r="B21" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C21" s="4">
+      <c r="B21" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C21" s="3">
         <v>2010010681</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1701,19 +1701,19 @@
       <c r="A22" s="2">
         <v>4020000187</v>
       </c>
-      <c r="B22" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C22" s="4">
+      <c r="B22" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C22" s="3">
         <v>2010010682</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1721,19 +1721,19 @@
       <c r="A23" s="2">
         <v>4020000076</v>
       </c>
-      <c r="B23" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C23" s="4">
+      <c r="B23" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C23" s="3">
         <v>2010010683</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1741,19 +1741,19 @@
       <c r="A24" s="2">
         <v>4020000077</v>
       </c>
-      <c r="B24" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C24" s="4">
+      <c r="B24" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C24" s="3">
         <v>2010010684</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>2010000562</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1761,19 +1761,19 @@
       <c r="A25" s="2">
         <v>4020000363</v>
       </c>
-      <c r="B25" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C25" s="4">
+      <c r="B25" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C25" s="3">
         <v>2010020123</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1781,19 +1781,19 @@
       <c r="A26" s="2">
         <v>4020000126</v>
       </c>
-      <c r="B26" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C26" s="4">
+      <c r="B26" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C26" s="3">
         <v>2010020155</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1801,19 +1801,19 @@
       <c r="A27" s="2">
         <v>4020000196</v>
       </c>
-      <c r="B27" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C27" s="4">
+      <c r="B27" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C27" s="3">
         <v>2010020672</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1821,19 +1821,19 @@
       <c r="A28" s="2">
         <v>4020000189</v>
       </c>
-      <c r="B28" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C28" s="4">
+      <c r="B28" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C28" s="3">
         <v>2010020681</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1841,19 +1841,19 @@
       <c r="A29" s="2">
         <v>4020000128</v>
       </c>
-      <c r="B29" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C29" s="4">
+      <c r="B29" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C29" s="3">
         <v>2010020683</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1861,19 +1861,19 @@
       <c r="A30" s="2">
         <v>4020000374</v>
       </c>
-      <c r="B30" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C30" s="4">
+      <c r="B30" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C30" s="3">
         <v>2010030123</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1881,19 +1881,19 @@
       <c r="A31" s="2">
         <v>4020000318</v>
       </c>
-      <c r="B31" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C31" s="4">
+      <c r="B31" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C31" s="3">
         <v>2010030155</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1901,19 +1901,19 @@
       <c r="A32" s="2">
         <v>4020000317</v>
       </c>
-      <c r="B32" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C32" s="4">
+      <c r="B32" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C32" s="3">
         <v>2010030681</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1921,19 +1921,19 @@
       <c r="A33" s="2">
         <v>4020000448</v>
       </c>
-      <c r="B33" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C33" s="4">
+      <c r="B33" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C33" s="3">
         <v>2010030683</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1941,19 +1941,19 @@
       <c r="A34" s="2">
         <v>4020000001</v>
       </c>
-      <c r="B34" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C34" s="4">
+      <c r="B34" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C34" s="3">
         <v>2030010102</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>2010000564</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -1961,19 +1961,19 @@
       <c r="A35" s="2">
         <v>4020000002</v>
       </c>
-      <c r="B35" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C35" s="4">
+      <c r="B35" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C35" s="3">
         <v>2030010103</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1981,19 +1981,19 @@
       <c r="A36" s="2">
         <v>4020000003</v>
       </c>
-      <c r="B36" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C36" s="4">
+      <c r="B36" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C36" s="3">
         <v>2030010104</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2001,19 +2001,19 @@
       <c r="A37" s="2">
         <v>4020000004</v>
       </c>
-      <c r="B37" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C37" s="4">
+      <c r="B37" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C37" s="3">
         <v>2030010105</v>
       </c>
-      <c r="D37" s="5" t="s">
+      <c r="D37" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2021,19 +2021,19 @@
       <c r="A38" s="2">
         <v>4020000005</v>
       </c>
-      <c r="B38" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C38" s="4">
+      <c r="B38" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C38" s="3">
         <v>2030010106</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2041,19 +2041,19 @@
       <c r="A39" s="2">
         <v>4020000023</v>
       </c>
-      <c r="B39" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="B39" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C39" s="3">
         <v>2030010107</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2061,19 +2061,19 @@
       <c r="A40" s="2">
         <v>4020000022</v>
       </c>
-      <c r="B40" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C40" s="4">
+      <c r="B40" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C40" s="3">
         <v>2030010108</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2081,19 +2081,19 @@
       <c r="A41" s="2">
         <v>4020000046</v>
       </c>
-      <c r="B41" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C41" s="4">
+      <c r="B41" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C41" s="3">
         <v>2030010109</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2101,19 +2101,19 @@
       <c r="A42" s="2">
         <v>4020000141</v>
       </c>
-      <c r="B42" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C42" s="4">
+      <c r="B42" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C42" s="3">
         <v>2030010110</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2121,19 +2121,19 @@
       <c r="A43" s="2">
         <v>4020000020</v>
       </c>
-      <c r="B43" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C43" s="4">
+      <c r="B43" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C43" s="3">
         <v>2030010111</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2141,19 +2141,19 @@
       <c r="A44" s="2">
         <v>4020000006</v>
       </c>
-      <c r="B44" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C44" s="4">
+      <c r="B44" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C44" s="3">
         <v>2030010112</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D44" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2161,19 +2161,19 @@
       <c r="A45" s="2">
         <v>4020000024</v>
       </c>
-      <c r="B45" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C45" s="4">
+      <c r="B45" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C45" s="3">
         <v>2030010113</v>
       </c>
-      <c r="D45" s="5" t="s">
+      <c r="D45" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2181,19 +2181,19 @@
       <c r="A46" s="2">
         <v>4020000204</v>
       </c>
-      <c r="B46" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C46" s="4">
+      <c r="B46" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C46" s="3">
         <v>2030010114</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="D46" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2201,19 +2201,19 @@
       <c r="A47" s="2">
         <v>4020000206</v>
       </c>
-      <c r="B47" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C47" s="4">
+      <c r="B47" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C47" s="3">
         <v>2030010115</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2221,19 +2221,19 @@
       <c r="A48" s="2">
         <v>4020000034</v>
       </c>
-      <c r="B48" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C48" s="4">
+      <c r="B48" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C48" s="3">
         <v>2030010118</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>2010000561</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2241,19 +2241,19 @@
       <c r="A49" s="2">
         <v>4020000007</v>
       </c>
-      <c r="B49" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C49" s="4">
+      <c r="B49" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C49" s="3">
         <v>2030010119</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2261,19 +2261,19 @@
       <c r="A50" s="2">
         <v>4020000008</v>
       </c>
-      <c r="B50" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C50" s="4">
+      <c r="B50" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C50" s="3">
         <v>2030010120</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2281,19 +2281,19 @@
       <c r="A51" s="2">
         <v>4020000021</v>
       </c>
-      <c r="B51" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C51" s="4">
+      <c r="B51" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C51" s="3">
         <v>2030010121</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2301,19 +2301,19 @@
       <c r="A52" s="2">
         <v>4020000036</v>
       </c>
-      <c r="B52" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C52" s="4">
+      <c r="B52" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C52" s="3">
         <v>2030010122</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2321,19 +2321,19 @@
       <c r="A53" s="2">
         <v>4020000009</v>
       </c>
-      <c r="B53" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C53" s="4">
+      <c r="B53" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C53" s="3">
         <v>2030010129</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2341,19 +2341,19 @@
       <c r="A54" s="2">
         <v>4020000010</v>
       </c>
-      <c r="B54" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C54" s="4">
+      <c r="B54" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C54" s="3">
         <v>2030010130</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2361,19 +2361,19 @@
       <c r="A55" s="2">
         <v>4020000026</v>
       </c>
-      <c r="B55" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C55" s="4">
+      <c r="B55" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C55" s="3">
         <v>2030010132</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2381,19 +2381,19 @@
       <c r="A56" s="2">
         <v>4020000025</v>
       </c>
-      <c r="B56" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C56" s="4">
+      <c r="B56" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C56" s="3">
         <v>2030010137</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>2010000658</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2401,19 +2401,19 @@
       <c r="A57" s="2">
         <v>4020000035</v>
       </c>
-      <c r="B57" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C57" s="4">
+      <c r="B57" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C57" s="3">
         <v>2030010139</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>2010000562</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2421,19 +2421,19 @@
       <c r="A58" s="2">
         <v>4020000173</v>
       </c>
-      <c r="B58" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C58" s="4">
+      <c r="B58" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C58" s="3">
         <v>2030010143</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>2030001012</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2441,19 +2441,19 @@
       <c r="A59" s="2">
         <v>4020000203</v>
       </c>
-      <c r="B59" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C59" s="4">
+      <c r="B59" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C59" s="3">
         <v>2030010145</v>
       </c>
-      <c r="D59" s="5" t="s">
+      <c r="D59" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2461,19 +2461,19 @@
       <c r="A60" s="2">
         <v>4020000207</v>
       </c>
-      <c r="B60" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C60" s="4">
+      <c r="B60" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C60" s="3">
         <v>2030010146</v>
       </c>
-      <c r="D60" s="5" t="s">
+      <c r="D60" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2481,19 +2481,19 @@
       <c r="A61" s="2">
         <v>4020000017</v>
       </c>
-      <c r="B61" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C61" s="4">
+      <c r="B61" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C61" s="3">
         <v>2030010147</v>
       </c>
-      <c r="D61" s="5" t="s">
+      <c r="D61" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>2010000562</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2501,19 +2501,19 @@
       <c r="A62" s="2">
         <v>4020000184</v>
       </c>
-      <c r="B62" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C62" s="4">
+      <c r="B62" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C62" s="3">
         <v>2030010148</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2521,19 +2521,19 @@
       <c r="A63" s="2">
         <v>4020000030</v>
       </c>
-      <c r="B63" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C63" s="4">
+      <c r="B63" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C63" s="3">
         <v>2030010150</v>
       </c>
-      <c r="D63" s="5" t="s">
+      <c r="D63" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>2010000559</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2541,19 +2541,19 @@
       <c r="A64" s="2">
         <v>4020000031</v>
       </c>
-      <c r="B64" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C64" s="4">
+      <c r="B64" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C64" s="3">
         <v>2030010151</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>2010000559</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2561,19 +2561,19 @@
       <c r="A65" s="2">
         <v>4020000032</v>
       </c>
-      <c r="B65" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C65" s="4">
+      <c r="B65" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C65" s="3">
         <v>2030010152</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>2010000559</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2581,19 +2581,19 @@
       <c r="A66" s="2">
         <v>4020000029</v>
       </c>
-      <c r="B66" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C66" s="4">
+      <c r="B66" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C66" s="3">
         <v>2030010153</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>2010000559</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2601,19 +2601,19 @@
       <c r="A67" s="2">
         <v>4020000028</v>
       </c>
-      <c r="B67" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C67" s="4">
+      <c r="B67" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C67" s="3">
         <v>2030010154</v>
       </c>
-      <c r="D67" s="5" t="s">
+      <c r="D67" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2621,19 +2621,19 @@
       <c r="A68" s="2">
         <v>4020000201</v>
       </c>
-      <c r="B68" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C68" s="4">
+      <c r="B68" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C68" s="3">
         <v>2030010156</v>
       </c>
-      <c r="D68" s="5" t="s">
+      <c r="D68" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2641,19 +2641,19 @@
       <c r="A69" s="2">
         <v>4020000019</v>
       </c>
-      <c r="B69" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C69" s="4">
+      <c r="B69" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C69" s="3">
         <v>2030010157</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>2010000548</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2661,19 +2661,19 @@
       <c r="A70" s="2">
         <v>4020000037</v>
       </c>
-      <c r="B70" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C70" s="4">
+      <c r="B70" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C70" s="3">
         <v>2030010158</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2681,19 +2681,19 @@
       <c r="A71" s="2">
         <v>4020000027</v>
       </c>
-      <c r="B71" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C71" s="4">
+      <c r="B71" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C71" s="3">
         <v>2030010161</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2701,19 +2701,19 @@
       <c r="A72" s="2">
         <v>4020000181</v>
       </c>
-      <c r="B72" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C72" s="4">
+      <c r="B72" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C72" s="3">
         <v>2030010265</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2721,19 +2721,19 @@
       <c r="A73" s="2">
         <v>4020000051</v>
       </c>
-      <c r="B73" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C73" s="4">
+      <c r="B73" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C73" s="3">
         <v>2030010278</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -2741,19 +2741,19 @@
       <c r="A74" s="2">
         <v>4020000180</v>
       </c>
-      <c r="B74" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C74" s="4">
+      <c r="B74" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C74" s="3">
         <v>2030010298</v>
       </c>
-      <c r="D74" s="5" t="s">
+      <c r="D74" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>2030001012</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2761,19 +2761,19 @@
       <c r="A75" s="2">
         <v>4020000214</v>
       </c>
-      <c r="B75" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C75" s="4">
+      <c r="B75" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C75" s="3">
         <v>2030010299</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>2010000561</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2781,19 +2781,19 @@
       <c r="A76" s="2">
         <v>4020000055</v>
       </c>
-      <c r="B76" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C76" s="4">
+      <c r="B76" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C76" s="3">
         <v>2030010302</v>
       </c>
-      <c r="D76" s="5" t="s">
+      <c r="D76" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>2010000562</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2801,19 +2801,19 @@
       <c r="A77" s="2">
         <v>4020000151</v>
       </c>
-      <c r="B77" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C77" s="4">
+      <c r="B77" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C77" s="3">
         <v>2030010491</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2821,19 +2821,19 @@
       <c r="A78" s="2">
         <v>4020000152</v>
       </c>
-      <c r="B78" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C78" s="4">
+      <c r="B78" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C78" s="3">
         <v>2030010499</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2841,19 +2841,19 @@
       <c r="A79" s="2">
         <v>4020000278</v>
       </c>
-      <c r="B79" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C79" s="4">
+      <c r="B79" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C79" s="3">
         <v>2030010502</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2861,19 +2861,19 @@
       <c r="A80" s="2">
         <v>4020000156</v>
       </c>
-      <c r="B80" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C80" s="4">
+      <c r="B80" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C80" s="3">
         <v>2030010503</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2881,19 +2881,19 @@
       <c r="A81" s="2">
         <v>4020000054</v>
       </c>
-      <c r="B81" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C81" s="4">
+      <c r="B81" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C81" s="3">
         <v>2030010543</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>2010000658</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2901,19 +2901,19 @@
       <c r="A82" s="2">
         <v>4020000056</v>
       </c>
-      <c r="B82" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C82" s="4">
+      <c r="B82" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C82" s="3">
         <v>2030011003</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>2010000658</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2921,19 +2921,19 @@
       <c r="A83" s="2">
         <v>4020000057</v>
       </c>
-      <c r="B83" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C83" s="4">
+      <c r="B83" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C83" s="3">
         <v>2030011004</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2941,19 +2941,19 @@
       <c r="A84" s="2">
         <v>4020000080</v>
       </c>
-      <c r="B84" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C84" s="4">
+      <c r="B84" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C84" s="3">
         <v>2030011008</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>2010000662</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2961,19 +2961,19 @@
       <c r="A85" s="2">
         <v>4020000150</v>
       </c>
-      <c r="B85" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C85" s="4">
+      <c r="B85" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C85" s="3">
         <v>2030011011</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2981,19 +2981,19 @@
       <c r="A86" s="2">
         <v>4020000282</v>
       </c>
-      <c r="B86" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C86" s="4">
+      <c r="B86" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C86" s="3">
         <v>2030011014</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3001,19 +3001,19 @@
       <c r="A87" s="2">
         <v>4020000153</v>
       </c>
-      <c r="B87" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C87" s="4">
+      <c r="B87" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C87" s="3">
         <v>2030011015</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3021,19 +3021,19 @@
       <c r="A88" s="2">
         <v>4020000090</v>
       </c>
-      <c r="B88" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C88" s="4">
+      <c r="B88" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C88" s="3">
         <v>2030011016</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3041,19 +3041,19 @@
       <c r="A89" s="2">
         <v>4020000091</v>
       </c>
-      <c r="B89" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C89" s="4">
+      <c r="B89" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C89" s="3">
         <v>2030011019</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3061,19 +3061,19 @@
       <c r="A90" s="2">
         <v>4020000157</v>
       </c>
-      <c r="B90" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C90" s="4">
+      <c r="B90" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C90" s="3">
         <v>2030011020</v>
       </c>
-      <c r="D90" s="5" t="s">
+      <c r="D90" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3081,19 +3081,19 @@
       <c r="A91" s="2">
         <v>4020000094</v>
       </c>
-      <c r="B91" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C91" s="4">
+      <c r="B91" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C91" s="3">
         <v>2030011021</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>2010000658</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3101,19 +3101,19 @@
       <c r="A92" s="2">
         <v>4020000095</v>
       </c>
-      <c r="B92" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C92" s="4">
+      <c r="B92" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C92" s="3">
         <v>2030011022</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3121,19 +3121,19 @@
       <c r="A93" s="2">
         <v>4020000096</v>
       </c>
-      <c r="B93" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C93" s="4">
+      <c r="B93" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C93" s="3">
         <v>2030011023</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3141,19 +3141,19 @@
       <c r="A94" s="2">
         <v>4020000097</v>
       </c>
-      <c r="B94" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C94" s="4">
+      <c r="B94" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C94" s="3">
         <v>2030011024</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3161,19 +3161,19 @@
       <c r="A95" s="2">
         <v>4020000098</v>
       </c>
-      <c r="B95" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C95" s="4">
+      <c r="B95" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C95" s="3">
         <v>2030011025</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3181,19 +3181,19 @@
       <c r="A96" s="2">
         <v>4020000099</v>
       </c>
-      <c r="B96" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C96" s="4">
+      <c r="B96" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C96" s="3">
         <v>2030011026</v>
       </c>
-      <c r="D96" s="5" t="s">
+      <c r="D96" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3201,19 +3201,19 @@
       <c r="A97" s="2">
         <v>4020000100</v>
       </c>
-      <c r="B97" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C97" s="4">
+      <c r="B97" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C97" s="3">
         <v>2030011027</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>2010000561</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="6" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3221,19 +3221,19 @@
       <c r="A98" s="2">
         <v>4020000101</v>
       </c>
-      <c r="B98" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C98" s="4">
+      <c r="B98" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C98" s="3">
         <v>2030011028</v>
       </c>
-      <c r="D98" s="5" t="s">
+      <c r="D98" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>2030001007</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3241,19 +3241,19 @@
       <c r="A99" s="2">
         <v>4020000102</v>
       </c>
-      <c r="B99" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C99" s="4">
+      <c r="B99" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C99" s="3">
         <v>2030011029</v>
       </c>
-      <c r="D99" s="5" t="s">
+      <c r="D99" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>2030001007</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3261,19 +3261,19 @@
       <c r="A100" s="2">
         <v>4020000103</v>
       </c>
-      <c r="B100" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C100" s="4">
+      <c r="B100" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C100" s="3">
         <v>2030011030</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>2030001007</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3281,19 +3281,19 @@
       <c r="A101" s="2">
         <v>4020000104</v>
       </c>
-      <c r="B101" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C101" s="4">
+      <c r="B101" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C101" s="3">
         <v>2030011031</v>
       </c>
-      <c r="D101" s="5" t="s">
+      <c r="D101" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <v>2030001007</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3301,19 +3301,19 @@
       <c r="A102" s="2">
         <v>4020000105</v>
       </c>
-      <c r="B102" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C102" s="4">
+      <c r="B102" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C102" s="3">
         <v>2030011032</v>
       </c>
-      <c r="D102" s="5" t="s">
+      <c r="D102" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <v>2030001007</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3321,19 +3321,19 @@
       <c r="A103" s="2">
         <v>4020000154</v>
       </c>
-      <c r="B103" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C103" s="4">
+      <c r="B103" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C103" s="3">
         <v>2030011033</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3341,19 +3341,19 @@
       <c r="A104" s="2">
         <v>4020000155</v>
       </c>
-      <c r="B104" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C104" s="4">
+      <c r="B104" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C104" s="3">
         <v>2030011034</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3361,19 +3361,19 @@
       <c r="A105" s="2">
         <v>4020000202</v>
       </c>
-      <c r="B105" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C105" s="4">
+      <c r="B105" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C105" s="3">
         <v>2030011035</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3381,19 +3381,19 @@
       <c r="A106" s="2">
         <v>4020000171</v>
       </c>
-      <c r="B106" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C106" s="4">
+      <c r="B106" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C106" s="3">
         <v>2030011037</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>2030001012</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3401,19 +3401,19 @@
       <c r="A107" s="2">
         <v>4020000205</v>
       </c>
-      <c r="B107" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C107" s="4">
+      <c r="B107" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C107" s="3">
         <v>2030011038</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3421,19 +3421,19 @@
       <c r="A108" s="2">
         <v>4020000113</v>
       </c>
-      <c r="B108" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C108" s="4">
+      <c r="B108" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C108" s="3">
         <v>2030011039</v>
       </c>
-      <c r="D108" s="5" t="s">
+      <c r="D108" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <v>2010000662</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3441,19 +3441,19 @@
       <c r="A109" s="2">
         <v>4020000144</v>
       </c>
-      <c r="B109" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C109" s="4">
+      <c r="B109" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C109" s="3">
         <v>2030011040</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>2030001010</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3461,19 +3461,19 @@
       <c r="A110" s="2">
         <v>4020000114</v>
       </c>
-      <c r="B110" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C110" s="4">
+      <c r="B110" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C110" s="3">
         <v>2030011041</v>
       </c>
-      <c r="D110" s="5" t="s">
+      <c r="D110" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <v>2010000658</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3481,19 +3481,19 @@
       <c r="A111" s="2">
         <v>4020000115</v>
       </c>
-      <c r="B111" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C111" s="4">
+      <c r="B111" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C111" s="3">
         <v>2030011042</v>
       </c>
-      <c r="D111" s="5" t="s">
+      <c r="D111" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3501,19 +3501,19 @@
       <c r="A112" s="2">
         <v>4020000116</v>
       </c>
-      <c r="B112" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C112" s="4">
+      <c r="B112" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C112" s="3">
         <v>2030011044</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>2010000658</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3521,19 +3521,19 @@
       <c r="A113" s="2">
         <v>4020000149</v>
       </c>
-      <c r="B113" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C113" s="4">
+      <c r="B113" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C113" s="3">
         <v>2030011045</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3541,19 +3541,19 @@
       <c r="A114" s="2">
         <v>4020000118</v>
       </c>
-      <c r="B114" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C114" s="4">
+      <c r="B114" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C114" s="3">
         <v>2030011046</v>
       </c>
-      <c r="D114" s="5" t="s">
+      <c r="D114" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>2010000548</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3561,19 +3561,19 @@
       <c r="A115" s="2">
         <v>4020000119</v>
       </c>
-      <c r="B115" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C115" s="4">
+      <c r="B115" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C115" s="3">
         <v>2030011047</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>2010000658</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3581,19 +3581,19 @@
       <c r="A116" s="2">
         <v>4020000121</v>
       </c>
-      <c r="B116" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C116" s="4">
+      <c r="B116" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C116" s="3">
         <v>2030011048</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>2010000548</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3601,19 +3601,19 @@
       <c r="A117" s="2">
         <v>4020000123</v>
       </c>
-      <c r="B117" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C117" s="4">
+      <c r="B117" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C117" s="3">
         <v>2030011049</v>
       </c>
-      <c r="D117" s="5" t="s">
+      <c r="D117" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3621,19 +3621,19 @@
       <c r="A118" s="2">
         <v>4020000174</v>
       </c>
-      <c r="B118" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C118" s="4">
+      <c r="B118" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C118" s="3">
         <v>2030011050</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>2030001012</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3641,19 +3641,19 @@
       <c r="A119" s="2">
         <v>4020000142</v>
       </c>
-      <c r="B119" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C119" s="4">
+      <c r="B119" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C119" s="3">
         <v>2030011051</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>2030001010</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3661,19 +3661,19 @@
       <c r="A120" s="2">
         <v>4020000143</v>
       </c>
-      <c r="B120" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C120" s="4">
+      <c r="B120" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C120" s="3">
         <v>2030011052</v>
       </c>
-      <c r="D120" s="5" t="s">
+      <c r="D120" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>2030001010</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="6" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3681,19 +3681,19 @@
       <c r="A121" s="2">
         <v>4020000145</v>
       </c>
-      <c r="B121" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C121" s="4">
+      <c r="B121" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C121" s="3">
         <v>2030011053</v>
       </c>
-      <c r="D121" s="5" t="s">
+      <c r="D121" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3701,19 +3701,19 @@
       <c r="A122" s="2">
         <v>4020000242</v>
       </c>
-      <c r="B122" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C122" s="4">
+      <c r="B122" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C122" s="3">
         <v>2030011054</v>
       </c>
-      <c r="D122" s="5" t="s">
+      <c r="D122" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3721,19 +3721,19 @@
       <c r="A123" s="2">
         <v>4020000148</v>
       </c>
-      <c r="B123" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C123" s="4">
+      <c r="B123" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C123" s="3">
         <v>2030011055</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3741,19 +3741,19 @@
       <c r="A124" s="2">
         <v>4020000208</v>
       </c>
-      <c r="B124" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C124" s="4">
+      <c r="B124" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C124" s="3">
         <v>2030011056</v>
       </c>
-      <c r="D124" s="5" t="s">
+      <c r="D124" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="5">
         <v>2030001014</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3761,19 +3761,19 @@
       <c r="A125" s="2">
         <v>4020000160</v>
       </c>
-      <c r="B125" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C125" s="4">
+      <c r="B125" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C125" s="3">
         <v>2030011057</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3781,19 +3781,19 @@
       <c r="A126" s="2">
         <v>4020000161</v>
       </c>
-      <c r="B126" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C126" s="4">
+      <c r="B126" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C126" s="3">
         <v>2030011058</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3801,19 +3801,19 @@
       <c r="A127" s="2">
         <v>4020000162</v>
       </c>
-      <c r="B127" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C127" s="4">
+      <c r="B127" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C127" s="3">
         <v>2030011059</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="5">
         <v>2030001009</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="6" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3821,19 +3821,19 @@
       <c r="A128" s="2">
         <v>4020000165</v>
       </c>
-      <c r="B128" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C128" s="4">
+      <c r="B128" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C128" s="3">
         <v>2030011060</v>
       </c>
-      <c r="D128" s="5" t="s">
+      <c r="D128" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="5">
         <v>2030001012</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3841,19 +3841,19 @@
       <c r="A129" s="2">
         <v>4020000175</v>
       </c>
-      <c r="B129" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C129" s="4">
+      <c r="B129" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C129" s="3">
         <v>2030011061</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>2030001012</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3861,19 +3861,19 @@
       <c r="A130" s="2">
         <v>4020000177</v>
       </c>
-      <c r="B130" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C130" s="4">
+      <c r="B130" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C130" s="3">
         <v>2030011062</v>
       </c>
-      <c r="D130" s="5" t="s">
+      <c r="D130" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3881,19 +3881,19 @@
       <c r="A131" s="2">
         <v>4020000191</v>
       </c>
-      <c r="B131" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C131" s="4">
+      <c r="B131" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C131" s="3">
         <v>2030011063</v>
       </c>
-      <c r="D131" s="5" t="s">
+      <c r="D131" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3901,19 +3901,19 @@
       <c r="A132" s="2">
         <v>4020000192</v>
       </c>
-      <c r="B132" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C132" s="4">
+      <c r="B132" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C132" s="3">
         <v>2030011064</v>
       </c>
-      <c r="D132" s="5" t="s">
+      <c r="D132" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3921,19 +3921,19 @@
       <c r="A133" s="2">
         <v>4020000193</v>
       </c>
-      <c r="B133" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C133" s="4">
+      <c r="B133" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C133" s="3">
         <v>2030011065</v>
       </c>
-      <c r="D133" s="5" t="s">
+      <c r="D133" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3941,19 +3941,19 @@
       <c r="A134" s="2">
         <v>4020000194</v>
       </c>
-      <c r="B134" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C134" s="4">
+      <c r="B134" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C134" s="3">
         <v>2030011066</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3961,19 +3961,19 @@
       <c r="A135" s="2">
         <v>4020000195</v>
       </c>
-      <c r="B135" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C135" s="4">
+      <c r="B135" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C135" s="3">
         <v>2030011067</v>
       </c>
-      <c r="D135" s="5" t="s">
+      <c r="D135" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3981,19 +3981,19 @@
       <c r="A136" s="2">
         <v>4020000197</v>
       </c>
-      <c r="B136" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C136" s="4">
+      <c r="B136" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C136" s="3">
         <v>2030011068</v>
       </c>
-      <c r="D136" s="5" t="s">
+      <c r="D136" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4001,19 +4001,19 @@
       <c r="A137" s="2">
         <v>4020000199</v>
       </c>
-      <c r="B137" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C137" s="4">
+      <c r="B137" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C137" s="3">
         <v>2030011070</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4021,19 +4021,19 @@
       <c r="A138" s="2">
         <v>4020000200</v>
       </c>
-      <c r="B138" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C138" s="4">
+      <c r="B138" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C138" s="3">
         <v>2030011071</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4041,19 +4041,19 @@
       <c r="A139" s="2">
         <v>4020000345</v>
       </c>
-      <c r="B139" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C139" s="4">
+      <c r="B139" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C139" s="3">
         <v>2030011072</v>
       </c>
-      <c r="D139" s="5" t="s">
+      <c r="D139" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4061,19 +4061,19 @@
       <c r="A140" s="2">
         <v>4020000211</v>
       </c>
-      <c r="B140" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C140" s="4">
+      <c r="B140" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C140" s="3">
         <v>2030011073</v>
       </c>
-      <c r="D140" s="5" t="s">
+      <c r="D140" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4081,19 +4081,19 @@
       <c r="A141" s="2">
         <v>4020000213</v>
       </c>
-      <c r="B141" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C141" s="4">
+      <c r="B141" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C141" s="3">
         <v>2030011074</v>
       </c>
-      <c r="D141" s="5" t="s">
+      <c r="D141" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F141" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4101,19 +4101,19 @@
       <c r="A142" s="2">
         <v>4020000215</v>
       </c>
-      <c r="B142" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C142" s="4">
+      <c r="B142" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C142" s="3">
         <v>2030011075</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4121,19 +4121,19 @@
       <c r="A143" s="2">
         <v>4020000216</v>
       </c>
-      <c r="B143" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C143" s="4">
+      <c r="B143" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C143" s="3">
         <v>2030011076</v>
       </c>
-      <c r="D143" s="5" t="s">
+      <c r="D143" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4141,19 +4141,19 @@
       <c r="A144" s="2">
         <v>4020000217</v>
       </c>
-      <c r="B144" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C144" s="4">
+      <c r="B144" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C144" s="3">
         <v>2030011077</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4161,19 +4161,19 @@
       <c r="A145" s="2">
         <v>4020000218</v>
       </c>
-      <c r="B145" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C145" s="4">
+      <c r="B145" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C145" s="3">
         <v>2030011078</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4181,19 +4181,19 @@
       <c r="A146" s="2">
         <v>4020000219</v>
       </c>
-      <c r="B146" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C146" s="4">
+      <c r="B146" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C146" s="3">
         <v>2030011079</v>
       </c>
-      <c r="D146" s="5" t="s">
+      <c r="D146" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4201,19 +4201,19 @@
       <c r="A147" s="2">
         <v>4020000220</v>
       </c>
-      <c r="B147" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C147" s="4">
+      <c r="B147" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C147" s="3">
         <v>2030011080</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4221,19 +4221,19 @@
       <c r="A148" s="2">
         <v>4020000221</v>
       </c>
-      <c r="B148" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C148" s="4">
+      <c r="B148" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C148" s="3">
         <v>2030011081</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4241,19 +4241,19 @@
       <c r="A149" s="2">
         <v>4020000267</v>
       </c>
-      <c r="B149" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C149" s="4">
+      <c r="B149" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C149" s="3">
         <v>2030011084</v>
       </c>
-      <c r="D149" s="5" t="s">
+      <c r="D149" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4261,19 +4261,19 @@
       <c r="A150" s="2">
         <v>4020000226</v>
       </c>
-      <c r="B150" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C150" s="4">
+      <c r="B150" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C150" s="3">
         <v>2030011085</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4281,19 +4281,19 @@
       <c r="A151" s="2">
         <v>4020000266</v>
       </c>
-      <c r="B151" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C151" s="4">
+      <c r="B151" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C151" s="3">
         <v>2030011087</v>
       </c>
-      <c r="D151" s="5" t="s">
+      <c r="D151" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="5">
         <v>2010000663</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="F151" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -4301,19 +4301,19 @@
       <c r="A152" s="2">
         <v>4020000229</v>
       </c>
-      <c r="B152" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C152" s="4">
+      <c r="B152" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C152" s="3">
         <v>2030011088</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4321,19 +4321,19 @@
       <c r="A153" s="2">
         <v>4020000230</v>
       </c>
-      <c r="B153" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C153" s="4">
+      <c r="B153" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C153" s="3">
         <v>2030011089</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4341,19 +4341,19 @@
       <c r="A154" s="2">
         <v>4020000231</v>
       </c>
-      <c r="B154" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C154" s="4">
+      <c r="B154" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C154" s="3">
         <v>2030011090</v>
       </c>
-      <c r="D154" s="5" t="s">
+      <c r="D154" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F154" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4361,19 +4361,19 @@
       <c r="A155" s="2">
         <v>4020000232</v>
       </c>
-      <c r="B155" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C155" s="4">
+      <c r="B155" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C155" s="3">
         <v>2030011091</v>
       </c>
-      <c r="D155" s="5" t="s">
+      <c r="D155" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4381,19 +4381,19 @@
       <c r="A156" s="2">
         <v>4020000233</v>
       </c>
-      <c r="B156" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C156" s="4">
+      <c r="B156" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C156" s="3">
         <v>2030011092</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F156" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4401,19 +4401,19 @@
       <c r="A157" s="2">
         <v>4020000234</v>
       </c>
-      <c r="B157" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C157" s="4">
+      <c r="B157" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C157" s="3">
         <v>2030011093</v>
       </c>
-      <c r="D157" s="5" t="s">
+      <c r="D157" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F157" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4421,19 +4421,19 @@
       <c r="A158" s="2">
         <v>4020000235</v>
       </c>
-      <c r="B158" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C158" s="4">
+      <c r="B158" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C158" s="3">
         <v>2030011094</v>
       </c>
-      <c r="D158" s="5" t="s">
+      <c r="D158" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4441,19 +4441,19 @@
       <c r="A159" s="2">
         <v>4020000236</v>
       </c>
-      <c r="B159" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C159" s="4">
+      <c r="B159" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C159" s="3">
         <v>2030011095</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F159" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4461,19 +4461,19 @@
       <c r="A160" s="2">
         <v>4020000241</v>
       </c>
-      <c r="B160" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C160" s="4">
+      <c r="B160" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C160" s="3">
         <v>2030011096</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="5">
         <v>2010000564</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="6" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4481,19 +4481,19 @@
       <c r="A161" s="2">
         <v>4020000239</v>
       </c>
-      <c r="B161" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C161" s="4">
+      <c r="B161" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C161" s="3">
         <v>2030011097</v>
       </c>
-      <c r="D161" s="5" t="s">
+      <c r="D161" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4501,19 +4501,19 @@
       <c r="A162" s="2">
         <v>4020000243</v>
       </c>
-      <c r="B162" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C162" s="4">
+      <c r="B162" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C162" s="3">
         <v>2030011098</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="5">
         <v>100000000558</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F162" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -4521,19 +4521,19 @@
       <c r="A163" s="2">
         <v>4020000244</v>
       </c>
-      <c r="B163" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C163" s="4">
+      <c r="B163" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C163" s="3">
         <v>2030011099</v>
       </c>
-      <c r="D163" s="5" t="s">
+      <c r="D163" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F163" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4541,19 +4541,19 @@
       <c r="A164" s="2">
         <v>4020000245</v>
       </c>
-      <c r="B164" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C164" s="4">
+      <c r="B164" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C164" s="3">
         <v>2030011100</v>
       </c>
-      <c r="D164" s="5" t="s">
+      <c r="D164" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="5">
         <v>2030001015</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="6" t="s">
         <v>138</v>
       </c>
     </row>
@@ -4561,19 +4561,19 @@
       <c r="A165" s="2">
         <v>4020000246</v>
       </c>
-      <c r="B165" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C165" s="4">
+      <c r="B165" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C165" s="3">
         <v>2030011101</v>
       </c>
-      <c r="D165" s="5" t="s">
+      <c r="D165" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="5">
         <v>2010000662</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F165" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4581,19 +4581,19 @@
       <c r="A166" s="2">
         <v>4020000247</v>
       </c>
-      <c r="B166" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C166" s="4">
+      <c r="B166" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C166" s="3">
         <v>2030011102</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4601,19 +4601,19 @@
       <c r="A167" s="2">
         <v>4020000248</v>
       </c>
-      <c r="B167" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C167" s="4">
+      <c r="B167" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C167" s="3">
         <v>2030011103</v>
       </c>
-      <c r="D167" s="5" t="s">
+      <c r="D167" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4621,19 +4621,19 @@
       <c r="A168" s="2">
         <v>4020000249</v>
       </c>
-      <c r="B168" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C168" s="4">
+      <c r="B168" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C168" s="3">
         <v>2030011104</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="5">
         <v>2010000545</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="6" t="s">
         <v>28</v>
       </c>
     </row>
@@ -4641,19 +4641,19 @@
       <c r="A169" s="2">
         <v>4020000252</v>
       </c>
-      <c r="B169" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C169" s="4">
+      <c r="B169" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C169" s="3">
         <v>2030011105</v>
       </c>
-      <c r="D169" s="5" t="s">
+      <c r="D169" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="5">
         <v>2030001016</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F169" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4661,19 +4661,19 @@
       <c r="A170" s="2">
         <v>4020000253</v>
       </c>
-      <c r="B170" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C170" s="4">
+      <c r="B170" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C170" s="3">
         <v>2030011106</v>
       </c>
-      <c r="D170" s="5" t="s">
+      <c r="D170" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="5">
         <v>2030001016</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4681,19 +4681,19 @@
       <c r="A171" s="2">
         <v>4020000254</v>
       </c>
-      <c r="B171" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C171" s="4">
+      <c r="B171" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C171" s="3">
         <v>2030011107</v>
       </c>
-      <c r="D171" s="5" t="s">
+      <c r="D171" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="5">
         <v>2030001016</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="F171" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4701,19 +4701,19 @@
       <c r="A172" s="2">
         <v>4020000256</v>
       </c>
-      <c r="B172" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C172" s="4">
+      <c r="B172" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C172" s="3">
         <v>2030011108</v>
       </c>
-      <c r="D172" s="5" t="s">
+      <c r="D172" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="5">
         <v>2030001016</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4721,19 +4721,19 @@
       <c r="A173" s="2">
         <v>4020000257</v>
       </c>
-      <c r="B173" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C173" s="4">
+      <c r="B173" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C173" s="3">
         <v>2030011109</v>
       </c>
-      <c r="D173" s="5" t="s">
+      <c r="D173" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="5">
         <v>2030001016</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="F173" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4741,19 +4741,19 @@
       <c r="A174" s="2">
         <v>4020000258</v>
       </c>
-      <c r="B174" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C174" s="4">
+      <c r="B174" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C174" s="3">
         <v>2030011110</v>
       </c>
-      <c r="D174" s="5" t="s">
+      <c r="D174" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F174" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4761,19 +4761,19 @@
       <c r="A175" s="2">
         <v>4020000259</v>
       </c>
-      <c r="B175" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C175" s="4">
+      <c r="B175" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C175" s="3">
         <v>2030011111</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="F175" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4781,19 +4781,19 @@
       <c r="A176" s="2">
         <v>4020000260</v>
       </c>
-      <c r="B176" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C176" s="4">
+      <c r="B176" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C176" s="3">
         <v>2030011112</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4801,19 +4801,19 @@
       <c r="A177" s="2">
         <v>4020000261</v>
       </c>
-      <c r="B177" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C177" s="4">
+      <c r="B177" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C177" s="3">
         <v>2030011113</v>
       </c>
-      <c r="D177" s="5" t="s">
+      <c r="D177" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4821,16 +4821,16 @@
       <c r="A178" s="2">
         <v>4020000262</v>
       </c>
-      <c r="B178" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C178" s="4">
+      <c r="B178" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C178" s="3">
         <v>2030011114</v>
       </c>
-      <c r="D178" s="5" t="s">
+      <c r="D178" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="5">
         <v>2010000560.0999999</v>
       </c>
     </row>
@@ -4838,19 +4838,19 @@
       <c r="A179" s="2">
         <v>4020000263</v>
       </c>
-      <c r="B179" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C179" s="4">
+      <c r="B179" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C179" s="3">
         <v>2030011115</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F179" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -4858,19 +4858,19 @@
       <c r="A180" s="2">
         <v>4020000268</v>
       </c>
-      <c r="B180" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C180" s="4">
+      <c r="B180" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C180" s="3">
         <v>2030011118</v>
       </c>
-      <c r="D180" s="5" t="s">
+      <c r="D180" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F180" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -4878,19 +4878,19 @@
       <c r="A181" s="2">
         <v>4020000270</v>
       </c>
-      <c r="B181" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C181" s="4">
+      <c r="B181" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C181" s="3">
         <v>2030011119</v>
       </c>
-      <c r="D181" s="5" t="s">
+      <c r="D181" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F181" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4898,19 +4898,19 @@
       <c r="A182" s="2">
         <v>4020000275</v>
       </c>
-      <c r="B182" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C182" s="4">
+      <c r="B182" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C182" s="3">
         <v>2030011120</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4918,19 +4918,19 @@
       <c r="A183" s="2">
         <v>4020000276</v>
       </c>
-      <c r="B183" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C183" s="4">
+      <c r="B183" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C183" s="3">
         <v>2030011121</v>
       </c>
-      <c r="D183" s="5" t="s">
+      <c r="D183" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4938,19 +4938,19 @@
       <c r="A184" s="2">
         <v>4020000274</v>
       </c>
-      <c r="B184" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C184" s="4">
+      <c r="B184" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C184" s="3">
         <v>2030011122</v>
       </c>
-      <c r="D184" s="5" t="s">
+      <c r="D184" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F184" s="7" t="s">
+      <c r="F184" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -4958,19 +4958,19 @@
       <c r="A185" s="2">
         <v>4020000283</v>
       </c>
-      <c r="B185" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C185" s="4">
+      <c r="B185" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C185" s="3">
         <v>2030011123</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E185" s="5">
         <v>2030001016</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4978,19 +4978,19 @@
       <c r="A186" s="2">
         <v>4020000285</v>
       </c>
-      <c r="B186" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C186" s="4">
+      <c r="B186" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C186" s="3">
         <v>2030011124</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -4998,19 +4998,19 @@
       <c r="A187" s="2">
         <v>4020000286</v>
       </c>
-      <c r="B187" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C187" s="4">
+      <c r="B187" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C187" s="3">
         <v>2030011125</v>
       </c>
-      <c r="D187" s="5" t="s">
+      <c r="D187" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="F187" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5018,19 +5018,19 @@
       <c r="A188" s="2">
         <v>4020000287</v>
       </c>
-      <c r="B188" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C188" s="4">
+      <c r="B188" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C188" s="3">
         <v>2030011126</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5038,19 +5038,19 @@
       <c r="A189" s="2">
         <v>4020000288</v>
       </c>
-      <c r="B189" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C189" s="4">
+      <c r="B189" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C189" s="3">
         <v>2030011127</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="F189" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5058,16 +5058,16 @@
       <c r="A190" s="2">
         <v>4020000289</v>
       </c>
-      <c r="B190" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C190" s="4">
+      <c r="B190" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C190" s="3">
         <v>2030011128</v>
       </c>
-      <c r="D190" s="5" t="s">
+      <c r="D190" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="5">
         <v>2010000563.0999999</v>
       </c>
     </row>
@@ -5075,16 +5075,16 @@
       <c r="A191" s="2">
         <v>4020000290</v>
       </c>
-      <c r="B191" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C191" s="4">
+      <c r="B191" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C191" s="3">
         <v>2030011129</v>
       </c>
-      <c r="D191" s="5" t="s">
+      <c r="D191" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="5">
         <v>2010000563.0999999</v>
       </c>
     </row>
@@ -5092,16 +5092,16 @@
       <c r="A192" s="2">
         <v>4020000291</v>
       </c>
-      <c r="B192" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C192" s="4">
+      <c r="B192" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C192" s="3">
         <v>2030011130</v>
       </c>
-      <c r="D192" s="5" t="s">
+      <c r="D192" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E192" s="5">
         <v>2010000563.0999999</v>
       </c>
     </row>
@@ -5109,19 +5109,19 @@
       <c r="A193" s="2">
         <v>4020000292</v>
       </c>
-      <c r="B193" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C193" s="4">
+      <c r="B193" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C193" s="3">
         <v>2030011131</v>
       </c>
-      <c r="D193" s="5" t="s">
+      <c r="D193" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E193" s="5">
         <v>2030001018</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="F193" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5129,19 +5129,19 @@
       <c r="A194" s="2">
         <v>4020000293</v>
       </c>
-      <c r="B194" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C194" s="4">
+      <c r="B194" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C194" s="3">
         <v>2030011132</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E194" s="6">
+      <c r="E194" s="5">
         <v>2030001018</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5149,19 +5149,19 @@
       <c r="A195" s="2">
         <v>4020000294</v>
       </c>
-      <c r="B195" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C195" s="4">
+      <c r="B195" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C195" s="3">
         <v>2030011133</v>
       </c>
-      <c r="D195" s="5" t="s">
+      <c r="D195" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E195" s="6">
+      <c r="E195" s="5">
         <v>2030001018</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F195" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5169,19 +5169,19 @@
       <c r="A196" s="2">
         <v>4020000296</v>
       </c>
-      <c r="B196" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C196" s="4">
+      <c r="B196" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C196" s="3">
         <v>2030011134</v>
       </c>
-      <c r="D196" s="5" t="s">
+      <c r="D196" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E196" s="5">
         <v>2030001018</v>
       </c>
-      <c r="F196" s="7" t="s">
+      <c r="F196" s="6" t="s">
         <v>212</v>
       </c>
     </row>
@@ -5189,19 +5189,19 @@
       <c r="A197" s="2">
         <v>4020000297</v>
       </c>
-      <c r="B197" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C197" s="4">
+      <c r="B197" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C197" s="3">
         <v>2030011135</v>
       </c>
-      <c r="D197" s="5" t="s">
+      <c r="D197" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E197" s="6">
+      <c r="E197" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5209,19 +5209,19 @@
       <c r="A198" s="2">
         <v>4020000298</v>
       </c>
-      <c r="B198" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C198" s="4">
+      <c r="B198" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C198" s="3">
         <v>2030011136</v>
       </c>
-      <c r="D198" s="5" t="s">
+      <c r="D198" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="F198" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5229,19 +5229,19 @@
       <c r="A199" s="2">
         <v>4020000299</v>
       </c>
-      <c r="B199" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C199" s="4">
+      <c r="B199" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C199" s="3">
         <v>2030011137</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E199" s="6">
+      <c r="E199" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="F199" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5249,19 +5249,19 @@
       <c r="A200" s="2">
         <v>4020000300</v>
       </c>
-      <c r="B200" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C200" s="4">
+      <c r="B200" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C200" s="3">
         <v>2030011138</v>
       </c>
-      <c r="D200" s="5" t="s">
+      <c r="D200" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E200" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5269,16 +5269,16 @@
       <c r="A201" s="2">
         <v>4020000307</v>
       </c>
-      <c r="B201" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C201" s="4">
+      <c r="B201" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C201" s="3">
         <v>2030011139</v>
       </c>
-      <c r="D201" s="5" t="s">
+      <c r="D201" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E201" s="6">
+      <c r="E201" s="5">
         <v>2010000660.0999999</v>
       </c>
     </row>
@@ -5286,19 +5286,19 @@
       <c r="A202" s="2">
         <v>4020000301</v>
       </c>
-      <c r="B202" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C202" s="4">
+      <c r="B202" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C202" s="3">
         <v>2030011140</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E202" s="6">
+      <c r="E202" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5306,19 +5306,19 @@
       <c r="A203" s="2">
         <v>4020000302</v>
       </c>
-      <c r="B203" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C203" s="4">
+      <c r="B203" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C203" s="3">
         <v>2030011141</v>
       </c>
-      <c r="D203" s="5" t="s">
+      <c r="D203" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5326,19 +5326,19 @@
       <c r="A204" s="2">
         <v>4020000303</v>
       </c>
-      <c r="B204" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C204" s="4">
+      <c r="B204" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C204" s="3">
         <v>2030011142</v>
       </c>
-      <c r="D204" s="5" t="s">
+      <c r="D204" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F204" s="7" t="s">
+      <c r="F204" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5346,19 +5346,19 @@
       <c r="A205" s="2">
         <v>4020000305</v>
       </c>
-      <c r="B205" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C205" s="4">
+      <c r="B205" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C205" s="3">
         <v>2030011144</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F205" s="7" t="s">
+      <c r="F205" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5366,19 +5366,19 @@
       <c r="A206" s="2">
         <v>4020000306</v>
       </c>
-      <c r="B206" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C206" s="4">
+      <c r="B206" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C206" s="3">
         <v>2030011145</v>
       </c>
-      <c r="D206" s="5" t="s">
+      <c r="D206" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5386,19 +5386,19 @@
       <c r="A207" s="2">
         <v>4020000309</v>
       </c>
-      <c r="B207" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C207" s="4">
+      <c r="B207" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C207" s="3">
         <v>2030011146</v>
       </c>
-      <c r="D207" s="5" t="s">
+      <c r="D207" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="5">
         <v>2010000660</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="F207" s="6" t="s">
         <v>93</v>
       </c>
     </row>
@@ -5406,19 +5406,19 @@
       <c r="A208" s="2">
         <v>4020000312</v>
       </c>
-      <c r="B208" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C208" s="4">
+      <c r="B208" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C208" s="3">
         <v>2030011147</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F208" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5426,19 +5426,19 @@
       <c r="A209" s="2">
         <v>4020000321</v>
       </c>
-      <c r="B209" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C209" s="4">
+      <c r="B209" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C209" s="3">
         <v>2030011148</v>
       </c>
-      <c r="D209" s="5" t="s">
+      <c r="D209" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5446,19 +5446,19 @@
       <c r="A210" s="2">
         <v>4020000339</v>
       </c>
-      <c r="B210" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C210" s="4">
+      <c r="B210" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C210" s="3">
         <v>2030011149</v>
       </c>
-      <c r="D210" s="5" t="s">
+      <c r="D210" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="5">
         <v>2010000662</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="F210" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -5466,19 +5466,19 @@
       <c r="A211" s="2">
         <v>4020000342</v>
       </c>
-      <c r="B211" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C211" s="4">
+      <c r="B211" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C211" s="3">
         <v>2030011150</v>
       </c>
-      <c r="D211" s="5" t="s">
+      <c r="D211" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E211" s="6">
+      <c r="E211" s="5">
         <v>2030001020</v>
       </c>
-      <c r="F211" s="7" t="s">
+      <c r="F211" s="6" t="s">
         <v>229</v>
       </c>
     </row>
@@ -5486,19 +5486,19 @@
       <c r="A212" s="2">
         <v>4020000344</v>
       </c>
-      <c r="B212" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C212" s="4">
+      <c r="B212" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C212" s="3">
         <v>2030011151</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E212" s="6">
+      <c r="E212" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F212" s="7" t="s">
+      <c r="F212" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5506,19 +5506,19 @@
       <c r="A213" s="2">
         <v>4020000346</v>
       </c>
-      <c r="B213" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C213" s="4">
+      <c r="B213" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C213" s="3">
         <v>2030011152</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E213" s="6">
+      <c r="E213" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F213" s="7" t="s">
+      <c r="F213" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5526,19 +5526,19 @@
       <c r="A214" s="2">
         <v>4020000347</v>
       </c>
-      <c r="B214" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C214" s="4">
+      <c r="B214" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C214" s="3">
         <v>2030011153</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F214" s="7" t="s">
+      <c r="F214" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5546,19 +5546,19 @@
       <c r="A215" s="2">
         <v>4020000348</v>
       </c>
-      <c r="B215" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C215" s="4">
+      <c r="B215" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C215" s="3">
         <v>2030011154</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E215" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5566,19 +5566,19 @@
       <c r="A216" s="2">
         <v>4020000349</v>
       </c>
-      <c r="B216" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C216" s="4">
+      <c r="B216" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C216" s="3">
         <v>2030011155</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="5">
         <v>2030001021</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="F216" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5586,19 +5586,19 @@
       <c r="A217" s="2">
         <v>4020000350</v>
       </c>
-      <c r="B217" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C217" s="4">
+      <c r="B217" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C217" s="3">
         <v>2030011156</v>
       </c>
-      <c r="D217" s="5" t="s">
+      <c r="D217" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E217" s="6">
+      <c r="E217" s="5">
         <v>2030001021</v>
       </c>
-      <c r="F217" s="7" t="s">
+      <c r="F217" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5606,19 +5606,19 @@
       <c r="A218" s="2">
         <v>4020000351</v>
       </c>
-      <c r="B218" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C218" s="4">
+      <c r="B218" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C218" s="3">
         <v>2030011157</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E218" s="6">
+      <c r="E218" s="5">
         <v>2030001021</v>
       </c>
-      <c r="F218" s="7" t="s">
+      <c r="F218" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5626,19 +5626,19 @@
       <c r="A219" s="2">
         <v>4020000356</v>
       </c>
-      <c r="B219" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C219" s="4">
+      <c r="B219" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C219" s="3">
         <v>2030011158</v>
       </c>
-      <c r="D219" s="5" t="s">
+      <c r="D219" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E219" s="6">
+      <c r="E219" s="5">
         <v>2030001021</v>
       </c>
-      <c r="F219" s="7" t="s">
+      <c r="F219" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5646,19 +5646,19 @@
       <c r="A220" s="2">
         <v>4020000359</v>
       </c>
-      <c r="B220" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C220" s="4">
+      <c r="B220" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C220" s="3">
         <v>2030011159</v>
       </c>
-      <c r="D220" s="5" t="s">
+      <c r="D220" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E220" s="6">
+      <c r="E220" s="5">
         <v>2030001021</v>
       </c>
-      <c r="F220" s="7" t="s">
+      <c r="F220" s="6" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5666,19 +5666,19 @@
       <c r="A221" s="2">
         <v>4020000360</v>
       </c>
-      <c r="B221" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C221" s="4">
+      <c r="B221" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C221" s="3">
         <v>2030011160</v>
       </c>
-      <c r="D221" s="5" t="s">
+      <c r="D221" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E221" s="6">
+      <c r="E221" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F221" s="7" t="s">
+      <c r="F221" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5686,19 +5686,19 @@
       <c r="A222" s="2">
         <v>4020000361</v>
       </c>
-      <c r="B222" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C222" s="4">
+      <c r="B222" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C222" s="3">
         <v>2030011161</v>
       </c>
-      <c r="D222" s="5" t="s">
+      <c r="D222" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E222" s="6">
+      <c r="E222" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F222" s="7" t="s">
+      <c r="F222" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5706,19 +5706,19 @@
       <c r="A223" s="2">
         <v>4020000364</v>
       </c>
-      <c r="B223" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C223" s="4">
+      <c r="B223" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C223" s="3">
         <v>2030011163</v>
       </c>
-      <c r="D223" s="5" t="s">
+      <c r="D223" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E223" s="6">
+      <c r="E223" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -5726,19 +5726,19 @@
       <c r="A224" s="2">
         <v>4020000366</v>
       </c>
-      <c r="B224" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C224" s="4">
+      <c r="B224" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C224" s="3">
         <v>2030011164</v>
       </c>
-      <c r="D224" s="5" t="s">
+      <c r="D224" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E224" s="6">
+      <c r="E224" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F224" s="7" t="s">
+      <c r="F224" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5746,19 +5746,19 @@
       <c r="A225" s="2">
         <v>4020000368</v>
       </c>
-      <c r="B225" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C225" s="4">
+      <c r="B225" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C225" s="3">
         <v>2030011165</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E225" s="6">
+      <c r="E225" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F225" s="7" t="s">
+      <c r="F225" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5766,19 +5766,19 @@
       <c r="A226" s="2">
         <v>4020000370</v>
       </c>
-      <c r="B226" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C226" s="4">
+      <c r="B226" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C226" s="3">
         <v>2030011166</v>
       </c>
-      <c r="D226" s="5" t="s">
+      <c r="D226" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E226" s="6">
+      <c r="E226" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F226" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -5786,19 +5786,19 @@
       <c r="A227" s="2">
         <v>4020000373</v>
       </c>
-      <c r="B227" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C227" s="4">
+      <c r="B227" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C227" s="3">
         <v>2030011167</v>
       </c>
-      <c r="D227" s="5" t="s">
+      <c r="D227" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E227" s="6">
+      <c r="E227" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F227" s="7" t="s">
+      <c r="F227" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5806,19 +5806,19 @@
       <c r="A228" s="2">
         <v>4020000376</v>
       </c>
-      <c r="B228" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C228" s="4">
+      <c r="B228" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C228" s="3">
         <v>2030011168</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D228" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E228" s="6">
+      <c r="E228" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F228" s="7" t="s">
+      <c r="F228" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -5826,19 +5826,19 @@
       <c r="A229" s="2">
         <v>4020000377</v>
       </c>
-      <c r="B229" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C229" s="4">
+      <c r="B229" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C229" s="3">
         <v>2030011169</v>
       </c>
-      <c r="D229" s="5" t="s">
+      <c r="D229" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E229" s="6">
+      <c r="E229" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F229" s="7" t="s">
+      <c r="F229" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -5846,19 +5846,19 @@
       <c r="A230" s="2">
         <v>4020000379</v>
       </c>
-      <c r="B230" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C230" s="4">
+      <c r="B230" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C230" s="3">
         <v>2030011220</v>
       </c>
-      <c r="D230" s="5" t="s">
+      <c r="D230" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E230" s="6">
+      <c r="E230" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F230" s="7" t="s">
+      <c r="F230" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5866,19 +5866,19 @@
       <c r="A231" s="2">
         <v>4020000380</v>
       </c>
-      <c r="B231" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C231" s="4">
+      <c r="B231" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C231" s="3">
         <v>2030011221</v>
       </c>
-      <c r="D231" s="5" t="s">
+      <c r="D231" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="E231" s="6">
+      <c r="E231" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F231" s="7" t="s">
+      <c r="F231" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -5886,19 +5886,19 @@
       <c r="A232" s="2">
         <v>4020000381</v>
       </c>
-      <c r="B232" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C232" s="4">
+      <c r="B232" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C232" s="3">
         <v>2030011222</v>
       </c>
-      <c r="D232" s="5" t="s">
+      <c r="D232" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E232" s="6">
+      <c r="E232" s="5">
         <v>2030001023</v>
       </c>
-      <c r="F232" s="7" t="s">
+      <c r="F232" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5906,19 +5906,19 @@
       <c r="A233" s="2">
         <v>4020000382</v>
       </c>
-      <c r="B233" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C233" s="4">
+      <c r="B233" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C233" s="3">
         <v>2030011223</v>
       </c>
-      <c r="D233" s="5" t="s">
+      <c r="D233" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E233" s="6">
+      <c r="E233" s="5">
         <v>2030001023</v>
       </c>
-      <c r="F233" s="7" t="s">
+      <c r="F233" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5926,19 +5926,19 @@
       <c r="A234" s="2">
         <v>4020000383</v>
       </c>
-      <c r="B234" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C234" s="4">
+      <c r="B234" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C234" s="3">
         <v>2030011224</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="D234" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E234" s="6">
+      <c r="E234" s="5">
         <v>2030001023</v>
       </c>
-      <c r="F234" s="7" t="s">
+      <c r="F234" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5946,19 +5946,19 @@
       <c r="A235" s="2">
         <v>4020000384</v>
       </c>
-      <c r="B235" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C235" s="4">
+      <c r="B235" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C235" s="3">
         <v>2030011225</v>
       </c>
-      <c r="D235" s="5" t="s">
+      <c r="D235" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E235" s="6">
+      <c r="E235" s="5">
         <v>2030001023</v>
       </c>
-      <c r="F235" s="7" t="s">
+      <c r="F235" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5966,19 +5966,19 @@
       <c r="A236" s="2">
         <v>4020000386</v>
       </c>
-      <c r="B236" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C236" s="4">
+      <c r="B236" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C236" s="3">
         <v>2030011226</v>
       </c>
-      <c r="D236" s="5" t="s">
+      <c r="D236" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="E236" s="6">
+      <c r="E236" s="5">
         <v>2030001023</v>
       </c>
-      <c r="F236" s="7" t="s">
+      <c r="F236" s="6" t="s">
         <v>252</v>
       </c>
     </row>
@@ -5986,19 +5986,19 @@
       <c r="A237" s="2">
         <v>4020000387</v>
       </c>
-      <c r="B237" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C237" s="4">
+      <c r="B237" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C237" s="3">
         <v>2030011227</v>
       </c>
-      <c r="D237" s="5" t="s">
+      <c r="D237" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E237" s="6">
+      <c r="E237" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="F237" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6006,19 +6006,19 @@
       <c r="A238" s="2">
         <v>4020000388</v>
       </c>
-      <c r="B238" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C238" s="4">
+      <c r="B238" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C238" s="3">
         <v>2030011228</v>
       </c>
-      <c r="D238" s="5" t="s">
+      <c r="D238" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E238" s="6">
+      <c r="E238" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="F238" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6026,19 +6026,19 @@
       <c r="A239" s="2">
         <v>4020000389</v>
       </c>
-      <c r="B239" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C239" s="4">
+      <c r="B239" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C239" s="3">
         <v>2030011229</v>
       </c>
-      <c r="D239" s="5" t="s">
+      <c r="D239" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E239" s="6">
+      <c r="E239" s="5">
         <v>2010000563</v>
       </c>
-      <c r="F239" s="7" t="s">
+      <c r="F239" s="6" t="s">
         <v>12</v>
       </c>
     </row>
@@ -6046,19 +6046,19 @@
       <c r="A240" s="2">
         <v>4020000390</v>
       </c>
-      <c r="B240" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C240" s="4">
+      <c r="B240" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C240" s="3">
         <v>2030011230</v>
       </c>
-      <c r="D240" s="5" t="s">
+      <c r="D240" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="E240" s="6">
+      <c r="E240" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="F240" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6066,19 +6066,19 @@
       <c r="A241" s="2">
         <v>4020000392</v>
       </c>
-      <c r="B241" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C241" s="4">
+      <c r="B241" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C241" s="3">
         <v>2030011231</v>
       </c>
-      <c r="D241" s="5" t="s">
+      <c r="D241" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E241" s="6">
+      <c r="E241" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F241" s="7" t="s">
+      <c r="F241" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6086,19 +6086,19 @@
       <c r="A242" s="2">
         <v>4020000399</v>
       </c>
-      <c r="B242" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C242" s="4">
+      <c r="B242" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C242" s="3">
         <v>2030011232</v>
       </c>
-      <c r="D242" s="5" t="s">
+      <c r="D242" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E242" s="6">
+      <c r="E242" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F242" s="7" t="s">
+      <c r="F242" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6106,19 +6106,19 @@
       <c r="A243" s="2">
         <v>4020000400</v>
       </c>
-      <c r="B243" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C243" s="4">
+      <c r="B243" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C243" s="3">
         <v>2030011233</v>
       </c>
-      <c r="D243" s="5" t="s">
+      <c r="D243" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E243" s="6">
+      <c r="E243" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F243" s="7" t="s">
+      <c r="F243" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6126,19 +6126,19 @@
       <c r="A244" s="2">
         <v>4020000401</v>
       </c>
-      <c r="B244" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C244" s="4">
+      <c r="B244" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C244" s="3">
         <v>2030011234</v>
       </c>
-      <c r="D244" s="5" t="s">
+      <c r="D244" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E244" s="6">
+      <c r="E244" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F244" s="7" t="s">
+      <c r="F244" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6146,19 +6146,19 @@
       <c r="A245" s="2">
         <v>4020000402</v>
       </c>
-      <c r="B245" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C245" s="4">
+      <c r="B245" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C245" s="3">
         <v>2030011235</v>
       </c>
-      <c r="D245" s="5" t="s">
+      <c r="D245" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E245" s="6">
+      <c r="E245" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F245" s="7" t="s">
+      <c r="F245" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6166,19 +6166,19 @@
       <c r="A246" s="2">
         <v>4020000403</v>
       </c>
-      <c r="B246" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C246" s="4">
+      <c r="B246" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C246" s="3">
         <v>2030011236</v>
       </c>
-      <c r="D246" s="5" t="s">
+      <c r="D246" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E246" s="6">
+      <c r="E246" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F246" s="7" t="s">
+      <c r="F246" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6186,19 +6186,19 @@
       <c r="A247" s="2">
         <v>4020000404</v>
       </c>
-      <c r="B247" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C247" s="4">
+      <c r="B247" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C247" s="3">
         <v>2030011237</v>
       </c>
-      <c r="D247" s="5" t="s">
+      <c r="D247" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E247" s="6">
+      <c r="E247" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F247" s="7" t="s">
+      <c r="F247" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6206,19 +6206,19 @@
       <c r="A248" s="2">
         <v>4020000405</v>
       </c>
-      <c r="B248" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C248" s="4">
+      <c r="B248" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C248" s="3">
         <v>2030011238</v>
       </c>
-      <c r="D248" s="5" t="s">
+      <c r="D248" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E248" s="6">
+      <c r="E248" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F248" s="7" t="s">
+      <c r="F248" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6226,19 +6226,19 @@
       <c r="A249" s="2">
         <v>4020000406</v>
       </c>
-      <c r="B249" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C249" s="4">
+      <c r="B249" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C249" s="3">
         <v>2030011239</v>
       </c>
-      <c r="D249" s="5" t="s">
+      <c r="D249" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E249" s="6">
+      <c r="E249" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6246,19 +6246,19 @@
       <c r="A250" s="2">
         <v>4020000408</v>
       </c>
-      <c r="B250" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C250" s="4">
+      <c r="B250" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C250" s="3">
         <v>2030011240</v>
       </c>
-      <c r="D250" s="5" t="s">
+      <c r="D250" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E250" s="6">
+      <c r="E250" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F250" s="7" t="s">
+      <c r="F250" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6266,19 +6266,19 @@
       <c r="A251" s="2">
         <v>4020000409</v>
       </c>
-      <c r="B251" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C251" s="4">
+      <c r="B251" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C251" s="3">
         <v>2030011241</v>
       </c>
-      <c r="D251" s="5" t="s">
+      <c r="D251" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E251" s="6">
+      <c r="E251" s="5">
         <v>2010000560</v>
       </c>
-      <c r="F251" s="7" t="s">
+      <c r="F251" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -6286,19 +6286,19 @@
       <c r="A252" s="2">
         <v>4020000410</v>
       </c>
-      <c r="B252" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C252" s="4">
+      <c r="B252" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C252" s="3">
         <v>2030011242</v>
       </c>
-      <c r="D252" s="5" t="s">
+      <c r="D252" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E252" s="6">
+      <c r="E252" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F252" s="7" t="s">
+      <c r="F252" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6306,19 +6306,19 @@
       <c r="A253" s="2">
         <v>4020000414</v>
       </c>
-      <c r="B253" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C253" s="4">
+      <c r="B253" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C253" s="3">
         <v>2030011243</v>
       </c>
-      <c r="D253" s="5" t="s">
+      <c r="D253" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="E253" s="6">
+      <c r="E253" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F253" s="7" t="s">
+      <c r="F253" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6326,19 +6326,19 @@
       <c r="A254" s="2">
         <v>4020000415</v>
       </c>
-      <c r="B254" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C254" s="4">
+      <c r="B254" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C254" s="3">
         <v>2030011244</v>
       </c>
-      <c r="D254" s="5" t="s">
+      <c r="D254" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E254" s="6">
+      <c r="E254" s="5">
         <v>2010000662</v>
       </c>
-      <c r="F254" s="7" t="s">
+      <c r="F254" s="6" t="s">
         <v>98</v>
       </c>
     </row>
@@ -6346,19 +6346,19 @@
       <c r="A255" s="2">
         <v>4020000416</v>
       </c>
-      <c r="B255" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C255" s="4">
+      <c r="B255" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C255" s="3">
         <v>2030011245</v>
       </c>
-      <c r="D255" s="5" t="s">
+      <c r="D255" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E255" s="6">
+      <c r="E255" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F255" s="7" t="s">
+      <c r="F255" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6366,19 +6366,19 @@
       <c r="A256" s="2">
         <v>4020000417</v>
       </c>
-      <c r="B256" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C256" s="4">
+      <c r="B256" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C256" s="3">
         <v>2030011246</v>
       </c>
-      <c r="D256" s="5" t="s">
+      <c r="D256" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="E256" s="6">
+      <c r="E256" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F256" s="7" t="s">
+      <c r="F256" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6386,19 +6386,19 @@
       <c r="A257" s="2">
         <v>4020000418</v>
       </c>
-      <c r="B257" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C257" s="4">
+      <c r="B257" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C257" s="3">
         <v>2030011247</v>
       </c>
-      <c r="D257" s="5" t="s">
+      <c r="D257" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E257" s="6">
+      <c r="E257" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F257" s="7" t="s">
+      <c r="F257" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6406,19 +6406,19 @@
       <c r="A258" s="2">
         <v>4020000419</v>
       </c>
-      <c r="B258" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C258" s="4">
+      <c r="B258" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C258" s="3">
         <v>2030011248</v>
       </c>
-      <c r="D258" s="5" t="s">
+      <c r="D258" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E258" s="6">
+      <c r="E258" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F258" s="7" t="s">
+      <c r="F258" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -6426,19 +6426,19 @@
       <c r="A259" s="2">
         <v>4020000433</v>
       </c>
-      <c r="B259" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C259" s="4">
+      <c r="B259" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C259" s="3">
         <v>2030011249</v>
       </c>
-      <c r="D259" s="5" t="s">
+      <c r="D259" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E259" s="6">
+      <c r="E259" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F259" s="7" t="s">
+      <c r="F259" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6446,19 +6446,19 @@
       <c r="A260" s="2">
         <v>4020000434</v>
       </c>
-      <c r="B260" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C260" s="4">
+      <c r="B260" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C260" s="3">
         <v>2030011250</v>
       </c>
-      <c r="D260" s="5" t="s">
+      <c r="D260" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E260" s="6">
+      <c r="E260" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F260" s="7" t="s">
+      <c r="F260" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6466,19 +6466,19 @@
       <c r="A261" s="2">
         <v>4020000435</v>
       </c>
-      <c r="B261" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C261" s="4">
+      <c r="B261" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C261" s="3">
         <v>2030011251</v>
       </c>
-      <c r="D261" s="5" t="s">
+      <c r="D261" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E261" s="6">
+      <c r="E261" s="5">
         <v>2030001006</v>
       </c>
-      <c r="F261" s="7" t="s">
+      <c r="F261" s="6" t="s">
         <v>103</v>
       </c>
     </row>
@@ -6486,19 +6486,19 @@
       <c r="A262" s="2">
         <v>4020000437</v>
       </c>
-      <c r="B262" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C262" s="4">
+      <c r="B262" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C262" s="3">
         <v>2030011252</v>
       </c>
-      <c r="D262" s="5" t="s">
+      <c r="D262" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E262" s="6">
+      <c r="E262" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F262" s="7" t="s">
+      <c r="F262" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6506,19 +6506,19 @@
       <c r="A263" s="2">
         <v>4020000438</v>
       </c>
-      <c r="B263" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C263" s="4">
+      <c r="B263" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C263" s="3">
         <v>2030011253</v>
       </c>
-      <c r="D263" s="5" t="s">
+      <c r="D263" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E263" s="6">
+      <c r="E263" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F263" s="7" t="s">
+      <c r="F263" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6526,19 +6526,19 @@
       <c r="A264" s="2">
         <v>4020000439</v>
       </c>
-      <c r="B264" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C264" s="4">
+      <c r="B264" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C264" s="3">
         <v>2030011254</v>
       </c>
-      <c r="D264" s="5" t="s">
+      <c r="D264" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E264" s="6">
+      <c r="E264" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F264" s="7" t="s">
+      <c r="F264" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6546,19 +6546,19 @@
       <c r="A265" s="2">
         <v>4020000440</v>
       </c>
-      <c r="B265" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C265" s="4">
+      <c r="B265" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C265" s="3">
         <v>2030011255</v>
       </c>
-      <c r="D265" s="5" t="s">
+      <c r="D265" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E265" s="6">
+      <c r="E265" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F265" s="7" t="s">
+      <c r="F265" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6566,19 +6566,19 @@
       <c r="A266" s="2">
         <v>4020000441</v>
       </c>
-      <c r="B266" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C266" s="4">
+      <c r="B266" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C266" s="3">
         <v>2030011256</v>
       </c>
-      <c r="D266" s="5" t="s">
+      <c r="D266" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E266" s="6">
+      <c r="E266" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F266" s="7" t="s">
+      <c r="F266" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6586,19 +6586,19 @@
       <c r="A267" s="2">
         <v>4020000442</v>
       </c>
-      <c r="B267" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C267" s="4">
+      <c r="B267" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C267" s="3">
         <v>2030011257</v>
       </c>
-      <c r="D267" s="5" t="s">
+      <c r="D267" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E267" s="6">
+      <c r="E267" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F267" s="7" t="s">
+      <c r="F267" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6606,19 +6606,19 @@
       <c r="A268" s="2">
         <v>4020000443</v>
       </c>
-      <c r="B268" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C268" s="4">
+      <c r="B268" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C268" s="3">
         <v>2030011258</v>
       </c>
-      <c r="D268" s="5" t="s">
+      <c r="D268" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="E268" s="6">
+      <c r="E268" s="5">
         <v>2030001026</v>
       </c>
-      <c r="F268" s="7" t="s">
+      <c r="F268" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6626,19 +6626,19 @@
       <c r="A269" s="2">
         <v>4020000444</v>
       </c>
-      <c r="B269" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C269" s="4">
+      <c r="B269" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C269" s="3">
         <v>2030011259</v>
       </c>
-      <c r="D269" s="5" t="s">
+      <c r="D269" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="E269" s="6">
+      <c r="E269" s="5">
         <v>2030001026</v>
       </c>
-      <c r="F269" s="7" t="s">
+      <c r="F269" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6646,19 +6646,19 @@
       <c r="A270" s="2">
         <v>4020000445</v>
       </c>
-      <c r="B270" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C270" s="4">
+      <c r="B270" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C270" s="3">
         <v>2030011260</v>
       </c>
-      <c r="D270" s="5" t="s">
+      <c r="D270" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="E270" s="6">
+      <c r="E270" s="5">
         <v>2030001026</v>
       </c>
-      <c r="F270" s="7" t="s">
+      <c r="F270" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6666,19 +6666,19 @@
       <c r="A271" s="2">
         <v>4020000447</v>
       </c>
-      <c r="B271" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C271" s="4">
+      <c r="B271" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C271" s="3">
         <v>2030011261</v>
       </c>
-      <c r="D271" s="5" t="s">
+      <c r="D271" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="E271" s="6">
+      <c r="E271" s="5">
         <v>2030001026</v>
       </c>
-      <c r="F271" s="7" t="s">
+      <c r="F271" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6686,19 +6686,19 @@
       <c r="A272" s="2">
         <v>4020000446</v>
       </c>
-      <c r="B272" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C272" s="4">
+      <c r="B272" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C272" s="3">
         <v>2030011262</v>
       </c>
-      <c r="D272" s="5" t="s">
+      <c r="D272" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="E272" s="6">
+      <c r="E272" s="5">
         <v>2030001026</v>
       </c>
-      <c r="F272" s="7" t="s">
+      <c r="F272" s="6" t="s">
         <v>290</v>
       </c>
     </row>
@@ -6706,19 +6706,19 @@
       <c r="A273" s="2">
         <v>4020000453</v>
       </c>
-      <c r="B273" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C273" s="4">
+      <c r="B273" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C273" s="3">
         <v>2030011264</v>
       </c>
-      <c r="D273" s="5" t="s">
+      <c r="D273" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E273" s="6">
+      <c r="E273" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F273" s="7" t="s">
+      <c r="F273" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6726,19 +6726,19 @@
       <c r="A274" s="2">
         <v>4020000454</v>
       </c>
-      <c r="B274" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C274" s="4">
+      <c r="B274" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C274" s="3">
         <v>2030011265</v>
       </c>
-      <c r="D274" s="5" t="s">
+      <c r="D274" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E274" s="6">
+      <c r="E274" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F274" s="7" t="s">
+      <c r="F274" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -6746,19 +6746,19 @@
       <c r="A275" s="2">
         <v>4020000319</v>
       </c>
-      <c r="B275" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C275" s="4">
+      <c r="B275" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C275" s="3">
         <v>2030020148</v>
       </c>
-      <c r="D275" s="5" t="s">
+      <c r="D275" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E275" s="6">
+      <c r="E275" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F275" s="7" t="s">
+      <c r="F275" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6766,19 +6766,19 @@
       <c r="A276" s="2">
         <v>4020000183</v>
       </c>
-      <c r="B276" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C276" s="4">
+      <c r="B276" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C276" s="3">
         <v>2030020158</v>
       </c>
-      <c r="D276" s="5" t="s">
+      <c r="D276" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E276" s="6">
+      <c r="E276" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F276" s="7" t="s">
+      <c r="F276" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6786,19 +6786,19 @@
       <c r="A277" s="2">
         <v>4020000449</v>
       </c>
-      <c r="B277" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C277" s="4">
+      <c r="B277" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C277" s="3">
         <v>2030020265</v>
       </c>
-      <c r="D277" s="5" t="s">
+      <c r="D277" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E277" s="6">
+      <c r="E277" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F277" s="7" t="s">
+      <c r="F277" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6806,19 +6806,19 @@
       <c r="A278" s="2">
         <v>4020000326</v>
       </c>
-      <c r="B278" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C278" s="4">
+      <c r="B278" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C278" s="3">
         <v>2030020503</v>
       </c>
-      <c r="D278" s="5" t="s">
+      <c r="D278" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E278" s="6">
+      <c r="E278" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F278" s="7" t="s">
+      <c r="F278" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6826,19 +6826,19 @@
       <c r="A279" s="2">
         <v>4020000450</v>
       </c>
-      <c r="B279" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C279" s="4">
+      <c r="B279" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C279" s="3">
         <v>2030020543</v>
       </c>
-      <c r="D279" s="5" t="s">
+      <c r="D279" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E279" s="6">
+      <c r="E279" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F279" s="7" t="s">
+      <c r="F279" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6846,19 +6846,19 @@
       <c r="A280" s="2">
         <v>4020000185</v>
       </c>
-      <c r="B280" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C280" s="4">
+      <c r="B280" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C280" s="3">
         <v>2030021008</v>
       </c>
-      <c r="D280" s="5" t="s">
+      <c r="D280" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E280" s="6">
+      <c r="E280" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F280" s="7" t="s">
+      <c r="F280" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6866,19 +6866,19 @@
       <c r="A281" s="2">
         <v>4020000311</v>
       </c>
-      <c r="B281" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C281" s="4">
+      <c r="B281" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C281" s="3">
         <v>2030021020</v>
       </c>
-      <c r="D281" s="5" t="s">
+      <c r="D281" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E281" s="6">
+      <c r="E281" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F281" s="7" t="s">
+      <c r="F281" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6886,19 +6886,19 @@
       <c r="A282" s="2">
         <v>4020000188</v>
       </c>
-      <c r="B282" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C282" s="4">
+      <c r="B282" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C282" s="3">
         <v>2030021027</v>
       </c>
-      <c r="D282" s="5" t="s">
+      <c r="D282" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E282" s="6">
+      <c r="E282" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F282" s="7" t="s">
+      <c r="F282" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6906,19 +6906,19 @@
       <c r="A283" s="2">
         <v>4020000323</v>
       </c>
-      <c r="B283" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C283" s="4">
+      <c r="B283" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C283" s="3">
         <v>2030021063</v>
       </c>
-      <c r="D283" s="5" t="s">
+      <c r="D283" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E283" s="6">
+      <c r="E283" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F283" s="7" t="s">
+      <c r="F283" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6926,19 +6926,19 @@
       <c r="A284" s="2">
         <v>4020000328</v>
       </c>
-      <c r="B284" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C284" s="4">
+      <c r="B284" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C284" s="3">
         <v>2030021064</v>
       </c>
-      <c r="D284" s="5" t="s">
+      <c r="D284" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E284" s="6">
+      <c r="E284" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F284" s="7" t="s">
+      <c r="F284" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6946,19 +6946,19 @@
       <c r="A285" s="2">
         <v>4020000412</v>
       </c>
-      <c r="B285" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C285" s="4">
+      <c r="B285" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C285" s="3">
         <v>2030021065</v>
       </c>
-      <c r="D285" s="5" t="s">
+      <c r="D285" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E285" s="6">
+      <c r="E285" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F285" s="7" t="s">
+      <c r="F285" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -6966,19 +6966,19 @@
       <c r="A286" s="2">
         <v>4020000452</v>
       </c>
-      <c r="B286" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C286" s="4">
+      <c r="B286" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C286" s="3">
         <v>2030021075</v>
       </c>
-      <c r="D286" s="5" t="s">
+      <c r="D286" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E286" s="6">
+      <c r="E286" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F286" s="7" t="s">
+      <c r="F286" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -6986,19 +6986,19 @@
       <c r="A287" s="2">
         <v>4020000329</v>
       </c>
-      <c r="B287" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C287" s="4">
+      <c r="B287" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C287" s="3">
         <v>2030021077</v>
       </c>
-      <c r="D287" s="5" t="s">
+      <c r="D287" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E287" s="6">
+      <c r="E287" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F287" s="7" t="s">
+      <c r="F287" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7006,19 +7006,19 @@
       <c r="A288" s="2">
         <v>4020000281</v>
       </c>
-      <c r="B288" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C288" s="4">
+      <c r="B288" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C288" s="3">
         <v>2030021102</v>
       </c>
-      <c r="D288" s="5" t="s">
+      <c r="D288" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E288" s="6">
+      <c r="E288" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F288" s="7" t="s">
+      <c r="F288" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7026,19 +7026,19 @@
       <c r="A289" s="2">
         <v>4020000431</v>
       </c>
-      <c r="B289" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C289" s="4">
+      <c r="B289" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C289" s="3">
         <v>2030021110</v>
       </c>
-      <c r="D289" s="5" t="s">
+      <c r="D289" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E289" s="6">
+      <c r="E289" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F289" s="7" t="s">
+      <c r="F289" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7046,19 +7046,19 @@
       <c r="A290" s="2">
         <v>4020000430</v>
       </c>
-      <c r="B290" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C290" s="4">
+      <c r="B290" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C290" s="3">
         <v>2030021111</v>
       </c>
-      <c r="D290" s="5" t="s">
+      <c r="D290" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E290" s="6">
+      <c r="E290" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F290" s="7" t="s">
+      <c r="F290" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7066,19 +7066,19 @@
       <c r="A291" s="2">
         <v>4020000429</v>
       </c>
-      <c r="B291" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C291" s="4">
+      <c r="B291" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C291" s="3">
         <v>2030021113</v>
       </c>
-      <c r="D291" s="5" t="s">
+      <c r="D291" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E291" s="6">
+      <c r="E291" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F291" s="7" t="s">
+      <c r="F291" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7086,19 +7086,19 @@
       <c r="A292" s="2">
         <v>4020000277</v>
       </c>
-      <c r="B292" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C292" s="4">
+      <c r="B292" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C292" s="3">
         <v>2030021119</v>
       </c>
-      <c r="D292" s="5" t="s">
+      <c r="D292" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E292" s="6">
+      <c r="E292" s="5">
         <v>2030001017</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="F292" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7106,19 +7106,19 @@
       <c r="A293" s="2">
         <v>4020000314</v>
       </c>
-      <c r="B293" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C293" s="4">
+      <c r="B293" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C293" s="3">
         <v>2030021120</v>
       </c>
-      <c r="D293" s="5" t="s">
+      <c r="D293" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E293" s="6">
+      <c r="E293" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F293" s="7" t="s">
+      <c r="F293" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7126,19 +7126,19 @@
       <c r="A294" s="2">
         <v>4020000315</v>
       </c>
-      <c r="B294" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C294" s="4">
+      <c r="B294" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C294" s="3">
         <v>2030021121</v>
       </c>
-      <c r="D294" s="5" t="s">
+      <c r="D294" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E294" s="6">
+      <c r="E294" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F294" s="7" t="s">
+      <c r="F294" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7146,19 +7146,19 @@
       <c r="A295" s="2">
         <v>4020000313</v>
       </c>
-      <c r="B295" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C295" s="4">
+      <c r="B295" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C295" s="3">
         <v>2030021122</v>
       </c>
-      <c r="D295" s="5" t="s">
+      <c r="D295" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E295" s="6">
+      <c r="E295" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F295" s="7" t="s">
+      <c r="F295" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7166,19 +7166,19 @@
       <c r="A296" s="2">
         <v>4020000310</v>
       </c>
-      <c r="B296" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C296" s="4">
+      <c r="B296" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C296" s="3">
         <v>2030021146</v>
       </c>
-      <c r="D296" s="5" t="s">
+      <c r="D296" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E296" s="6">
+      <c r="E296" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F296" s="7" t="s">
+      <c r="F296" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7186,19 +7186,19 @@
       <c r="A297" s="2">
         <v>4020000343</v>
       </c>
-      <c r="B297" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C297" s="4">
+      <c r="B297" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C297" s="3">
         <v>2030021150</v>
       </c>
-      <c r="D297" s="5" t="s">
+      <c r="D297" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E297" s="6">
+      <c r="E297" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F297" s="7" t="s">
+      <c r="F297" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7206,19 +7206,19 @@
       <c r="A298" s="2">
         <v>4020000398</v>
       </c>
-      <c r="B298" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C298" s="4">
+      <c r="B298" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C298" s="3">
         <v>2030021231</v>
       </c>
-      <c r="D298" s="5" t="s">
+      <c r="D298" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E298" s="6">
+      <c r="E298" s="5">
         <v>2030001024</v>
       </c>
-      <c r="F298" s="7" t="s">
+      <c r="F298" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7226,19 +7226,19 @@
       <c r="A299" s="2">
         <v>4020000421</v>
       </c>
-      <c r="B299" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C299" s="4">
+      <c r="B299" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C299" s="3">
         <v>2030021232</v>
       </c>
-      <c r="D299" s="5" t="s">
+      <c r="D299" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E299" s="6">
+      <c r="E299" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F299" s="7" t="s">
+      <c r="F299" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7246,19 +7246,19 @@
       <c r="A300" s="2">
         <v>4020000425</v>
       </c>
-      <c r="B300" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C300" s="4">
+      <c r="B300" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C300" s="3">
         <v>2030021233</v>
       </c>
-      <c r="D300" s="5" t="s">
+      <c r="D300" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E300" s="6">
+      <c r="E300" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F300" s="7" t="s">
+      <c r="F300" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7266,19 +7266,19 @@
       <c r="A301" s="2">
         <v>4020000427</v>
       </c>
-      <c r="B301" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C301" s="4">
+      <c r="B301" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C301" s="3">
         <v>2030021234</v>
       </c>
-      <c r="D301" s="5" t="s">
+      <c r="D301" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E301" s="6">
+      <c r="E301" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F301" s="7" t="s">
+      <c r="F301" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7286,19 +7286,19 @@
       <c r="A302" s="2">
         <v>4020000426</v>
       </c>
-      <c r="B302" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C302" s="4">
+      <c r="B302" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C302" s="3">
         <v>2030021235</v>
       </c>
-      <c r="D302" s="5" t="s">
+      <c r="D302" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E302" s="6">
+      <c r="E302" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F302" s="7" t="s">
+      <c r="F302" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7306,19 +7306,19 @@
       <c r="A303" s="2">
         <v>4020000424</v>
       </c>
-      <c r="B303" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C303" s="4">
+      <c r="B303" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C303" s="3">
         <v>2030021236</v>
       </c>
-      <c r="D303" s="5" t="s">
+      <c r="D303" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E303" s="6">
+      <c r="E303" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F303" s="7" t="s">
+      <c r="F303" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7326,19 +7326,19 @@
       <c r="A304" s="2">
         <v>4020000423</v>
       </c>
-      <c r="B304" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C304" s="4">
+      <c r="B304" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C304" s="3">
         <v>2030021237</v>
       </c>
-      <c r="D304" s="5" t="s">
+      <c r="D304" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E304" s="6">
+      <c r="E304" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F304" s="7" t="s">
+      <c r="F304" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7346,19 +7346,19 @@
       <c r="A305" s="2">
         <v>4020000422</v>
       </c>
-      <c r="B305" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C305" s="4">
+      <c r="B305" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C305" s="3">
         <v>2030021238</v>
       </c>
-      <c r="D305" s="5" t="s">
+      <c r="D305" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="E305" s="6">
+      <c r="E305" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F305" s="7" t="s">
+      <c r="F305" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7366,19 +7366,19 @@
       <c r="A306" s="2">
         <v>4020000407</v>
       </c>
-      <c r="B306" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C306" s="4">
+      <c r="B306" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C306" s="3">
         <v>2030021239</v>
       </c>
-      <c r="D306" s="5" t="s">
+      <c r="D306" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E306" s="6">
+      <c r="E306" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F306" s="7" t="s">
+      <c r="F306" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7386,19 +7386,19 @@
       <c r="A307" s="2">
         <v>4020000428</v>
       </c>
-      <c r="B307" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C307" s="4">
+      <c r="B307" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C307" s="3">
         <v>2030021240</v>
       </c>
-      <c r="D307" s="5" t="s">
+      <c r="D307" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E307" s="6">
+      <c r="E307" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F307" s="7" t="s">
+      <c r="F307" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7406,19 +7406,19 @@
       <c r="A308" s="2">
         <v>4020000432</v>
       </c>
-      <c r="B308" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C308" s="4">
+      <c r="B308" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C308" s="3">
         <v>2030021241</v>
       </c>
-      <c r="D308" s="5" t="s">
+      <c r="D308" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E308" s="6">
+      <c r="E308" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F308" s="7" t="s">
+      <c r="F308" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7426,19 +7426,19 @@
       <c r="A309" s="2">
         <v>4020000411</v>
       </c>
-      <c r="B309" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C309" s="4">
+      <c r="B309" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C309" s="3">
         <v>2030021242</v>
       </c>
-      <c r="D309" s="5" t="s">
+      <c r="D309" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E309" s="6">
+      <c r="E309" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F309" s="7" t="s">
+      <c r="F309" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7446,19 +7446,19 @@
       <c r="A310" s="2">
         <v>4020000420</v>
       </c>
-      <c r="B310" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C310" s="4">
+      <c r="B310" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C310" s="3">
         <v>2030021248</v>
       </c>
-      <c r="D310" s="5" t="s">
+      <c r="D310" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E310" s="6">
+      <c r="E310" s="5">
         <v>2030001011</v>
       </c>
-      <c r="F310" s="7" t="s">
+      <c r="F310" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -7466,19 +7466,19 @@
       <c r="A311" s="2">
         <v>4020000331</v>
       </c>
-      <c r="B311" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C311" s="4">
+      <c r="B311" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C311" s="3">
         <v>2030030148</v>
       </c>
-      <c r="D311" s="5" t="s">
+      <c r="D311" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E311" s="6">
+      <c r="E311" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F311" s="7" t="s">
+      <c r="F311" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7486,19 +7486,19 @@
       <c r="A312" s="2">
         <v>4020000455</v>
       </c>
-      <c r="B312" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C312" s="4">
+      <c r="B312" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C312" s="3">
         <v>2030030265</v>
       </c>
-      <c r="D312" s="5" t="s">
+      <c r="D312" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E312" s="6">
+      <c r="E312" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F312" s="7" t="s">
+      <c r="F312" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7506,19 +7506,19 @@
       <c r="A313" s="2">
         <v>4020000322</v>
       </c>
-      <c r="B313" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C313" s="4">
+      <c r="B313" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C313" s="3">
         <v>2030031008</v>
       </c>
-      <c r="D313" s="5" t="s">
+      <c r="D313" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E313" s="6">
+      <c r="E313" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F313" s="7" t="s">
+      <c r="F313" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7526,19 +7526,19 @@
       <c r="A314" s="2">
         <v>4020000327</v>
       </c>
-      <c r="B314" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C314" s="4">
+      <c r="B314" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C314" s="3">
         <v>2030031020</v>
       </c>
-      <c r="D314" s="5" t="s">
+      <c r="D314" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E314" s="6">
+      <c r="E314" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F314" s="7" t="s">
+      <c r="F314" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7546,19 +7546,19 @@
       <c r="A315" s="2">
         <v>4020000324</v>
       </c>
-      <c r="B315" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C315" s="4">
+      <c r="B315" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C315" s="3">
         <v>2030031027</v>
       </c>
-      <c r="D315" s="5" t="s">
+      <c r="D315" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E315" s="6">
+      <c r="E315" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F315" s="7" t="s">
+      <c r="F315" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7566,19 +7566,19 @@
       <c r="A316" s="2">
         <v>4020000413</v>
       </c>
-      <c r="B316" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C316" s="4">
+      <c r="B316" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C316" s="3">
         <v>2030031065</v>
       </c>
-      <c r="D316" s="5" t="s">
+      <c r="D316" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E316" s="6">
+      <c r="E316" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F316" s="7" t="s">
+      <c r="F316" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7586,19 +7586,19 @@
       <c r="A317" s="2">
         <v>4020000284</v>
       </c>
-      <c r="B317" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C317" s="4">
+      <c r="B317" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C317" s="3">
         <v>2030031119</v>
       </c>
-      <c r="D317" s="5" t="s">
+      <c r="D317" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E317" s="6">
+      <c r="E317" s="5">
         <v>2030001008</v>
       </c>
-      <c r="F317" s="7" t="s">
+      <c r="F317" s="6" t="s">
         <v>162</v>
       </c>
     </row>
@@ -7606,19 +7606,19 @@
       <c r="A318" s="2">
         <v>4020000372</v>
       </c>
-      <c r="B318" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C318" s="4">
+      <c r="B318" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C318" s="3">
         <v>2030031120</v>
       </c>
-      <c r="D318" s="5" t="s">
+      <c r="D318" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E318" s="6">
+      <c r="E318" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F318" s="7" t="s">
+      <c r="F318" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7626,19 +7626,19 @@
       <c r="A319" s="2">
         <v>4020000371</v>
       </c>
-      <c r="B319" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C319" s="4">
+      <c r="B319" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C319" s="3">
         <v>2030031122</v>
       </c>
-      <c r="D319" s="5" t="s">
+      <c r="D319" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E319" s="6">
+      <c r="E319" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F319" s="7" t="s">
+      <c r="F319" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -7646,19 +7646,19 @@
       <c r="A320" s="2">
         <v>4020000330</v>
       </c>
-      <c r="B320" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C320" s="4">
+      <c r="B320" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C320" s="3">
         <v>2030031146</v>
       </c>
-      <c r="D320" s="5" t="s">
+      <c r="D320" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E320" s="6">
+      <c r="E320" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F320" s="7" t="s">
+      <c r="F320" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7666,19 +7666,19 @@
       <c r="A321" s="2">
         <v>4020000451</v>
       </c>
-      <c r="B321" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C321" s="4">
+      <c r="B321" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C321" s="3">
         <v>2030031239</v>
       </c>
-      <c r="D321" s="5" t="s">
+      <c r="D321" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E321" s="6">
+      <c r="E321" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F321" s="7" t="s">
+      <c r="F321" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7686,19 +7686,19 @@
       <c r="A322" s="2">
         <v>4020000436</v>
       </c>
-      <c r="B322" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C322" s="4">
+      <c r="B322" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C322" s="3">
         <v>2030040148</v>
       </c>
-      <c r="D322" s="5" t="s">
+      <c r="D322" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E322" s="6">
+      <c r="E322" s="5">
         <v>2030001025</v>
       </c>
-      <c r="F322" s="7" t="s">
+      <c r="F322" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7706,19 +7706,19 @@
       <c r="A323" s="2">
         <v>4020000316</v>
       </c>
-      <c r="B323" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C323" s="4">
+      <c r="B323" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C323" s="3">
         <v>2030041119</v>
       </c>
-      <c r="D323" s="5" t="s">
+      <c r="D323" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E323" s="6">
+      <c r="E323" s="5">
         <v>2030001019</v>
       </c>
-      <c r="F323" s="7" t="s">
+      <c r="F323" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -7726,19 +7726,19 @@
       <c r="A324" s="2">
         <v>4020000375</v>
       </c>
-      <c r="B324" s="3">
-        <v>4020000000</v>
-      </c>
-      <c r="C324" s="4">
+      <c r="B324" s="7">
+        <v>2030000000</v>
+      </c>
+      <c r="C324" s="3">
         <v>2030051119</v>
       </c>
-      <c r="D324" s="5" t="s">
+      <c r="D324" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E324" s="6">
+      <c r="E324" s="5">
         <v>2030001013</v>
       </c>
-      <c r="F324" s="7" t="s">
+      <c r="F324" s="6" t="s">
         <v>10</v>
       </c>
     </row>

--- a/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2030/group.xlsx
+++ b/Epsitec.Cresus/App.Aider/Samples/EERV Région 2/2030/group.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -930,13 +930,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1257,7 +1254,7 @@
   <dimension ref="A1:F319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1289,16 +1286,16 @@
       <c r="B2" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C2" s="4">
-        <v>305020101</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2">
+        <v>403110101</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>305020100</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1309,16 +1306,16 @@
       <c r="B3" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C3" s="4">
-        <v>305020102</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="C3">
+        <v>403110102</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <v>305020100</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1329,16 +1326,16 @@
       <c r="B4" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C4" s="4">
-        <v>305020103</v>
-      </c>
-      <c r="D4" s="5" t="s">
+      <c r="C4">
+        <v>403110103</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <v>305020100</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1349,16 +1346,16 @@
       <c r="B5" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C5" s="4">
-        <v>305020104</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="C5">
+        <v>403110104</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <v>305020100</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1369,16 +1366,16 @@
       <c r="B6" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C6" s="4">
-        <v>305020105</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6">
+        <v>403110105</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>305020100</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1389,16 +1386,16 @@
       <c r="B7" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C7" s="4">
-        <v>305020106</v>
-      </c>
-      <c r="D7" s="5" t="s">
+      <c r="C7">
+        <v>403110106</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>305020100</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1409,16 +1406,16 @@
       <c r="B8" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C8" s="4">
-        <v>305020107</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="C8">
+        <v>403110107</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>305020100</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1429,16 +1426,16 @@
       <c r="B9" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C9" s="4">
-        <v>305020108</v>
-      </c>
-      <c r="D9" s="5" t="s">
+      <c r="C9">
+        <v>403110108</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>305020100</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1449,16 +1446,16 @@
       <c r="B10" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C10" s="4">
-        <v>305020109</v>
-      </c>
-      <c r="D10" s="5" t="s">
+      <c r="C10">
+        <v>403110109</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>305020100</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1469,16 +1466,16 @@
       <c r="B11" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C11" s="4">
-        <v>305020110</v>
-      </c>
-      <c r="D11" s="5" t="s">
+      <c r="C11">
+        <v>403110110</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>305020100</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1489,16 +1486,16 @@
       <c r="B12" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C12" s="4">
-        <v>305020111</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12">
+        <v>403110111</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>305020100</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1509,16 +1506,16 @@
       <c r="B13" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C13" s="4">
-        <v>305020201</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="C13">
+        <v>403110201</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="5">
         <v>305020200</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1529,16 +1526,16 @@
       <c r="B14" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C14" s="4">
-        <v>305020202</v>
-      </c>
-      <c r="D14" s="5" t="s">
+      <c r="C14">
+        <v>403110202</v>
+      </c>
+      <c r="D14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <v>305020200</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1549,16 +1546,16 @@
       <c r="B15" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C15" s="4">
-        <v>305020203</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15">
+        <v>403110203</v>
+      </c>
+      <c r="D15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <v>305020200</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1569,16 +1566,16 @@
       <c r="B16" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C16" s="4">
-        <v>305020204</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16">
+        <v>403110204</v>
+      </c>
+      <c r="D16" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <v>305020200</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1589,16 +1586,16 @@
       <c r="B17" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C17" s="4">
-        <v>305020205</v>
-      </c>
-      <c r="D17" s="5" t="s">
+      <c r="C17">
+        <v>403110205</v>
+      </c>
+      <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <v>305020200</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1609,16 +1606,16 @@
       <c r="B18" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C18" s="4">
-        <v>305020206</v>
-      </c>
-      <c r="D18" s="5" t="s">
+      <c r="C18">
+        <v>403110206</v>
+      </c>
+      <c r="D18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="5">
         <v>305020200</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1629,16 +1626,16 @@
       <c r="B19" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C19" s="4">
-        <v>305020301</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="C19">
+        <v>403110301</v>
+      </c>
+      <c r="D19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="5">
         <v>305020300</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1649,16 +1646,16 @@
       <c r="B20" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C20" s="4">
-        <v>305020302</v>
-      </c>
-      <c r="D20" s="5" t="s">
+      <c r="C20">
+        <v>403110302</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="5">
         <v>305020300</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1669,16 +1666,16 @@
       <c r="B21" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C21" s="4">
-        <v>305020303</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="C21">
+        <v>403110303</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <v>305020300</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1689,16 +1686,16 @@
       <c r="B22" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C22" s="4">
-        <v>305020304</v>
-      </c>
-      <c r="D22" s="5" t="s">
+      <c r="C22">
+        <v>403110304</v>
+      </c>
+      <c r="D22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <v>305020300</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1709,16 +1706,16 @@
       <c r="B23" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C23" s="4">
-        <v>305020305</v>
-      </c>
-      <c r="D23" s="5" t="s">
+      <c r="C23">
+        <v>403110305</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <v>305020300</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1729,16 +1726,16 @@
       <c r="B24" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C24" s="4">
-        <v>305020401</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="C24">
+        <v>403110401</v>
+      </c>
+      <c r="D24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="6">
+      <c r="E24" s="5">
         <v>305020400</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1749,16 +1746,16 @@
       <c r="B25" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C25" s="4">
-        <v>305020402</v>
-      </c>
-      <c r="D25" s="5" t="s">
+      <c r="C25">
+        <v>403110402</v>
+      </c>
+      <c r="D25" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="6">
+      <c r="E25" s="5">
         <v>305020400</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1769,16 +1766,16 @@
       <c r="B26" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C26" s="4">
-        <v>305020403</v>
-      </c>
-      <c r="D26" s="5" t="s">
+      <c r="C26">
+        <v>403110403</v>
+      </c>
+      <c r="D26" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="6">
+      <c r="E26" s="5">
         <v>305020400</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1789,16 +1786,16 @@
       <c r="B27" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C27" s="4">
-        <v>305020404</v>
-      </c>
-      <c r="D27" s="5" t="s">
+      <c r="C27">
+        <v>403110404</v>
+      </c>
+      <c r="D27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <v>305020400</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1809,16 +1806,16 @@
       <c r="B28" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C28" s="4">
-        <v>305020405</v>
-      </c>
-      <c r="D28" s="5" t="s">
+      <c r="C28">
+        <v>403110405</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <v>305020400</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1829,16 +1826,16 @@
       <c r="B29" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C29" s="4">
-        <v>305020406</v>
-      </c>
-      <c r="D29" s="5" t="s">
+      <c r="C29">
+        <v>403110406</v>
+      </c>
+      <c r="D29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <v>305020400</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1849,16 +1846,16 @@
       <c r="B30" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C30" s="4">
-        <v>305020407</v>
-      </c>
-      <c r="D30" s="5" t="s">
+      <c r="C30">
+        <v>403110407</v>
+      </c>
+      <c r="D30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <v>305020400</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1869,16 +1866,16 @@
       <c r="B31" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C31" s="4">
-        <v>305020408</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="C31">
+        <v>403110408</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E31" s="6">
+      <c r="E31" s="5">
         <v>305020400</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1889,16 +1886,16 @@
       <c r="B32" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C32" s="4">
-        <v>305020409</v>
-      </c>
-      <c r="D32" s="5" t="s">
+      <c r="C32">
+        <v>403110409</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="6">
+      <c r="E32" s="5">
         <v>305020400</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1909,16 +1906,16 @@
       <c r="B33" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C33" s="4">
-        <v>305020410</v>
-      </c>
-      <c r="D33" s="5" t="s">
+      <c r="C33">
+        <v>403110410</v>
+      </c>
+      <c r="D33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="6">
+      <c r="E33" s="5">
         <v>305020400</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1929,16 +1926,16 @@
       <c r="B34" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C34" s="4">
-        <v>305020411</v>
-      </c>
-      <c r="D34" s="5" t="s">
+      <c r="C34">
+        <v>403110411</v>
+      </c>
+      <c r="D34" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="6">
+      <c r="E34" s="5">
         <v>305020400</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="F34" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1949,16 +1946,16 @@
       <c r="B35" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C35" s="4">
-        <v>305020412</v>
-      </c>
-      <c r="D35" s="5" t="s">
+      <c r="C35">
+        <v>403110412</v>
+      </c>
+      <c r="D35" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E35" s="6">
+      <c r="E35" s="5">
         <v>305020400</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="F35" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1969,16 +1966,16 @@
       <c r="B36" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C36" s="4">
-        <v>305020413</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36">
+        <v>403110413</v>
+      </c>
+      <c r="D36" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E36" s="6">
+      <c r="E36" s="5">
         <v>305020400</v>
       </c>
-      <c r="F36" s="7" t="s">
+      <c r="F36" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1989,16 +1986,16 @@
       <c r="B37" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C37" s="4">
-        <v>305020414</v>
-      </c>
-      <c r="D37" s="5" t="s">
+      <c r="C37">
+        <v>403110414</v>
+      </c>
+      <c r="D37" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E37" s="6">
+      <c r="E37" s="5">
         <v>305020400</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="F37" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2009,16 +2006,16 @@
       <c r="B38" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C38" s="4">
-        <v>305020415</v>
-      </c>
-      <c r="D38" s="5" t="s">
+      <c r="C38">
+        <v>403110415</v>
+      </c>
+      <c r="D38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="E38" s="6">
+      <c r="E38" s="5">
         <v>305020400</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2029,16 +2026,16 @@
       <c r="B39" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C39" s="4">
-        <v>305020416</v>
-      </c>
-      <c r="D39" s="5" t="s">
+      <c r="C39">
+        <v>403110416</v>
+      </c>
+      <c r="D39" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="6">
+      <c r="E39" s="5">
         <v>305020400</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2049,16 +2046,16 @@
       <c r="B40" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C40" s="4">
-        <v>305020417</v>
-      </c>
-      <c r="D40" s="5" t="s">
+      <c r="C40">
+        <v>403110417</v>
+      </c>
+      <c r="D40" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E40" s="6">
+      <c r="E40" s="5">
         <v>305020400</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2069,16 +2066,16 @@
       <c r="B41" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C41" s="4">
-        <v>305020418</v>
-      </c>
-      <c r="D41" s="5" t="s">
+      <c r="C41">
+        <v>403110418</v>
+      </c>
+      <c r="D41" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="5">
         <v>305020400</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2089,16 +2086,16 @@
       <c r="B42" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C42" s="4">
-        <v>305020419</v>
-      </c>
-      <c r="D42" s="5" t="s">
+      <c r="C42">
+        <v>403110419</v>
+      </c>
+      <c r="D42" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E42" s="6">
+      <c r="E42" s="5">
         <v>305020400</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2109,16 +2106,16 @@
       <c r="B43" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C43" s="4">
-        <v>305020420</v>
-      </c>
-      <c r="D43" s="5" t="s">
+      <c r="C43">
+        <v>403110420</v>
+      </c>
+      <c r="D43" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="5">
         <v>305020400</v>
       </c>
-      <c r="F43" s="7" t="s">
+      <c r="F43" s="6" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2129,16 +2126,16 @@
       <c r="B44" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C44" s="4">
-        <v>305020501</v>
-      </c>
-      <c r="D44" s="5" t="s">
+      <c r="C44">
+        <v>403110501</v>
+      </c>
+      <c r="D44" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E44" s="6">
+      <c r="E44" s="5">
         <v>305020500</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="F44" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2149,16 +2146,16 @@
       <c r="B45" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C45" s="4">
-        <v>305020502</v>
-      </c>
-      <c r="D45" s="5" t="s">
+      <c r="C45">
+        <v>403110502</v>
+      </c>
+      <c r="D45" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="5">
         <v>305020500</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2169,16 +2166,16 @@
       <c r="B46" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C46" s="4">
-        <v>305020503</v>
-      </c>
-      <c r="D46" s="5" t="s">
+      <c r="C46">
+        <v>403110503</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="6">
+      <c r="E46" s="5">
         <v>305020500</v>
       </c>
-      <c r="F46" s="7" t="s">
+      <c r="F46" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2189,16 +2186,16 @@
       <c r="B47" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C47" s="4">
-        <v>305020504</v>
-      </c>
-      <c r="D47" s="5" t="s">
+      <c r="C47">
+        <v>403110504</v>
+      </c>
+      <c r="D47" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E47" s="6">
+      <c r="E47" s="5">
         <v>305020500</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2209,16 +2206,16 @@
       <c r="B48" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C48" s="4">
-        <v>305020505</v>
-      </c>
-      <c r="D48" s="5" t="s">
+      <c r="C48">
+        <v>403110505</v>
+      </c>
+      <c r="D48" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E48" s="6">
+      <c r="E48" s="5">
         <v>305020500</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2229,16 +2226,16 @@
       <c r="B49" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C49" s="4">
-        <v>305020601</v>
-      </c>
-      <c r="D49" s="5" t="s">
+      <c r="C49">
+        <v>403110601</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E49" s="6">
+      <c r="E49" s="5">
         <v>305020600</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2249,16 +2246,16 @@
       <c r="B50" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C50" s="4">
-        <v>305020602</v>
-      </c>
-      <c r="D50" s="5" t="s">
+      <c r="C50">
+        <v>403110602</v>
+      </c>
+      <c r="D50" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="5">
         <v>305020600</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="F50" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2269,16 +2266,16 @@
       <c r="B51" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C51" s="4">
-        <v>305020603</v>
-      </c>
-      <c r="D51" s="5" t="s">
+      <c r="C51">
+        <v>403110603</v>
+      </c>
+      <c r="D51" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="5">
         <v>305020600</v>
       </c>
-      <c r="F51" s="7" t="s">
+      <c r="F51" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2289,16 +2286,16 @@
       <c r="B52" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C52" s="4">
-        <v>305020604</v>
-      </c>
-      <c r="D52" s="5" t="s">
+      <c r="C52">
+        <v>403110604</v>
+      </c>
+      <c r="D52" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E52" s="6">
+      <c r="E52" s="5">
         <v>305020600</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2309,16 +2306,16 @@
       <c r="B53" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C53" s="4">
-        <v>305020605</v>
-      </c>
-      <c r="D53" s="5" t="s">
+      <c r="C53">
+        <v>403110605</v>
+      </c>
+      <c r="D53" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E53" s="6">
+      <c r="E53" s="5">
         <v>305020600</v>
       </c>
-      <c r="F53" s="7" t="s">
+      <c r="F53" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2329,16 +2326,16 @@
       <c r="B54" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C54" s="4">
-        <v>305020701</v>
-      </c>
-      <c r="D54" s="5" t="s">
+      <c r="C54">
+        <v>403110701</v>
+      </c>
+      <c r="D54" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E54" s="6">
+      <c r="E54" s="5">
         <v>305020700</v>
       </c>
-      <c r="F54" s="7" t="s">
+      <c r="F54" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2349,16 +2346,16 @@
       <c r="B55" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C55" s="4">
-        <v>305020702</v>
-      </c>
-      <c r="D55" s="5" t="s">
+      <c r="C55">
+        <v>403110702</v>
+      </c>
+      <c r="D55" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="6">
+      <c r="E55" s="5">
         <v>305020700</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2369,16 +2366,16 @@
       <c r="B56" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C56" s="4">
-        <v>305020703</v>
-      </c>
-      <c r="D56" s="5" t="s">
+      <c r="C56">
+        <v>403110703</v>
+      </c>
+      <c r="D56" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="6">
+      <c r="E56" s="5">
         <v>305020700</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2389,16 +2386,16 @@
       <c r="B57" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C57" s="4">
-        <v>305020704</v>
-      </c>
-      <c r="D57" s="5" t="s">
+      <c r="C57">
+        <v>403110704</v>
+      </c>
+      <c r="D57" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="E57" s="6">
+      <c r="E57" s="5">
         <v>305020700</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2409,16 +2406,16 @@
       <c r="B58" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C58" s="4">
-        <v>305020705</v>
-      </c>
-      <c r="D58" s="5" t="s">
+      <c r="C58">
+        <v>403110705</v>
+      </c>
+      <c r="D58" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="5">
         <v>305020700</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2429,16 +2426,16 @@
       <c r="B59" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C59" s="4">
-        <v>305020706</v>
-      </c>
-      <c r="D59" s="5" t="s">
+      <c r="C59">
+        <v>403110706</v>
+      </c>
+      <c r="D59" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E59" s="6">
+      <c r="E59" s="5">
         <v>305020700</v>
       </c>
-      <c r="F59" s="7" t="s">
+      <c r="F59" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2449,16 +2446,16 @@
       <c r="B60" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C60" s="4">
-        <v>305020707</v>
-      </c>
-      <c r="D60" s="5" t="s">
+      <c r="C60">
+        <v>403110707</v>
+      </c>
+      <c r="D60" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="5">
         <v>305020700</v>
       </c>
-      <c r="F60" s="7" t="s">
+      <c r="F60" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2469,16 +2466,16 @@
       <c r="B61" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C61" s="4">
-        <v>305020708</v>
-      </c>
-      <c r="D61" s="5" t="s">
+      <c r="C61">
+        <v>403110708</v>
+      </c>
+      <c r="D61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="E61" s="6">
+      <c r="E61" s="5">
         <v>305020700</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2489,16 +2486,16 @@
       <c r="B62" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C62" s="4">
-        <v>305020709</v>
-      </c>
-      <c r="D62" s="5" t="s">
+      <c r="C62">
+        <v>403110709</v>
+      </c>
+      <c r="D62" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="E62" s="6">
+      <c r="E62" s="5">
         <v>305020700</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2509,16 +2506,16 @@
       <c r="B63" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C63" s="4">
-        <v>305020710</v>
-      </c>
-      <c r="D63" s="5" t="s">
+      <c r="C63">
+        <v>403110710</v>
+      </c>
+      <c r="D63" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="5">
         <v>305020700</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2529,16 +2526,16 @@
       <c r="B64" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C64" s="4">
-        <v>305020711</v>
-      </c>
-      <c r="D64" s="5" t="s">
+      <c r="C64">
+        <v>403110711</v>
+      </c>
+      <c r="D64" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="5">
         <v>305020700</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2549,16 +2546,16 @@
       <c r="B65" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C65" s="4">
-        <v>305020712</v>
-      </c>
-      <c r="D65" s="5" t="s">
+      <c r="C65">
+        <v>403110712</v>
+      </c>
+      <c r="D65" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="5">
         <v>305020700</v>
       </c>
-      <c r="F65" s="7" t="s">
+      <c r="F65" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2569,16 +2566,16 @@
       <c r="B66" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C66" s="4">
-        <v>305020713</v>
-      </c>
-      <c r="D66" s="5" t="s">
+      <c r="C66">
+        <v>403110713</v>
+      </c>
+      <c r="D66" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="E66" s="6">
+      <c r="E66" s="5">
         <v>305020700</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2589,16 +2586,16 @@
       <c r="B67" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C67" s="4">
-        <v>305020714</v>
-      </c>
-      <c r="D67" s="5" t="s">
+      <c r="C67">
+        <v>403110714</v>
+      </c>
+      <c r="D67" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E67" s="6">
+      <c r="E67" s="5">
         <v>305020700</v>
       </c>
-      <c r="F67" s="7" t="s">
+      <c r="F67" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2609,16 +2606,16 @@
       <c r="B68" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C68" s="4">
-        <v>305020801</v>
-      </c>
-      <c r="D68" s="5" t="s">
+      <c r="C68">
+        <v>403110801</v>
+      </c>
+      <c r="D68" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="6">
+      <c r="E68" s="5">
         <v>305020800</v>
       </c>
-      <c r="F68" s="7" t="s">
+      <c r="F68" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2629,16 +2626,16 @@
       <c r="B69" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C69" s="4">
-        <v>305020802</v>
-      </c>
-      <c r="D69" s="5" t="s">
+      <c r="C69">
+        <v>403110802</v>
+      </c>
+      <c r="D69" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="E69" s="6">
+      <c r="E69" s="5">
         <v>305020800</v>
       </c>
-      <c r="F69" s="7" t="s">
+      <c r="F69" s="6" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2649,16 +2646,16 @@
       <c r="B70" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C70" s="4">
-        <v>305020901</v>
-      </c>
-      <c r="D70" s="5" t="s">
+      <c r="C70">
+        <v>403110901</v>
+      </c>
+      <c r="D70" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E70" s="6">
+      <c r="E70" s="5">
         <v>305020900</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2669,16 +2666,16 @@
       <c r="B71" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C71" s="4">
-        <v>305020902</v>
-      </c>
-      <c r="D71" s="5" t="s">
+      <c r="C71">
+        <v>403110902</v>
+      </c>
+      <c r="D71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E71" s="6">
+      <c r="E71" s="5">
         <v>305020900</v>
       </c>
-      <c r="F71" s="7" t="s">
+      <c r="F71" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2689,16 +2686,16 @@
       <c r="B72" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C72" s="4">
-        <v>305020903</v>
-      </c>
-      <c r="D72" s="5" t="s">
+      <c r="C72">
+        <v>403110903</v>
+      </c>
+      <c r="D72" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E72" s="6">
+      <c r="E72" s="5">
         <v>305020900</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="F72" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2709,16 +2706,16 @@
       <c r="B73" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C73" s="4">
-        <v>305020904</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C73">
+        <v>403110904</v>
+      </c>
+      <c r="D73" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E73" s="6">
+      <c r="E73" s="5">
         <v>305020900</v>
       </c>
-      <c r="F73" s="7" t="s">
+      <c r="F73" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2729,16 +2726,16 @@
       <c r="B74" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C74" s="4">
-        <v>305020905</v>
-      </c>
-      <c r="D74" s="5" t="s">
+      <c r="C74">
+        <v>403110905</v>
+      </c>
+      <c r="D74" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E74" s="6">
+      <c r="E74" s="5">
         <v>305020900</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2749,16 +2746,16 @@
       <c r="B75" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C75" s="4">
-        <v>305020906</v>
-      </c>
-      <c r="D75" s="5" t="s">
+      <c r="C75">
+        <v>403110906</v>
+      </c>
+      <c r="D75" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E75" s="6">
+      <c r="E75" s="5">
         <v>305020900</v>
       </c>
-      <c r="F75" s="7" t="s">
+      <c r="F75" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2769,16 +2766,16 @@
       <c r="B76" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C76" s="4">
-        <v>305020907</v>
-      </c>
-      <c r="D76" s="5" t="s">
+      <c r="C76">
+        <v>403110907</v>
+      </c>
+      <c r="D76" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E76" s="6">
+      <c r="E76" s="5">
         <v>305020900</v>
       </c>
-      <c r="F76" s="7" t="s">
+      <c r="F76" s="6" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2789,16 +2786,16 @@
       <c r="B77" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C77" s="4">
-        <v>305021001</v>
-      </c>
-      <c r="D77" s="5" t="s">
+      <c r="C77">
+        <v>403111001</v>
+      </c>
+      <c r="D77" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E77" s="6">
+      <c r="E77" s="5">
         <v>305021000</v>
       </c>
-      <c r="F77" s="7" t="s">
+      <c r="F77" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2809,16 +2806,16 @@
       <c r="B78" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C78" s="4">
-        <v>305021002</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="C78">
+        <v>403111002</v>
+      </c>
+      <c r="D78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="5">
         <v>305021000</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2829,16 +2826,16 @@
       <c r="B79" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C79" s="4">
-        <v>305021003</v>
-      </c>
-      <c r="D79" s="5" t="s">
+      <c r="C79">
+        <v>403111003</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="5">
         <v>305021000</v>
       </c>
-      <c r="F79" s="7" t="s">
+      <c r="F79" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2849,16 +2846,16 @@
       <c r="B80" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C80" s="4">
-        <v>305021004</v>
-      </c>
-      <c r="D80" s="5" t="s">
+      <c r="C80">
+        <v>403111004</v>
+      </c>
+      <c r="D80" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="5">
         <v>305021000</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="F80" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2869,16 +2866,16 @@
       <c r="B81" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C81" s="4">
-        <v>305021005</v>
-      </c>
-      <c r="D81" s="5" t="s">
+      <c r="C81">
+        <v>403111005</v>
+      </c>
+      <c r="D81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E81" s="6">
+      <c r="E81" s="5">
         <v>305021000</v>
       </c>
-      <c r="F81" s="7" t="s">
+      <c r="F81" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2889,16 +2886,16 @@
       <c r="B82" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C82" s="4">
-        <v>305021006</v>
-      </c>
-      <c r="D82" s="5" t="s">
+      <c r="C82">
+        <v>403111006</v>
+      </c>
+      <c r="D82" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E82" s="6">
+      <c r="E82" s="5">
         <v>305021000</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F82" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2909,16 +2906,16 @@
       <c r="B83" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C83" s="4">
-        <v>305021007</v>
-      </c>
-      <c r="D83" s="5" t="s">
+      <c r="C83">
+        <v>403111007</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="5">
         <v>305021000</v>
       </c>
-      <c r="F83" s="7" t="s">
+      <c r="F83" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2929,16 +2926,16 @@
       <c r="B84" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C84" s="4">
-        <v>305021008</v>
-      </c>
-      <c r="D84" s="5" t="s">
+      <c r="C84">
+        <v>403111008</v>
+      </c>
+      <c r="D84" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="5">
         <v>305021000</v>
       </c>
-      <c r="F84" s="7" t="s">
+      <c r="F84" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2949,16 +2946,16 @@
       <c r="B85" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C85" s="4">
-        <v>305021009</v>
-      </c>
-      <c r="D85" s="5" t="s">
+      <c r="C85">
+        <v>403111009</v>
+      </c>
+      <c r="D85" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="5">
         <v>305021000</v>
       </c>
-      <c r="F85" s="7" t="s">
+      <c r="F85" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2969,16 +2966,16 @@
       <c r="B86" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C86" s="4">
-        <v>305021010</v>
-      </c>
-      <c r="D86" s="5" t="s">
+      <c r="C86">
+        <v>403111010</v>
+      </c>
+      <c r="D86" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E86" s="6">
+      <c r="E86" s="5">
         <v>305021000</v>
       </c>
-      <c r="F86" s="7" t="s">
+      <c r="F86" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2989,16 +2986,16 @@
       <c r="B87" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C87" s="4">
-        <v>305021011</v>
-      </c>
-      <c r="D87" s="5" t="s">
+      <c r="C87">
+        <v>403111011</v>
+      </c>
+      <c r="D87" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E87" s="6">
+      <c r="E87" s="5">
         <v>305021000</v>
       </c>
-      <c r="F87" s="7" t="s">
+      <c r="F87" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3009,16 +3006,16 @@
       <c r="B88" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C88" s="4">
-        <v>305021012</v>
-      </c>
-      <c r="D88" s="5" t="s">
+      <c r="C88">
+        <v>403111012</v>
+      </c>
+      <c r="D88" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E88" s="6">
+      <c r="E88" s="5">
         <v>305021000</v>
       </c>
-      <c r="F88" s="7" t="s">
+      <c r="F88" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3029,16 +3026,16 @@
       <c r="B89" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C89" s="4">
-        <v>305021013</v>
-      </c>
-      <c r="D89" s="5" t="s">
+      <c r="C89">
+        <v>403111013</v>
+      </c>
+      <c r="D89" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E89" s="6">
+      <c r="E89" s="5">
         <v>305021000</v>
       </c>
-      <c r="F89" s="7" t="s">
+      <c r="F89" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3049,16 +3046,16 @@
       <c r="B90" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C90" s="4">
-        <v>305021014</v>
-      </c>
-      <c r="D90" s="5" t="s">
+      <c r="C90">
+        <v>403111014</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E90" s="6">
+      <c r="E90" s="5">
         <v>305021000</v>
       </c>
-      <c r="F90" s="7" t="s">
+      <c r="F90" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3069,16 +3066,16 @@
       <c r="B91" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C91" s="4">
-        <v>305021015</v>
-      </c>
-      <c r="D91" s="5" t="s">
+      <c r="C91">
+        <v>403111015</v>
+      </c>
+      <c r="D91" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="5">
         <v>305021000</v>
       </c>
-      <c r="F91" s="7" t="s">
+      <c r="F91" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3089,16 +3086,16 @@
       <c r="B92" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C92" s="4">
-        <v>305021016</v>
-      </c>
-      <c r="D92" s="5" t="s">
+      <c r="C92">
+        <v>403111016</v>
+      </c>
+      <c r="D92" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E92" s="6">
+      <c r="E92" s="5">
         <v>305021000</v>
       </c>
-      <c r="F92" s="7" t="s">
+      <c r="F92" s="6" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3109,16 +3106,16 @@
       <c r="B93" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C93" s="4">
-        <v>305021101</v>
-      </c>
-      <c r="D93" s="5" t="s">
+      <c r="C93">
+        <v>403111101</v>
+      </c>
+      <c r="D93" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E93" s="6">
+      <c r="E93" s="5">
         <v>305021100</v>
       </c>
-      <c r="F93" s="7" t="s">
+      <c r="F93" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3129,16 +3126,16 @@
       <c r="B94" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C94" s="4">
-        <v>305021102</v>
-      </c>
-      <c r="D94" s="5" t="s">
+      <c r="C94">
+        <v>403111102</v>
+      </c>
+      <c r="D94" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E94" s="6">
+      <c r="E94" s="5">
         <v>305021100</v>
       </c>
-      <c r="F94" s="7" t="s">
+      <c r="F94" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3149,16 +3146,16 @@
       <c r="B95" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C95" s="4">
-        <v>305021103</v>
-      </c>
-      <c r="D95" s="5" t="s">
+      <c r="C95">
+        <v>403111103</v>
+      </c>
+      <c r="D95" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="E95" s="6">
+      <c r="E95" s="5">
         <v>305021100</v>
       </c>
-      <c r="F95" s="7" t="s">
+      <c r="F95" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3169,16 +3166,16 @@
       <c r="B96" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C96" s="4">
-        <v>305021104</v>
-      </c>
-      <c r="D96" s="5" t="s">
+      <c r="C96">
+        <v>403111104</v>
+      </c>
+      <c r="D96" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="E96" s="6">
+      <c r="E96" s="5">
         <v>305021100</v>
       </c>
-      <c r="F96" s="7" t="s">
+      <c r="F96" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3189,16 +3186,16 @@
       <c r="B97" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C97" s="4">
-        <v>305021105</v>
-      </c>
-      <c r="D97" s="5" t="s">
+      <c r="C97">
+        <v>403111105</v>
+      </c>
+      <c r="D97" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E97" s="6">
+      <c r="E97" s="5">
         <v>305021100</v>
       </c>
-      <c r="F97" s="7" t="s">
+      <c r="F97" s="6" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3209,16 +3206,16 @@
       <c r="B98" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C98" s="4">
-        <v>305021201</v>
-      </c>
-      <c r="D98" s="5" t="s">
+      <c r="C98">
+        <v>403111201</v>
+      </c>
+      <c r="D98" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="5">
         <v>305021200</v>
       </c>
-      <c r="F98" s="7" t="s">
+      <c r="F98" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3229,16 +3226,16 @@
       <c r="B99" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C99" s="4">
-        <v>305021202</v>
-      </c>
-      <c r="D99" s="5" t="s">
+      <c r="C99">
+        <v>403111202</v>
+      </c>
+      <c r="D99" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E99" s="6">
+      <c r="E99" s="5">
         <v>305021200</v>
       </c>
-      <c r="F99" s="7" t="s">
+      <c r="F99" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3249,16 +3246,16 @@
       <c r="B100" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C100" s="4">
-        <v>305021203</v>
-      </c>
-      <c r="D100" s="5" t="s">
+      <c r="C100">
+        <v>403111203</v>
+      </c>
+      <c r="D100" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="5">
         <v>305021200</v>
       </c>
-      <c r="F100" s="7" t="s">
+      <c r="F100" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3269,16 +3266,16 @@
       <c r="B101" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C101" s="4">
-        <v>305021204</v>
-      </c>
-      <c r="D101" s="5" t="s">
+      <c r="C101">
+        <v>403111204</v>
+      </c>
+      <c r="D101" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E101" s="6">
+      <c r="E101" s="5">
         <v>305021200</v>
       </c>
-      <c r="F101" s="7" t="s">
+      <c r="F101" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3289,16 +3286,16 @@
       <c r="B102" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C102" s="4">
-        <v>305021205</v>
-      </c>
-      <c r="D102" s="5" t="s">
+      <c r="C102">
+        <v>403111205</v>
+      </c>
+      <c r="D102" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E102" s="6">
+      <c r="E102" s="5">
         <v>305021200</v>
       </c>
-      <c r="F102" s="7" t="s">
+      <c r="F102" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3309,16 +3306,16 @@
       <c r="B103" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C103" s="4">
-        <v>305021206</v>
-      </c>
-      <c r="D103" s="5" t="s">
+      <c r="C103">
+        <v>403111206</v>
+      </c>
+      <c r="D103" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="5">
         <v>305021200</v>
       </c>
-      <c r="F103" s="7" t="s">
+      <c r="F103" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3329,16 +3326,16 @@
       <c r="B104" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C104" s="4">
-        <v>305021207</v>
-      </c>
-      <c r="D104" s="5" t="s">
+      <c r="C104">
+        <v>403111207</v>
+      </c>
+      <c r="D104" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="5">
         <v>305021200</v>
       </c>
-      <c r="F104" s="7" t="s">
+      <c r="F104" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3349,16 +3346,16 @@
       <c r="B105" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C105" s="4">
-        <v>305021208</v>
-      </c>
-      <c r="D105" s="5" t="s">
+      <c r="C105">
+        <v>403111208</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E105" s="6">
+      <c r="E105" s="5">
         <v>305021200</v>
       </c>
-      <c r="F105" s="7" t="s">
+      <c r="F105" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3369,16 +3366,16 @@
       <c r="B106" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C106" s="4">
-        <v>305021209</v>
-      </c>
-      <c r="D106" s="5" t="s">
+      <c r="C106">
+        <v>403111209</v>
+      </c>
+      <c r="D106" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E106" s="6">
+      <c r="E106" s="5">
         <v>305021200</v>
       </c>
-      <c r="F106" s="7" t="s">
+      <c r="F106" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3389,16 +3386,16 @@
       <c r="B107" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C107" s="4">
-        <v>305021210</v>
-      </c>
-      <c r="D107" s="5" t="s">
+      <c r="C107">
+        <v>403111210</v>
+      </c>
+      <c r="D107" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E107" s="6">
+      <c r="E107" s="5">
         <v>305021200</v>
       </c>
-      <c r="F107" s="7" t="s">
+      <c r="F107" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3409,16 +3406,16 @@
       <c r="B108" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C108" s="4">
-        <v>305021211</v>
-      </c>
-      <c r="D108" s="5" t="s">
+      <c r="C108">
+        <v>403111211</v>
+      </c>
+      <c r="D108" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E108" s="6">
+      <c r="E108" s="5">
         <v>305021200</v>
       </c>
-      <c r="F108" s="7" t="s">
+      <c r="F108" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3429,16 +3426,16 @@
       <c r="B109" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C109" s="4">
-        <v>305021212</v>
-      </c>
-      <c r="D109" s="5" t="s">
+      <c r="C109">
+        <v>403111212</v>
+      </c>
+      <c r="D109" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E109" s="6">
+      <c r="E109" s="5">
         <v>305021200</v>
       </c>
-      <c r="F109" s="7" t="s">
+      <c r="F109" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3449,16 +3446,16 @@
       <c r="B110" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C110" s="4">
-        <v>305021213</v>
-      </c>
-      <c r="D110" s="5" t="s">
+      <c r="C110">
+        <v>403111213</v>
+      </c>
+      <c r="D110" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="E110" s="6">
+      <c r="E110" s="5">
         <v>305021200</v>
       </c>
-      <c r="F110" s="7" t="s">
+      <c r="F110" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3469,16 +3466,16 @@
       <c r="B111" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C111" s="4">
-        <v>305021214</v>
-      </c>
-      <c r="D111" s="5" t="s">
+      <c r="C111">
+        <v>403111214</v>
+      </c>
+      <c r="D111" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="E111" s="6">
+      <c r="E111" s="5">
         <v>305021200</v>
       </c>
-      <c r="F111" s="7" t="s">
+      <c r="F111" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3489,16 +3486,16 @@
       <c r="B112" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C112" s="4">
-        <v>305021215</v>
-      </c>
-      <c r="D112" s="5" t="s">
+      <c r="C112">
+        <v>403111215</v>
+      </c>
+      <c r="D112" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="E112" s="6">
+      <c r="E112" s="5">
         <v>305021200</v>
       </c>
-      <c r="F112" s="7" t="s">
+      <c r="F112" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3509,16 +3506,16 @@
       <c r="B113" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C113" s="4">
-        <v>305021216</v>
-      </c>
-      <c r="D113" s="5" t="s">
+      <c r="C113">
+        <v>403111216</v>
+      </c>
+      <c r="D113" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="E113" s="6">
+      <c r="E113" s="5">
         <v>305021200</v>
       </c>
-      <c r="F113" s="7" t="s">
+      <c r="F113" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3529,16 +3526,16 @@
       <c r="B114" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C114" s="4">
-        <v>305021217</v>
-      </c>
-      <c r="D114" s="5" t="s">
+      <c r="C114">
+        <v>403111217</v>
+      </c>
+      <c r="D114" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="E114" s="6">
+      <c r="E114" s="5">
         <v>305021200</v>
       </c>
-      <c r="F114" s="7" t="s">
+      <c r="F114" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3549,16 +3546,16 @@
       <c r="B115" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C115" s="4">
-        <v>305021218</v>
-      </c>
-      <c r="D115" s="5" t="s">
+      <c r="C115">
+        <v>403111218</v>
+      </c>
+      <c r="D115" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="E115" s="6">
+      <c r="E115" s="5">
         <v>305021200</v>
       </c>
-      <c r="F115" s="7" t="s">
+      <c r="F115" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3569,16 +3566,16 @@
       <c r="B116" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C116" s="4">
-        <v>305021219</v>
-      </c>
-      <c r="D116" s="5" t="s">
+      <c r="C116">
+        <v>403111219</v>
+      </c>
+      <c r="D116" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E116" s="6">
+      <c r="E116" s="5">
         <v>305021200</v>
       </c>
-      <c r="F116" s="7" t="s">
+      <c r="F116" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3589,16 +3586,16 @@
       <c r="B117" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C117" s="4">
-        <v>305021220</v>
-      </c>
-      <c r="D117" s="5" t="s">
+      <c r="C117">
+        <v>403111220</v>
+      </c>
+      <c r="D117" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E117" s="6">
+      <c r="E117" s="5">
         <v>305021200</v>
       </c>
-      <c r="F117" s="7" t="s">
+      <c r="F117" s="6" t="s">
         <v>109</v>
       </c>
     </row>
@@ -3609,16 +3606,16 @@
       <c r="B118" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C118" s="4">
-        <v>305021301</v>
-      </c>
-      <c r="D118" s="5" t="s">
+      <c r="C118">
+        <v>403111301</v>
+      </c>
+      <c r="D118" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E118" s="6">
+      <c r="E118" s="5">
         <v>305021300</v>
       </c>
-      <c r="F118" s="7" t="s">
+      <c r="F118" s="6" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3629,16 +3626,16 @@
       <c r="B119" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C119" s="4">
-        <v>305021401</v>
-      </c>
-      <c r="D119" s="5" t="s">
+      <c r="C119">
+        <v>403111401</v>
+      </c>
+      <c r="D119" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="E119" s="6">
+      <c r="E119" s="5">
         <v>305021400</v>
       </c>
-      <c r="F119" s="7" t="s">
+      <c r="F119" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3649,16 +3646,16 @@
       <c r="B120" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C120" s="4">
-        <v>305021402</v>
-      </c>
-      <c r="D120" s="5" t="s">
+      <c r="C120">
+        <v>403111402</v>
+      </c>
+      <c r="D120" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E120" s="6">
+      <c r="E120" s="5">
         <v>305021400</v>
       </c>
-      <c r="F120" s="7" t="s">
+      <c r="F120" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3669,16 +3666,16 @@
       <c r="B121" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C121" s="4">
-        <v>305021403</v>
-      </c>
-      <c r="D121" s="5" t="s">
+      <c r="C121">
+        <v>403111403</v>
+      </c>
+      <c r="D121" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="E121" s="6">
+      <c r="E121" s="5">
         <v>305021400</v>
       </c>
-      <c r="F121" s="7" t="s">
+      <c r="F121" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3689,16 +3686,16 @@
       <c r="B122" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C122" s="4">
-        <v>305021404</v>
-      </c>
-      <c r="D122" s="5" t="s">
+      <c r="C122">
+        <v>403111404</v>
+      </c>
+      <c r="D122" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="E122" s="6">
+      <c r="E122" s="5">
         <v>305021400</v>
       </c>
-      <c r="F122" s="7" t="s">
+      <c r="F122" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3709,16 +3706,16 @@
       <c r="B123" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C123" s="4">
-        <v>305021405</v>
-      </c>
-      <c r="D123" s="5" t="s">
+      <c r="C123">
+        <v>403111405</v>
+      </c>
+      <c r="D123" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E123" s="6">
+      <c r="E123" s="5">
         <v>305021400</v>
       </c>
-      <c r="F123" s="7" t="s">
+      <c r="F123" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3729,16 +3726,16 @@
       <c r="B124" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C124" s="4">
-        <v>305021406</v>
-      </c>
-      <c r="D124" s="5" t="s">
+      <c r="C124">
+        <v>403111406</v>
+      </c>
+      <c r="D124" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E124" s="6">
+      <c r="E124" s="5">
         <v>305021400</v>
       </c>
-      <c r="F124" s="7" t="s">
+      <c r="F124" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3749,16 +3746,16 @@
       <c r="B125" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C125" s="4">
-        <v>305021407</v>
-      </c>
-      <c r="D125" s="5" t="s">
+      <c r="C125">
+        <v>403111407</v>
+      </c>
+      <c r="D125" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="E125" s="6">
+      <c r="E125" s="5">
         <v>305021400</v>
       </c>
-      <c r="F125" s="7" t="s">
+      <c r="F125" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3769,16 +3766,16 @@
       <c r="B126" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C126" s="4">
-        <v>305021408</v>
-      </c>
-      <c r="D126" s="5" t="s">
+      <c r="C126">
+        <v>403111408</v>
+      </c>
+      <c r="D126" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E126" s="6">
+      <c r="E126" s="5">
         <v>305021400</v>
       </c>
-      <c r="F126" s="7" t="s">
+      <c r="F126" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3789,16 +3786,16 @@
       <c r="B127" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C127" s="4">
-        <v>305021409</v>
-      </c>
-      <c r="D127" s="5" t="s">
+      <c r="C127">
+        <v>403111409</v>
+      </c>
+      <c r="D127" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E127" s="6">
+      <c r="E127" s="5">
         <v>305021400</v>
       </c>
-      <c r="F127" s="7" t="s">
+      <c r="F127" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3809,16 +3806,16 @@
       <c r="B128" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C128" s="4">
-        <v>305021410</v>
-      </c>
-      <c r="D128" s="5" t="s">
+      <c r="C128">
+        <v>403111410</v>
+      </c>
+      <c r="D128" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E128" s="6">
+      <c r="E128" s="5">
         <v>305021400</v>
       </c>
-      <c r="F128" s="7" t="s">
+      <c r="F128" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3829,16 +3826,16 @@
       <c r="B129" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C129" s="4">
-        <v>305021411</v>
-      </c>
-      <c r="D129" s="5" t="s">
+      <c r="C129">
+        <v>403111411</v>
+      </c>
+      <c r="D129" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E129" s="6">
+      <c r="E129" s="5">
         <v>305021400</v>
       </c>
-      <c r="F129" s="7" t="s">
+      <c r="F129" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3849,16 +3846,16 @@
       <c r="B130" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C130" s="4">
-        <v>305021412</v>
-      </c>
-      <c r="D130" s="5" t="s">
+      <c r="C130">
+        <v>403111412</v>
+      </c>
+      <c r="D130" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E130" s="6">
+      <c r="E130" s="5">
         <v>305021400</v>
       </c>
-      <c r="F130" s="7" t="s">
+      <c r="F130" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3869,16 +3866,16 @@
       <c r="B131" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C131" s="4">
-        <v>305021413</v>
-      </c>
-      <c r="D131" s="5" t="s">
+      <c r="C131">
+        <v>403111413</v>
+      </c>
+      <c r="D131" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="E131" s="6">
+      <c r="E131" s="5">
         <v>305021400</v>
       </c>
-      <c r="F131" s="7" t="s">
+      <c r="F131" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3889,16 +3886,16 @@
       <c r="B132" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C132" s="4">
-        <v>305021414</v>
-      </c>
-      <c r="D132" s="5" t="s">
+      <c r="C132">
+        <v>403111414</v>
+      </c>
+      <c r="D132" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E132" s="6">
+      <c r="E132" s="5">
         <v>305021400</v>
       </c>
-      <c r="F132" s="7" t="s">
+      <c r="F132" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3909,16 +3906,16 @@
       <c r="B133" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C133" s="4">
-        <v>305021415</v>
-      </c>
-      <c r="D133" s="5" t="s">
+      <c r="C133">
+        <v>403111415</v>
+      </c>
+      <c r="D133" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E133" s="6">
+      <c r="E133" s="5">
         <v>305021400</v>
       </c>
-      <c r="F133" s="7" t="s">
+      <c r="F133" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3929,16 +3926,16 @@
       <c r="B134" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C134" s="4">
-        <v>305021416</v>
-      </c>
-      <c r="D134" s="5" t="s">
+      <c r="C134">
+        <v>403111416</v>
+      </c>
+      <c r="D134" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E134" s="6">
+      <c r="E134" s="5">
         <v>305021400</v>
       </c>
-      <c r="F134" s="7" t="s">
+      <c r="F134" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3949,16 +3946,16 @@
       <c r="B135" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C135" s="4">
-        <v>305021417</v>
-      </c>
-      <c r="D135" s="5" t="s">
+      <c r="C135">
+        <v>403111417</v>
+      </c>
+      <c r="D135" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E135" s="6">
+      <c r="E135" s="5">
         <v>305021400</v>
       </c>
-      <c r="F135" s="7" t="s">
+      <c r="F135" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3969,16 +3966,16 @@
       <c r="B136" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C136" s="4">
-        <v>305021418</v>
-      </c>
-      <c r="D136" s="5" t="s">
+      <c r="C136">
+        <v>403111418</v>
+      </c>
+      <c r="D136" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="E136" s="6">
+      <c r="E136" s="5">
         <v>305021400</v>
       </c>
-      <c r="F136" s="7" t="s">
+      <c r="F136" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3989,16 +3986,16 @@
       <c r="B137" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C137" s="4">
-        <v>305021419</v>
-      </c>
-      <c r="D137" s="5" t="s">
+      <c r="C137">
+        <v>403111419</v>
+      </c>
+      <c r="D137" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E137" s="6">
+      <c r="E137" s="5">
         <v>305021400</v>
       </c>
-      <c r="F137" s="7" t="s">
+      <c r="F137" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4009,16 +4006,16 @@
       <c r="B138" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C138" s="4">
-        <v>305021420</v>
-      </c>
-      <c r="D138" s="5" t="s">
+      <c r="C138">
+        <v>403111420</v>
+      </c>
+      <c r="D138" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E138" s="6">
+      <c r="E138" s="5">
         <v>305021400</v>
       </c>
-      <c r="F138" s="7" t="s">
+      <c r="F138" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4029,16 +4026,16 @@
       <c r="B139" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C139" s="4">
-        <v>305021421</v>
-      </c>
-      <c r="D139" s="5" t="s">
+      <c r="C139">
+        <v>403111421</v>
+      </c>
+      <c r="D139" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E139" s="6">
+      <c r="E139" s="5">
         <v>305021400</v>
       </c>
-      <c r="F139" s="7" t="s">
+      <c r="F139" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4049,16 +4046,16 @@
       <c r="B140" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C140" s="4">
-        <v>305021422</v>
-      </c>
-      <c r="D140" s="5" t="s">
+      <c r="C140">
+        <v>403111422</v>
+      </c>
+      <c r="D140" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E140" s="6">
+      <c r="E140" s="5">
         <v>305021400</v>
       </c>
-      <c r="F140" s="7" t="s">
+      <c r="F140" s="6" t="s">
         <v>132</v>
       </c>
     </row>
@@ -4069,16 +4066,16 @@
       <c r="B141" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C141" s="4">
-        <v>305021501</v>
-      </c>
-      <c r="D141" s="5" t="s">
+      <c r="C141">
+        <v>403111501</v>
+      </c>
+      <c r="D141" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E141" s="6">
+      <c r="E141" s="5">
         <v>305021500</v>
       </c>
-      <c r="F141" s="7" t="s">
+      <c r="F141" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4089,16 +4086,16 @@
       <c r="B142" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C142" s="4">
-        <v>305021502</v>
-      </c>
-      <c r="D142" s="5" t="s">
+      <c r="C142">
+        <v>403111502</v>
+      </c>
+      <c r="D142" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="E142" s="6">
+      <c r="E142" s="5">
         <v>305021500</v>
       </c>
-      <c r="F142" s="7" t="s">
+      <c r="F142" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4109,16 +4106,16 @@
       <c r="B143" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C143" s="4">
-        <v>305021503</v>
-      </c>
-      <c r="D143" s="5" t="s">
+      <c r="C143">
+        <v>403111503</v>
+      </c>
+      <c r="D143" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E143" s="6">
+      <c r="E143" s="5">
         <v>305021500</v>
       </c>
-      <c r="F143" s="7" t="s">
+      <c r="F143" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4129,16 +4126,16 @@
       <c r="B144" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C144" s="4">
-        <v>305021504</v>
-      </c>
-      <c r="D144" s="5" t="s">
+      <c r="C144">
+        <v>403111504</v>
+      </c>
+      <c r="D144" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="E144" s="6">
+      <c r="E144" s="5">
         <v>305021500</v>
       </c>
-      <c r="F144" s="7" t="s">
+      <c r="F144" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4149,16 +4146,16 @@
       <c r="B145" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C145" s="4">
-        <v>305021505</v>
-      </c>
-      <c r="D145" s="5" t="s">
+      <c r="C145">
+        <v>403111505</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="E145" s="6">
+      <c r="E145" s="5">
         <v>305021500</v>
       </c>
-      <c r="F145" s="7" t="s">
+      <c r="F145" s="6" t="s">
         <v>155</v>
       </c>
     </row>
@@ -4169,16 +4166,16 @@
       <c r="B146" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C146" s="4">
-        <v>305021601</v>
-      </c>
-      <c r="D146" s="5" t="s">
+      <c r="C146">
+        <v>403111601</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E146" s="6">
+      <c r="E146" s="5">
         <v>305021600</v>
       </c>
-      <c r="F146" s="7" t="s">
+      <c r="F146" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4189,16 +4186,16 @@
       <c r="B147" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C147" s="4">
-        <v>305021602</v>
-      </c>
-      <c r="D147" s="5" t="s">
+      <c r="C147">
+        <v>403111602</v>
+      </c>
+      <c r="D147" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="E147" s="6">
+      <c r="E147" s="5">
         <v>305021600</v>
       </c>
-      <c r="F147" s="7" t="s">
+      <c r="F147" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4209,16 +4206,16 @@
       <c r="B148" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C148" s="4">
-        <v>305021603</v>
-      </c>
-      <c r="D148" s="5" t="s">
+      <c r="C148">
+        <v>403111603</v>
+      </c>
+      <c r="D148" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E148" s="6">
+      <c r="E148" s="5">
         <v>305021600</v>
       </c>
-      <c r="F148" s="7" t="s">
+      <c r="F148" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4229,16 +4226,16 @@
       <c r="B149" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C149" s="4">
-        <v>305021604</v>
-      </c>
-      <c r="D149" s="5" t="s">
+      <c r="C149">
+        <v>403111604</v>
+      </c>
+      <c r="D149" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E149" s="6">
+      <c r="E149" s="5">
         <v>305021600</v>
       </c>
-      <c r="F149" s="7" t="s">
+      <c r="F149" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4249,16 +4246,16 @@
       <c r="B150" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C150" s="4">
-        <v>305021605</v>
-      </c>
-      <c r="D150" s="5" t="s">
+      <c r="C150">
+        <v>403111605</v>
+      </c>
+      <c r="D150" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="E150" s="6">
+      <c r="E150" s="5">
         <v>305021600</v>
       </c>
-      <c r="F150" s="7" t="s">
+      <c r="F150" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4269,16 +4266,16 @@
       <c r="B151" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C151" s="4">
-        <v>305021606</v>
-      </c>
-      <c r="D151" s="5" t="s">
+      <c r="C151">
+        <v>403111606</v>
+      </c>
+      <c r="D151" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E151" s="6">
+      <c r="E151" s="5">
         <v>305021600</v>
       </c>
-      <c r="F151" s="7" t="s">
+      <c r="F151" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4289,16 +4286,16 @@
       <c r="B152" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C152" s="4">
-        <v>305021607</v>
-      </c>
-      <c r="D152" s="5" t="s">
+      <c r="C152">
+        <v>403111607</v>
+      </c>
+      <c r="D152" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E152" s="6">
+      <c r="E152" s="5">
         <v>305021600</v>
       </c>
-      <c r="F152" s="7" t="s">
+      <c r="F152" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4309,16 +4306,16 @@
       <c r="B153" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C153" s="4">
-        <v>305021608</v>
-      </c>
-      <c r="D153" s="5" t="s">
+      <c r="C153">
+        <v>403111608</v>
+      </c>
+      <c r="D153" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E153" s="6">
+      <c r="E153" s="5">
         <v>305021600</v>
       </c>
-      <c r="F153" s="7" t="s">
+      <c r="F153" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4329,16 +4326,16 @@
       <c r="B154" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C154" s="4">
-        <v>305021609</v>
-      </c>
-      <c r="D154" s="5" t="s">
+      <c r="C154">
+        <v>403111609</v>
+      </c>
+      <c r="D154" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E154" s="6">
+      <c r="E154" s="5">
         <v>305021600</v>
       </c>
-      <c r="F154" s="7" t="s">
+      <c r="F154" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4349,16 +4346,16 @@
       <c r="B155" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C155" s="4">
-        <v>305021610</v>
-      </c>
-      <c r="D155" s="5" t="s">
+      <c r="C155">
+        <v>403111610</v>
+      </c>
+      <c r="D155" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E155" s="6">
+      <c r="E155" s="5">
         <v>305021600</v>
       </c>
-      <c r="F155" s="7" t="s">
+      <c r="F155" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4369,16 +4366,16 @@
       <c r="B156" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C156" s="4">
-        <v>305021611</v>
-      </c>
-      <c r="D156" s="5" t="s">
+      <c r="C156">
+        <v>403111611</v>
+      </c>
+      <c r="D156" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E156" s="6">
+      <c r="E156" s="5">
         <v>305021600</v>
       </c>
-      <c r="F156" s="7" t="s">
+      <c r="F156" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4389,16 +4386,16 @@
       <c r="B157" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C157" s="4">
-        <v>305021612</v>
-      </c>
-      <c r="D157" s="5" t="s">
+      <c r="C157">
+        <v>403111612</v>
+      </c>
+      <c r="D157" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E157" s="6">
+      <c r="E157" s="5">
         <v>305021600</v>
       </c>
-      <c r="F157" s="7" t="s">
+      <c r="F157" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4409,16 +4406,16 @@
       <c r="B158" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C158" s="4">
-        <v>305021613</v>
-      </c>
-      <c r="D158" s="5" t="s">
+      <c r="C158">
+        <v>403111613</v>
+      </c>
+      <c r="D158" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E158" s="6">
+      <c r="E158" s="5">
         <v>305021600</v>
       </c>
-      <c r="F158" s="7" t="s">
+      <c r="F158" s="6" t="s">
         <v>161</v>
       </c>
     </row>
@@ -4429,16 +4426,16 @@
       <c r="B159" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C159" s="4">
-        <v>305021701</v>
-      </c>
-      <c r="D159" s="5" t="s">
+      <c r="C159">
+        <v>403111701</v>
+      </c>
+      <c r="D159" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="E159" s="6">
+      <c r="E159" s="5">
         <v>305021700</v>
       </c>
-      <c r="F159" s="7" t="s">
+      <c r="F159" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4449,16 +4446,16 @@
       <c r="B160" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C160" s="4">
-        <v>305021702</v>
-      </c>
-      <c r="D160" s="5" t="s">
+      <c r="C160">
+        <v>403111702</v>
+      </c>
+      <c r="D160" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E160" s="6">
+      <c r="E160" s="5">
         <v>305021700</v>
       </c>
-      <c r="F160" s="7" t="s">
+      <c r="F160" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4469,16 +4466,16 @@
       <c r="B161" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C161" s="4">
-        <v>305021703</v>
-      </c>
-      <c r="D161" s="5" t="s">
+      <c r="C161">
+        <v>403111703</v>
+      </c>
+      <c r="D161" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="E161" s="6">
+      <c r="E161" s="5">
         <v>305021700</v>
       </c>
-      <c r="F161" s="7" t="s">
+      <c r="F161" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4489,16 +4486,16 @@
       <c r="B162" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C162" s="4">
-        <v>305021704</v>
-      </c>
-      <c r="D162" s="5" t="s">
+      <c r="C162">
+        <v>403111704</v>
+      </c>
+      <c r="D162" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E162" s="6">
+      <c r="E162" s="5">
         <v>305021700</v>
       </c>
-      <c r="F162" s="7" t="s">
+      <c r="F162" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4509,16 +4506,16 @@
       <c r="B163" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C163" s="4">
-        <v>305021705</v>
-      </c>
-      <c r="D163" s="5" t="s">
+      <c r="C163">
+        <v>403111705</v>
+      </c>
+      <c r="D163" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="E163" s="6">
+      <c r="E163" s="5">
         <v>305021700</v>
       </c>
-      <c r="F163" s="7" t="s">
+      <c r="F163" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4529,16 +4526,16 @@
       <c r="B164" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C164" s="4">
-        <v>305021706</v>
-      </c>
-      <c r="D164" s="5" t="s">
+      <c r="C164">
+        <v>403111706</v>
+      </c>
+      <c r="D164" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E164" s="6">
+      <c r="E164" s="5">
         <v>305021700</v>
       </c>
-      <c r="F164" s="7" t="s">
+      <c r="F164" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4549,16 +4546,16 @@
       <c r="B165" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C165" s="4">
-        <v>305021707</v>
-      </c>
-      <c r="D165" s="5" t="s">
+      <c r="C165">
+        <v>403111707</v>
+      </c>
+      <c r="D165" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E165" s="6">
+      <c r="E165" s="5">
         <v>305021700</v>
       </c>
-      <c r="F165" s="7" t="s">
+      <c r="F165" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4569,16 +4566,16 @@
       <c r="B166" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C166" s="4">
-        <v>305021708</v>
-      </c>
-      <c r="D166" s="5" t="s">
+      <c r="C166">
+        <v>403111708</v>
+      </c>
+      <c r="D166" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="E166" s="6">
+      <c r="E166" s="5">
         <v>305021700</v>
       </c>
-      <c r="F166" s="7" t="s">
+      <c r="F166" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4589,16 +4586,16 @@
       <c r="B167" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C167" s="4">
-        <v>305021709</v>
-      </c>
-      <c r="D167" s="5" t="s">
+      <c r="C167">
+        <v>403111709</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="6">
+      <c r="E167" s="5">
         <v>305021700</v>
       </c>
-      <c r="F167" s="7" t="s">
+      <c r="F167" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4609,16 +4606,16 @@
       <c r="B168" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C168" s="4">
-        <v>305021710</v>
-      </c>
-      <c r="D168" s="5" t="s">
+      <c r="C168">
+        <v>403111710</v>
+      </c>
+      <c r="D168" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E168" s="6">
+      <c r="E168" s="5">
         <v>305021700</v>
       </c>
-      <c r="F168" s="7" t="s">
+      <c r="F168" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4629,16 +4626,16 @@
       <c r="B169" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C169" s="4">
-        <v>305021711</v>
-      </c>
-      <c r="D169" s="5" t="s">
+      <c r="C169">
+        <v>403111711</v>
+      </c>
+      <c r="D169" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="E169" s="6">
+      <c r="E169" s="5">
         <v>305021700</v>
       </c>
-      <c r="F169" s="7" t="s">
+      <c r="F169" s="6" t="s">
         <v>175</v>
       </c>
     </row>
@@ -4649,16 +4646,16 @@
       <c r="B170" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C170" s="4">
-        <v>305021801</v>
-      </c>
-      <c r="D170" s="5" t="s">
+      <c r="C170">
+        <v>403111801</v>
+      </c>
+      <c r="D170" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E170" s="6">
+      <c r="E170" s="5">
         <v>305021800</v>
       </c>
-      <c r="F170" s="7" t="s">
+      <c r="F170" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4669,16 +4666,16 @@
       <c r="B171" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C171" s="4">
-        <v>305021802</v>
-      </c>
-      <c r="D171" s="5" t="s">
+      <c r="C171">
+        <v>403111802</v>
+      </c>
+      <c r="D171" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="E171" s="6">
+      <c r="E171" s="5">
         <v>305021800</v>
       </c>
-      <c r="F171" s="7" t="s">
+      <c r="F171" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4689,16 +4686,16 @@
       <c r="B172" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C172" s="4">
-        <v>305021803</v>
-      </c>
-      <c r="D172" s="5" t="s">
+      <c r="C172">
+        <v>403111803</v>
+      </c>
+      <c r="D172" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="E172" s="6">
+      <c r="E172" s="5">
         <v>305021800</v>
       </c>
-      <c r="F172" s="7" t="s">
+      <c r="F172" s="6" t="s">
         <v>187</v>
       </c>
     </row>
@@ -4709,16 +4706,16 @@
       <c r="B173" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C173" s="4">
-        <v>305021901</v>
-      </c>
-      <c r="D173" s="5" t="s">
+      <c r="C173">
+        <v>403111901</v>
+      </c>
+      <c r="D173" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E173" s="6">
+      <c r="E173" s="5">
         <v>305021900</v>
       </c>
-      <c r="F173" s="7" t="s">
+      <c r="F173" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4729,16 +4726,16 @@
       <c r="B174" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C174" s="4">
-        <v>305021902</v>
-      </c>
-      <c r="D174" s="5" t="s">
+      <c r="C174">
+        <v>403111902</v>
+      </c>
+      <c r="D174" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E174" s="6">
+      <c r="E174" s="5">
         <v>305021900</v>
       </c>
-      <c r="F174" s="7" t="s">
+      <c r="F174" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4749,16 +4746,16 @@
       <c r="B175" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C175" s="4">
-        <v>305021903</v>
-      </c>
-      <c r="D175" s="5" t="s">
+      <c r="C175">
+        <v>403111903</v>
+      </c>
+      <c r="D175" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E175" s="6">
+      <c r="E175" s="5">
         <v>305021900</v>
       </c>
-      <c r="F175" s="7" t="s">
+      <c r="F175" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4769,16 +4766,16 @@
       <c r="B176" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C176" s="4">
-        <v>305021904</v>
-      </c>
-      <c r="D176" s="5" t="s">
+      <c r="C176">
+        <v>403111904</v>
+      </c>
+      <c r="D176" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E176" s="6">
+      <c r="E176" s="5">
         <v>305021900</v>
       </c>
-      <c r="F176" s="7" t="s">
+      <c r="F176" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4789,16 +4786,16 @@
       <c r="B177" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C177" s="4">
-        <v>305021905</v>
-      </c>
-      <c r="D177" s="5" t="s">
+      <c r="C177">
+        <v>403111905</v>
+      </c>
+      <c r="D177" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E177" s="6">
+      <c r="E177" s="5">
         <v>305021900</v>
       </c>
-      <c r="F177" s="7" t="s">
+      <c r="F177" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4809,16 +4806,16 @@
       <c r="B178" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C178" s="4">
-        <v>305021906</v>
-      </c>
-      <c r="D178" s="5" t="s">
+      <c r="C178">
+        <v>403111906</v>
+      </c>
+      <c r="D178" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E178" s="6">
+      <c r="E178" s="5">
         <v>305021900</v>
       </c>
-      <c r="F178" s="7" t="s">
+      <c r="F178" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4829,16 +4826,16 @@
       <c r="B179" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C179" s="4">
-        <v>305021907</v>
-      </c>
-      <c r="D179" s="5" t="s">
+      <c r="C179">
+        <v>403111907</v>
+      </c>
+      <c r="D179" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E179" s="6">
+      <c r="E179" s="5">
         <v>305021900</v>
       </c>
-      <c r="F179" s="7" t="s">
+      <c r="F179" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4849,16 +4846,16 @@
       <c r="B180" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C180" s="4">
-        <v>305021908</v>
-      </c>
-      <c r="D180" s="5" t="s">
+      <c r="C180">
+        <v>403111908</v>
+      </c>
+      <c r="D180" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="E180" s="6">
+      <c r="E180" s="5">
         <v>305021900</v>
       </c>
-      <c r="F180" s="7" t="s">
+      <c r="F180" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4869,16 +4866,16 @@
       <c r="B181" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C181" s="4">
-        <v>305021909</v>
-      </c>
-      <c r="D181" s="5" t="s">
+      <c r="C181">
+        <v>403111909</v>
+      </c>
+      <c r="D181" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E181" s="6">
+      <c r="E181" s="5">
         <v>305021900</v>
       </c>
-      <c r="F181" s="7" t="s">
+      <c r="F181" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4889,16 +4886,16 @@
       <c r="B182" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C182" s="4">
-        <v>305021910</v>
-      </c>
-      <c r="D182" s="5" t="s">
+      <c r="C182">
+        <v>403111910</v>
+      </c>
+      <c r="D182" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="E182" s="6">
+      <c r="E182" s="5">
         <v>305021900</v>
       </c>
-      <c r="F182" s="7" t="s">
+      <c r="F182" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4909,16 +4906,16 @@
       <c r="B183" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C183" s="4">
-        <v>305021911</v>
-      </c>
-      <c r="D183" s="5" t="s">
+      <c r="C183">
+        <v>403111911</v>
+      </c>
+      <c r="D183" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E183" s="6">
+      <c r="E183" s="5">
         <v>305021900</v>
       </c>
-      <c r="F183" s="7" t="s">
+      <c r="F183" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4929,16 +4926,16 @@
       <c r="B184" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C184" s="4">
-        <v>305021912</v>
-      </c>
-      <c r="D184" s="5" t="s">
+      <c r="C184">
+        <v>403111912</v>
+      </c>
+      <c r="D184" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E184" s="6">
+      <c r="E184" s="5">
         <v>305021900</v>
       </c>
-      <c r="F184" s="7" t="s">
+      <c r="F184" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4949,16 +4946,16 @@
       <c r="B185" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C185" s="4">
-        <v>305021913</v>
-      </c>
-      <c r="D185" s="5" t="s">
+      <c r="C185">
+        <v>403111913</v>
+      </c>
+      <c r="D185" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E185" s="6">
+      <c r="E185" s="5">
         <v>305021900</v>
       </c>
-      <c r="F185" s="7" t="s">
+      <c r="F185" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4969,16 +4966,16 @@
       <c r="B186" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C186" s="4">
-        <v>305021914</v>
-      </c>
-      <c r="D186" s="5" t="s">
+      <c r="C186">
+        <v>403111914</v>
+      </c>
+      <c r="D186" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E186" s="6">
+      <c r="E186" s="5">
         <v>305021900</v>
       </c>
-      <c r="F186" s="7" t="s">
+      <c r="F186" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4989,16 +4986,16 @@
       <c r="B187" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C187" s="4">
-        <v>305021915</v>
-      </c>
-      <c r="D187" s="5" t="s">
+      <c r="C187">
+        <v>403111915</v>
+      </c>
+      <c r="D187" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E187" s="6">
+      <c r="E187" s="5">
         <v>305021900</v>
       </c>
-      <c r="F187" s="7" t="s">
+      <c r="F187" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5009,16 +5006,16 @@
       <c r="B188" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C188" s="4">
-        <v>305021916</v>
-      </c>
-      <c r="D188" s="5" t="s">
+      <c r="C188">
+        <v>403111916</v>
+      </c>
+      <c r="D188" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E188" s="6">
+      <c r="E188" s="5">
         <v>305021900</v>
       </c>
-      <c r="F188" s="7" t="s">
+      <c r="F188" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5029,16 +5026,16 @@
       <c r="B189" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C189" s="4">
-        <v>305021917</v>
-      </c>
-      <c r="D189" s="5" t="s">
+      <c r="C189">
+        <v>403111917</v>
+      </c>
+      <c r="D189" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E189" s="6">
+      <c r="E189" s="5">
         <v>305021900</v>
       </c>
-      <c r="F189" s="7" t="s">
+      <c r="F189" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5049,16 +5046,16 @@
       <c r="B190" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C190" s="4">
-        <v>305021918</v>
-      </c>
-      <c r="D190" s="5" t="s">
+      <c r="C190">
+        <v>403111918</v>
+      </c>
+      <c r="D190" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E190" s="6">
+      <c r="E190" s="5">
         <v>305021900</v>
       </c>
-      <c r="F190" s="7" t="s">
+      <c r="F190" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5069,16 +5066,16 @@
       <c r="B191" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C191" s="4">
-        <v>305021919</v>
-      </c>
-      <c r="D191" s="5" t="s">
+      <c r="C191">
+        <v>403111919</v>
+      </c>
+      <c r="D191" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E191" s="6">
+      <c r="E191" s="5">
         <v>305021900</v>
       </c>
-      <c r="F191" s="7" t="s">
+      <c r="F191" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5089,16 +5086,16 @@
       <c r="B192" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C192" s="4">
-        <v>305021920</v>
-      </c>
-      <c r="D192" s="5" t="s">
+      <c r="C192">
+        <v>403111920</v>
+      </c>
+      <c r="D192" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E192" s="6">
+      <c r="E192" s="5">
         <v>305021900</v>
       </c>
-      <c r="F192" s="7" t="s">
+      <c r="F192" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5109,16 +5106,16 @@
       <c r="B193" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C193" s="4">
-        <v>305021921</v>
-      </c>
-      <c r="D193" s="5" t="s">
+      <c r="C193">
+        <v>403111921</v>
+      </c>
+      <c r="D193" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E193" s="6">
+      <c r="E193" s="5">
         <v>305021900</v>
       </c>
-      <c r="F193" s="7" t="s">
+      <c r="F193" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5129,16 +5126,16 @@
       <c r="B194" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C194" s="4">
-        <v>305021922</v>
-      </c>
-      <c r="D194" s="5" t="s">
+      <c r="C194">
+        <v>403111922</v>
+      </c>
+      <c r="D194" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E194" s="6">
+      <c r="E194" s="5">
         <v>305021900</v>
       </c>
-      <c r="F194" s="7" t="s">
+      <c r="F194" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5149,16 +5146,16 @@
       <c r="B195" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C195" s="4">
-        <v>305021923</v>
-      </c>
-      <c r="D195" s="5" t="s">
+      <c r="C195">
+        <v>403111923</v>
+      </c>
+      <c r="D195" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E195" s="6">
+      <c r="E195" s="5">
         <v>305021900</v>
       </c>
-      <c r="F195" s="7" t="s">
+      <c r="F195" s="6" t="s">
         <v>190</v>
       </c>
     </row>
@@ -5169,16 +5166,16 @@
       <c r="B196" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C196" s="4">
-        <v>305022001</v>
-      </c>
-      <c r="D196" s="5" t="s">
+      <c r="C196">
+        <v>403112001</v>
+      </c>
+      <c r="D196" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="E196" s="6">
+      <c r="E196" s="5">
         <v>305022000</v>
       </c>
-      <c r="F196" s="7" t="s">
+      <c r="F196" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5189,16 +5186,16 @@
       <c r="B197" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C197" s="4">
-        <v>305022002</v>
-      </c>
-      <c r="D197" s="5" t="s">
+      <c r="C197">
+        <v>403112002</v>
+      </c>
+      <c r="D197" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="E197" s="6">
+      <c r="E197" s="5">
         <v>305022000</v>
       </c>
-      <c r="F197" s="7" t="s">
+      <c r="F197" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5209,16 +5206,16 @@
       <c r="B198" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C198" s="4">
-        <v>305022003</v>
-      </c>
-      <c r="D198" s="5" t="s">
+      <c r="C198">
+        <v>403112003</v>
+      </c>
+      <c r="D198" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="E198" s="6">
+      <c r="E198" s="5">
         <v>305022000</v>
       </c>
-      <c r="F198" s="7" t="s">
+      <c r="F198" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5229,16 +5226,16 @@
       <c r="B199" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C199" s="4">
-        <v>305022004</v>
-      </c>
-      <c r="D199" s="5" t="s">
+      <c r="C199">
+        <v>403112004</v>
+      </c>
+      <c r="D199" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E199" s="6">
+      <c r="E199" s="5">
         <v>305022000</v>
       </c>
-      <c r="F199" s="7" t="s">
+      <c r="F199" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5249,16 +5246,16 @@
       <c r="B200" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C200" s="4">
-        <v>305022005</v>
-      </c>
-      <c r="D200" s="5" t="s">
+      <c r="C200">
+        <v>403112005</v>
+      </c>
+      <c r="D200" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E200" s="6">
+      <c r="E200" s="5">
         <v>305022000</v>
       </c>
-      <c r="F200" s="7" t="s">
+      <c r="F200" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5269,16 +5266,16 @@
       <c r="B201" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C201" s="4">
-        <v>305022006</v>
-      </c>
-      <c r="D201" s="5" t="s">
+      <c r="C201">
+        <v>403112006</v>
+      </c>
+      <c r="D201" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E201" s="6">
+      <c r="E201" s="5">
         <v>305022000</v>
       </c>
-      <c r="F201" s="7" t="s">
+      <c r="F201" s="6" t="s">
         <v>205</v>
       </c>
     </row>
@@ -5289,16 +5286,16 @@
       <c r="B202" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C202" s="4">
-        <v>305022101</v>
-      </c>
-      <c r="D202" s="5" t="s">
+      <c r="C202">
+        <v>403112101</v>
+      </c>
+      <c r="D202" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E202" s="6">
+      <c r="E202" s="5">
         <v>305022100</v>
       </c>
-      <c r="F202" s="7" t="s">
+      <c r="F202" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5309,16 +5306,16 @@
       <c r="B203" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C203" s="4">
-        <v>305022102</v>
-      </c>
-      <c r="D203" s="5" t="s">
+      <c r="C203">
+        <v>403112102</v>
+      </c>
+      <c r="D203" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="E203" s="6">
+      <c r="E203" s="5">
         <v>305022100</v>
       </c>
-      <c r="F203" s="7" t="s">
+      <c r="F203" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5329,16 +5326,16 @@
       <c r="B204" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C204" s="4">
-        <v>305022103</v>
-      </c>
-      <c r="D204" s="5" t="s">
+      <c r="C204">
+        <v>403112103</v>
+      </c>
+      <c r="D204" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="E204" s="6">
+      <c r="E204" s="5">
         <v>305022100</v>
       </c>
-      <c r="F204" s="7" t="s">
+      <c r="F204" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5349,16 +5346,16 @@
       <c r="B205" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C205" s="4">
-        <v>305022104</v>
-      </c>
-      <c r="D205" s="5" t="s">
+      <c r="C205">
+        <v>403112104</v>
+      </c>
+      <c r="D205" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E205" s="6">
+      <c r="E205" s="5">
         <v>305022100</v>
       </c>
-      <c r="F205" s="7" t="s">
+      <c r="F205" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5369,16 +5366,16 @@
       <c r="B206" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C206" s="4">
-        <v>305022105</v>
-      </c>
-      <c r="D206" s="5" t="s">
+      <c r="C206">
+        <v>403112105</v>
+      </c>
+      <c r="D206" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E206" s="6">
+      <c r="E206" s="5">
         <v>305022100</v>
       </c>
-      <c r="F206" s="7" t="s">
+      <c r="F206" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5389,16 +5386,16 @@
       <c r="B207" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C207" s="4">
-        <v>305022106</v>
-      </c>
-      <c r="D207" s="5" t="s">
+      <c r="C207">
+        <v>403112106</v>
+      </c>
+      <c r="D207" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E207" s="6">
+      <c r="E207" s="5">
         <v>305022100</v>
       </c>
-      <c r="F207" s="7" t="s">
+      <c r="F207" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5409,16 +5406,16 @@
       <c r="B208" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C208" s="4">
-        <v>305022107</v>
-      </c>
-      <c r="D208" s="5" t="s">
+      <c r="C208">
+        <v>403112107</v>
+      </c>
+      <c r="D208" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E208" s="6">
+      <c r="E208" s="5">
         <v>305022100</v>
       </c>
-      <c r="F208" s="7" t="s">
+      <c r="F208" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5429,16 +5426,16 @@
       <c r="B209" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C209" s="4">
-        <v>305022108</v>
-      </c>
-      <c r="D209" s="5" t="s">
+      <c r="C209">
+        <v>403112108</v>
+      </c>
+      <c r="D209" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E209" s="6">
+      <c r="E209" s="5">
         <v>305022100</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5449,16 +5446,16 @@
       <c r="B210" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C210" s="4">
-        <v>305022109</v>
-      </c>
-      <c r="D210" s="5" t="s">
+      <c r="C210">
+        <v>403112109</v>
+      </c>
+      <c r="D210" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E210" s="6">
+      <c r="E210" s="5">
         <v>305022100</v>
       </c>
-      <c r="F210" s="7" t="s">
+      <c r="F210" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5469,16 +5466,16 @@
       <c r="B211" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C211" s="4">
-        <v>305022110</v>
-      </c>
-      <c r="D211" s="5" t="s">
+      <c r="C211">
+        <v>403112110</v>
+      </c>
+      <c r="D211" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="E211" s="6">
+      <c r="E211" s="5">
         <v>305022100</v>
       </c>
-      <c r="F211" s="7" t="s">
+      <c r="F211" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5489,16 +5486,16 @@
       <c r="B212" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C212" s="4">
-        <v>305022111</v>
-      </c>
-      <c r="D212" s="5" t="s">
+      <c r="C212">
+        <v>403112111</v>
+      </c>
+      <c r="D212" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E212" s="6">
+      <c r="E212" s="5">
         <v>305022100</v>
       </c>
-      <c r="F212" s="7" t="s">
+      <c r="F212" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5509,16 +5506,16 @@
       <c r="B213" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C213" s="4">
-        <v>305022112</v>
-      </c>
-      <c r="D213" s="5" t="s">
+      <c r="C213">
+        <v>403112112</v>
+      </c>
+      <c r="D213" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="E213" s="6">
+      <c r="E213" s="5">
         <v>305022100</v>
       </c>
-      <c r="F213" s="7" t="s">
+      <c r="F213" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5529,16 +5526,16 @@
       <c r="B214" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C214" s="4">
-        <v>305022113</v>
-      </c>
-      <c r="D214" s="5" t="s">
+      <c r="C214">
+        <v>403112113</v>
+      </c>
+      <c r="D214" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="E214" s="6">
+      <c r="E214" s="5">
         <v>305022100</v>
       </c>
-      <c r="F214" s="7" t="s">
+      <c r="F214" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5549,16 +5546,16 @@
       <c r="B215" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C215" s="4">
-        <v>305022114</v>
-      </c>
-      <c r="D215" s="5" t="s">
+      <c r="C215">
+        <v>403112114</v>
+      </c>
+      <c r="D215" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E215" s="6">
+      <c r="E215" s="5">
         <v>305022100</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5569,16 +5566,16 @@
       <c r="B216" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C216" s="4">
-        <v>305022115</v>
-      </c>
-      <c r="D216" s="5" t="s">
+      <c r="C216">
+        <v>403112115</v>
+      </c>
+      <c r="D216" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E216" s="6">
+      <c r="E216" s="5">
         <v>305022100</v>
       </c>
-      <c r="F216" s="7" t="s">
+      <c r="F216" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5589,16 +5586,16 @@
       <c r="B217" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C217" s="4">
-        <v>305022116</v>
-      </c>
-      <c r="D217" s="5" t="s">
+      <c r="C217">
+        <v>403112116</v>
+      </c>
+      <c r="D217" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E217" s="6">
+      <c r="E217" s="5">
         <v>305022100</v>
       </c>
-      <c r="F217" s="7" t="s">
+      <c r="F217" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5609,16 +5606,16 @@
       <c r="B218" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C218" s="4">
-        <v>305022117</v>
-      </c>
-      <c r="D218" s="5" t="s">
+      <c r="C218">
+        <v>403112117</v>
+      </c>
+      <c r="D218" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E218" s="6">
+      <c r="E218" s="5">
         <v>305022100</v>
       </c>
-      <c r="F218" s="7" t="s">
+      <c r="F218" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5629,16 +5626,16 @@
       <c r="B219" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C219" s="4">
-        <v>305022118</v>
-      </c>
-      <c r="D219" s="5" t="s">
+      <c r="C219">
+        <v>403112118</v>
+      </c>
+      <c r="D219" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E219" s="6">
+      <c r="E219" s="5">
         <v>305022100</v>
       </c>
-      <c r="F219" s="7" t="s">
+      <c r="F219" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5649,16 +5646,16 @@
       <c r="B220" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C220" s="4">
-        <v>305022119</v>
-      </c>
-      <c r="D220" s="5" t="s">
+      <c r="C220">
+        <v>403112119</v>
+      </c>
+      <c r="D220" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E220" s="6">
+      <c r="E220" s="5">
         <v>305022100</v>
       </c>
-      <c r="F220" s="7" t="s">
+      <c r="F220" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5669,16 +5666,16 @@
       <c r="B221" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C221" s="4">
-        <v>305022120</v>
-      </c>
-      <c r="D221" s="5" t="s">
+      <c r="C221">
+        <v>403112120</v>
+      </c>
+      <c r="D221" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E221" s="6">
+      <c r="E221" s="5">
         <v>305022100</v>
       </c>
-      <c r="F221" s="7" t="s">
+      <c r="F221" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5689,16 +5686,16 @@
       <c r="B222" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C222" s="4">
-        <v>305022121</v>
-      </c>
-      <c r="D222" s="5" t="s">
+      <c r="C222">
+        <v>403112121</v>
+      </c>
+      <c r="D222" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E222" s="6">
+      <c r="E222" s="5">
         <v>305022100</v>
       </c>
-      <c r="F222" s="7" t="s">
+      <c r="F222" s="6" t="s">
         <v>211</v>
       </c>
     </row>
@@ -5709,16 +5706,16 @@
       <c r="B223" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C223" s="4">
-        <v>305022201</v>
-      </c>
-      <c r="D223" s="5" t="s">
+      <c r="C223">
+        <v>403112201</v>
+      </c>
+      <c r="D223" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="E223" s="6">
+      <c r="E223" s="5">
         <v>305022200</v>
       </c>
-      <c r="F223" s="7" t="s">
+      <c r="F223" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5729,16 +5726,16 @@
       <c r="B224" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C224" s="4">
-        <v>305022202</v>
-      </c>
-      <c r="D224" s="5" t="s">
+      <c r="C224">
+        <v>403112202</v>
+      </c>
+      <c r="D224" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E224" s="6">
+      <c r="E224" s="5">
         <v>305022200</v>
       </c>
-      <c r="F224" s="7" t="s">
+      <c r="F224" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5749,16 +5746,16 @@
       <c r="B225" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C225" s="4">
-        <v>305022203</v>
-      </c>
-      <c r="D225" s="5" t="s">
+      <c r="C225">
+        <v>403112203</v>
+      </c>
+      <c r="D225" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="E225" s="6">
+      <c r="E225" s="5">
         <v>305022200</v>
       </c>
-      <c r="F225" s="7" t="s">
+      <c r="F225" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5769,16 +5766,16 @@
       <c r="B226" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C226" s="4">
-        <v>305022204</v>
-      </c>
-      <c r="D226" s="5" t="s">
+      <c r="C226">
+        <v>403112204</v>
+      </c>
+      <c r="D226" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E226" s="6">
+      <c r="E226" s="5">
         <v>305022200</v>
       </c>
-      <c r="F226" s="7" t="s">
+      <c r="F226" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5789,16 +5786,16 @@
       <c r="B227" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C227" s="4">
-        <v>305022205</v>
-      </c>
-      <c r="D227" s="5" t="s">
+      <c r="C227">
+        <v>403112205</v>
+      </c>
+      <c r="D227" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="E227" s="6">
+      <c r="E227" s="5">
         <v>305022200</v>
       </c>
-      <c r="F227" s="7" t="s">
+      <c r="F227" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5809,16 +5806,16 @@
       <c r="B228" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C228" s="4">
-        <v>305022206</v>
-      </c>
-      <c r="D228" s="5" t="s">
+      <c r="C228">
+        <v>403112206</v>
+      </c>
+      <c r="D228" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="E228" s="6">
+      <c r="E228" s="5">
         <v>305022200</v>
       </c>
-      <c r="F228" s="7" t="s">
+      <c r="F228" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5829,16 +5826,16 @@
       <c r="B229" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C229" s="4">
-        <v>305022207</v>
-      </c>
-      <c r="D229" s="5" t="s">
+      <c r="C229">
+        <v>403112207</v>
+      </c>
+      <c r="D229" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E229" s="6">
+      <c r="E229" s="5">
         <v>305022200</v>
       </c>
-      <c r="F229" s="7" t="s">
+      <c r="F229" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5849,16 +5846,16 @@
       <c r="B230" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C230" s="4">
-        <v>305022208</v>
-      </c>
-      <c r="D230" s="5" t="s">
+      <c r="C230">
+        <v>403112208</v>
+      </c>
+      <c r="D230" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E230" s="6">
+      <c r="E230" s="5">
         <v>305022200</v>
       </c>
-      <c r="F230" s="7" t="s">
+      <c r="F230" s="6" t="s">
         <v>223</v>
       </c>
     </row>
@@ -5869,16 +5866,16 @@
       <c r="B231" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C231" s="4">
-        <v>305022301</v>
-      </c>
-      <c r="D231" s="5" t="s">
+      <c r="C231">
+        <v>403112301</v>
+      </c>
+      <c r="D231" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="E231" s="6">
+      <c r="E231" s="5">
         <v>305022300</v>
       </c>
-      <c r="F231" s="7" t="s">
+      <c r="F231" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5889,16 +5886,16 @@
       <c r="B232" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C232" s="4">
-        <v>305022302</v>
-      </c>
-      <c r="D232" s="5" t="s">
+      <c r="C232">
+        <v>403112302</v>
+      </c>
+      <c r="D232" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="E232" s="6">
+      <c r="E232" s="5">
         <v>305022300</v>
       </c>
-      <c r="F232" s="7" t="s">
+      <c r="F232" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5909,16 +5906,16 @@
       <c r="B233" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C233" s="4">
-        <v>305022303</v>
-      </c>
-      <c r="D233" s="5" t="s">
+      <c r="C233">
+        <v>403112303</v>
+      </c>
+      <c r="D233" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E233" s="6">
+      <c r="E233" s="5">
         <v>305022300</v>
       </c>
-      <c r="F233" s="7" t="s">
+      <c r="F233" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5929,16 +5926,16 @@
       <c r="B234" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C234" s="4">
-        <v>305022304</v>
-      </c>
-      <c r="D234" s="5" t="s">
+      <c r="C234">
+        <v>403112304</v>
+      </c>
+      <c r="D234" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E234" s="6">
+      <c r="E234" s="5">
         <v>305022300</v>
       </c>
-      <c r="F234" s="7" t="s">
+      <c r="F234" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5949,16 +5946,16 @@
       <c r="B235" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C235" s="4">
-        <v>305022305</v>
-      </c>
-      <c r="D235" s="5" t="s">
+      <c r="C235">
+        <v>403112305</v>
+      </c>
+      <c r="D235" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E235" s="6">
+      <c r="E235" s="5">
         <v>305022300</v>
       </c>
-      <c r="F235" s="7" t="s">
+      <c r="F235" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5969,16 +5966,16 @@
       <c r="B236" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C236" s="4">
-        <v>305022306</v>
-      </c>
-      <c r="D236" s="5" t="s">
+      <c r="C236">
+        <v>403112306</v>
+      </c>
+      <c r="D236" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="E236" s="6">
+      <c r="E236" s="5">
         <v>305022300</v>
       </c>
-      <c r="F236" s="7" t="s">
+      <c r="F236" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -5989,16 +5986,16 @@
       <c r="B237" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C237" s="4">
-        <v>305022307</v>
-      </c>
-      <c r="D237" s="5" t="s">
+      <c r="C237">
+        <v>403112307</v>
+      </c>
+      <c r="D237" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E237" s="6">
+      <c r="E237" s="5">
         <v>305022300</v>
       </c>
-      <c r="F237" s="7" t="s">
+      <c r="F237" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6009,16 +6006,16 @@
       <c r="B238" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C238" s="4">
-        <v>305022308</v>
-      </c>
-      <c r="D238" s="5" t="s">
+      <c r="C238">
+        <v>403112308</v>
+      </c>
+      <c r="D238" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E238" s="6">
+      <c r="E238" s="5">
         <v>305022300</v>
       </c>
-      <c r="F238" s="7" t="s">
+      <c r="F238" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6029,16 +6026,16 @@
       <c r="B239" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C239" s="4">
-        <v>305022309</v>
-      </c>
-      <c r="D239" s="5" t="s">
+      <c r="C239">
+        <v>403112309</v>
+      </c>
+      <c r="D239" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E239" s="6">
+      <c r="E239" s="5">
         <v>305022300</v>
       </c>
-      <c r="F239" s="7" t="s">
+      <c r="F239" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6049,16 +6046,16 @@
       <c r="B240" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C240" s="4">
-        <v>305022310</v>
-      </c>
-      <c r="D240" s="5" t="s">
+      <c r="C240">
+        <v>403112310</v>
+      </c>
+      <c r="D240" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E240" s="6">
+      <c r="E240" s="5">
         <v>305022300</v>
       </c>
-      <c r="F240" s="7" t="s">
+      <c r="F240" s="6" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6069,16 +6066,16 @@
       <c r="B241" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C241" s="4">
-        <v>305022401</v>
-      </c>
-      <c r="D241" s="5" t="s">
+      <c r="C241">
+        <v>403112401</v>
+      </c>
+      <c r="D241" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E241" s="6">
+      <c r="E241" s="5">
         <v>305022400</v>
       </c>
-      <c r="F241" s="7" t="s">
+      <c r="F241" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6089,16 +6086,16 @@
       <c r="B242" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C242" s="4">
-        <v>305022402</v>
-      </c>
-      <c r="D242" s="5" t="s">
+      <c r="C242">
+        <v>403112402</v>
+      </c>
+      <c r="D242" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="E242" s="6">
+      <c r="E242" s="5">
         <v>305022400</v>
       </c>
-      <c r="F242" s="7" t="s">
+      <c r="F242" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6109,16 +6106,16 @@
       <c r="B243" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C243" s="4">
-        <v>305022403</v>
-      </c>
-      <c r="D243" s="5" t="s">
+      <c r="C243">
+        <v>403112403</v>
+      </c>
+      <c r="D243" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E243" s="6">
+      <c r="E243" s="5">
         <v>305022400</v>
       </c>
-      <c r="F243" s="7" t="s">
+      <c r="F243" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6129,16 +6126,16 @@
       <c r="B244" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C244" s="4">
-        <v>305022404</v>
-      </c>
-      <c r="D244" s="5" t="s">
+      <c r="C244">
+        <v>403112404</v>
+      </c>
+      <c r="D244" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E244" s="6">
+      <c r="E244" s="5">
         <v>305022400</v>
       </c>
-      <c r="F244" s="7" t="s">
+      <c r="F244" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6149,16 +6146,16 @@
       <c r="B245" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C245" s="4">
-        <v>305022405</v>
-      </c>
-      <c r="D245" s="5" t="s">
+      <c r="C245">
+        <v>403112405</v>
+      </c>
+      <c r="D245" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E245" s="6">
+      <c r="E245" s="5">
         <v>305022400</v>
       </c>
-      <c r="F245" s="7" t="s">
+      <c r="F245" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6169,16 +6166,16 @@
       <c r="B246" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C246" s="4">
-        <v>305022406</v>
-      </c>
-      <c r="D246" s="5" t="s">
+      <c r="C246">
+        <v>403112406</v>
+      </c>
+      <c r="D246" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="E246" s="6">
+      <c r="E246" s="5">
         <v>305022400</v>
       </c>
-      <c r="F246" s="7" t="s">
+      <c r="F246" s="6" t="s">
         <v>243</v>
       </c>
     </row>
@@ -6189,16 +6186,16 @@
       <c r="B247" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C247" s="4">
-        <v>305022501</v>
-      </c>
-      <c r="D247" s="5" t="s">
+      <c r="C247">
+        <v>403112501</v>
+      </c>
+      <c r="D247" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="E247" s="6">
+      <c r="E247" s="5">
         <v>305022500</v>
       </c>
-      <c r="F247" s="7" t="s">
+      <c r="F247" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6209,16 +6206,16 @@
       <c r="B248" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C248" s="4">
-        <v>305022502</v>
-      </c>
-      <c r="D248" s="5" t="s">
+      <c r="C248">
+        <v>403112502</v>
+      </c>
+      <c r="D248" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="E248" s="6">
+      <c r="E248" s="5">
         <v>305022500</v>
       </c>
-      <c r="F248" s="7" t="s">
+      <c r="F248" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6229,16 +6226,16 @@
       <c r="B249" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C249" s="4">
-        <v>305022503</v>
-      </c>
-      <c r="D249" s="5" t="s">
+      <c r="C249">
+        <v>403112503</v>
+      </c>
+      <c r="D249" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="E249" s="6">
+      <c r="E249" s="5">
         <v>305022500</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="F249" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6249,16 +6246,16 @@
       <c r="B250" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C250" s="4">
-        <v>305022504</v>
-      </c>
-      <c r="D250" s="5" t="s">
+      <c r="C250">
+        <v>403112504</v>
+      </c>
+      <c r="D250" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="E250" s="6">
+      <c r="E250" s="5">
         <v>305022500</v>
       </c>
-      <c r="F250" s="7" t="s">
+      <c r="F250" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6269,16 +6266,16 @@
       <c r="B251" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C251" s="4">
-        <v>305022505</v>
-      </c>
-      <c r="D251" s="5" t="s">
+      <c r="C251">
+        <v>403112505</v>
+      </c>
+      <c r="D251" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E251" s="6">
+      <c r="E251" s="5">
         <v>305022500</v>
       </c>
-      <c r="F251" s="7" t="s">
+      <c r="F251" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6289,16 +6286,16 @@
       <c r="B252" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C252" s="4">
-        <v>305022506</v>
-      </c>
-      <c r="D252" s="5" t="s">
+      <c r="C252">
+        <v>403112506</v>
+      </c>
+      <c r="D252" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E252" s="6">
+      <c r="E252" s="5">
         <v>305022500</v>
       </c>
-      <c r="F252" s="7" t="s">
+      <c r="F252" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6309,16 +6306,16 @@
       <c r="B253" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C253" s="4">
-        <v>305022507</v>
-      </c>
-      <c r="D253" s="5" t="s">
+      <c r="C253">
+        <v>403112507</v>
+      </c>
+      <c r="D253" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E253" s="6">
+      <c r="E253" s="5">
         <v>305022500</v>
       </c>
-      <c r="F253" s="7" t="s">
+      <c r="F253" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6329,16 +6326,16 @@
       <c r="B254" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C254" s="4">
-        <v>305022508</v>
-      </c>
-      <c r="D254" s="5" t="s">
+      <c r="C254">
+        <v>403112508</v>
+      </c>
+      <c r="D254" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E254" s="6">
+      <c r="E254" s="5">
         <v>305022500</v>
       </c>
-      <c r="F254" s="7" t="s">
+      <c r="F254" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6349,16 +6346,16 @@
       <c r="B255" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C255" s="4">
-        <v>305022509</v>
-      </c>
-      <c r="D255" s="5" t="s">
+      <c r="C255">
+        <v>403112509</v>
+      </c>
+      <c r="D255" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E255" s="6">
+      <c r="E255" s="5">
         <v>305022500</v>
       </c>
-      <c r="F255" s="7" t="s">
+      <c r="F255" s="6" t="s">
         <v>250</v>
       </c>
     </row>
@@ -6369,16 +6366,16 @@
       <c r="B256" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C256" s="4">
-        <v>305022601</v>
-      </c>
-      <c r="D256" s="5" t="s">
+      <c r="C256">
+        <v>403112601</v>
+      </c>
+      <c r="D256" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="E256" s="6">
+      <c r="E256" s="5">
         <v>305022600</v>
       </c>
-      <c r="F256" s="7" t="s">
+      <c r="F256" s="6" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6389,16 +6386,16 @@
       <c r="B257" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C257" s="4">
-        <v>305022602</v>
-      </c>
-      <c r="D257" s="5" t="s">
+      <c r="C257">
+        <v>403112602</v>
+      </c>
+      <c r="D257" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E257" s="6">
+      <c r="E257" s="5">
         <v>305022600</v>
       </c>
-      <c r="F257" s="7" t="s">
+      <c r="F257" s="6" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6409,16 +6406,16 @@
       <c r="B258" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C258" s="4">
-        <v>305022603</v>
-      </c>
-      <c r="D258" s="5" t="s">
+      <c r="C258">
+        <v>403112603</v>
+      </c>
+      <c r="D258" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="E258" s="6">
+      <c r="E258" s="5">
         <v>305022600</v>
       </c>
-      <c r="F258" s="7" t="s">
+      <c r="F258" s="6" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6429,16 +6426,16 @@
       <c r="B259" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C259" s="4">
-        <v>305022604</v>
-      </c>
-      <c r="D259" s="5" t="s">
+      <c r="C259">
+        <v>403112604</v>
+      </c>
+      <c r="D259" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="E259" s="6">
+      <c r="E259" s="5">
         <v>305022600</v>
       </c>
-      <c r="F259" s="7" t="s">
+      <c r="F259" s="6" t="s">
         <v>256</v>
       </c>
     </row>
@@ -6449,16 +6446,16 @@
       <c r="B260" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C260" s="4">
-        <v>305022701</v>
-      </c>
-      <c r="D260" s="5" t="s">
+      <c r="C260">
+        <v>403112701</v>
+      </c>
+      <c r="D260" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E260" s="6">
+      <c r="E260" s="5">
         <v>305022700</v>
       </c>
-      <c r="F260" s="7" t="s">
+      <c r="F260" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6469,16 +6466,16 @@
       <c r="B261" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C261" s="4">
-        <v>305022702</v>
-      </c>
-      <c r="D261" s="5" t="s">
+      <c r="C261">
+        <v>403112702</v>
+      </c>
+      <c r="D261" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E261" s="6">
+      <c r="E261" s="5">
         <v>305022700</v>
       </c>
-      <c r="F261" s="7" t="s">
+      <c r="F261" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6489,16 +6486,16 @@
       <c r="B262" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C262" s="4">
-        <v>305022703</v>
-      </c>
-      <c r="D262" s="5" t="s">
+      <c r="C262">
+        <v>403112703</v>
+      </c>
+      <c r="D262" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="E262" s="6">
+      <c r="E262" s="5">
         <v>305022700</v>
       </c>
-      <c r="F262" s="7" t="s">
+      <c r="F262" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6509,16 +6506,16 @@
       <c r="B263" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C263" s="4">
-        <v>305022704</v>
-      </c>
-      <c r="D263" s="5" t="s">
+      <c r="C263">
+        <v>403112704</v>
+      </c>
+      <c r="D263" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E263" s="6">
+      <c r="E263" s="5">
         <v>305022700</v>
       </c>
-      <c r="F263" s="7" t="s">
+      <c r="F263" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6529,16 +6526,16 @@
       <c r="B264" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C264" s="4">
-        <v>305022705</v>
-      </c>
-      <c r="D264" s="5" t="s">
+      <c r="C264">
+        <v>403112705</v>
+      </c>
+      <c r="D264" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E264" s="6">
+      <c r="E264" s="5">
         <v>305022700</v>
       </c>
-      <c r="F264" s="7" t="s">
+      <c r="F264" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6549,16 +6546,16 @@
       <c r="B265" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C265" s="4">
-        <v>305022706</v>
-      </c>
-      <c r="D265" s="5" t="s">
+      <c r="C265">
+        <v>403112706</v>
+      </c>
+      <c r="D265" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E265" s="6">
+      <c r="E265" s="5">
         <v>305022700</v>
       </c>
-      <c r="F265" s="7" t="s">
+      <c r="F265" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6569,16 +6566,16 @@
       <c r="B266" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C266" s="4">
-        <v>305022707</v>
-      </c>
-      <c r="D266" s="5" t="s">
+      <c r="C266">
+        <v>403112707</v>
+      </c>
+      <c r="D266" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E266" s="6">
+      <c r="E266" s="5">
         <v>305022700</v>
       </c>
-      <c r="F266" s="7" t="s">
+      <c r="F266" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6589,16 +6586,16 @@
       <c r="B267" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C267" s="4">
-        <v>305022708</v>
-      </c>
-      <c r="D267" s="5" t="s">
+      <c r="C267">
+        <v>403112708</v>
+      </c>
+      <c r="D267" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E267" s="6">
+      <c r="E267" s="5">
         <v>305022700</v>
       </c>
-      <c r="F267" s="7" t="s">
+      <c r="F267" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6609,16 +6606,16 @@
       <c r="B268" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C268" s="4">
-        <v>305022709</v>
-      </c>
-      <c r="D268" s="5" t="s">
+      <c r="C268">
+        <v>403112709</v>
+      </c>
+      <c r="D268" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E268" s="6">
+      <c r="E268" s="5">
         <v>305022700</v>
       </c>
-      <c r="F268" s="7" t="s">
+      <c r="F268" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6629,16 +6626,16 @@
       <c r="B269" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C269" s="4">
-        <v>305022710</v>
-      </c>
-      <c r="D269" s="5" t="s">
+      <c r="C269">
+        <v>403112710</v>
+      </c>
+      <c r="D269" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="E269" s="6">
+      <c r="E269" s="5">
         <v>305022700</v>
       </c>
-      <c r="F269" s="7" t="s">
+      <c r="F269" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6649,16 +6646,16 @@
       <c r="B270" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C270" s="4">
-        <v>305022711</v>
-      </c>
-      <c r="D270" s="5" t="s">
+      <c r="C270">
+        <v>403112711</v>
+      </c>
+      <c r="D270" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E270" s="6">
+      <c r="E270" s="5">
         <v>305022700</v>
       </c>
-      <c r="F270" s="7" t="s">
+      <c r="F270" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6669,16 +6666,16 @@
       <c r="B271" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C271" s="4">
-        <v>305022712</v>
-      </c>
-      <c r="D271" s="5" t="s">
+      <c r="C271">
+        <v>403112712</v>
+      </c>
+      <c r="D271" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E271" s="6">
+      <c r="E271" s="5">
         <v>305022700</v>
       </c>
-      <c r="F271" s="7" t="s">
+      <c r="F271" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6689,16 +6686,16 @@
       <c r="B272" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C272" s="4">
-        <v>305022713</v>
-      </c>
-      <c r="D272" s="5" t="s">
+      <c r="C272">
+        <v>403112713</v>
+      </c>
+      <c r="D272" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E272" s="6">
+      <c r="E272" s="5">
         <v>305022700</v>
       </c>
-      <c r="F272" s="7" t="s">
+      <c r="F272" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6709,16 +6706,16 @@
       <c r="B273" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C273" s="4">
-        <v>305022714</v>
-      </c>
-      <c r="D273" s="5" t="s">
+      <c r="C273">
+        <v>403112714</v>
+      </c>
+      <c r="D273" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E273" s="6">
+      <c r="E273" s="5">
         <v>305022700</v>
       </c>
-      <c r="F273" s="7" t="s">
+      <c r="F273" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6729,16 +6726,16 @@
       <c r="B274" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C274" s="4">
-        <v>305022715</v>
-      </c>
-      <c r="D274" s="5" t="s">
+      <c r="C274">
+        <v>403112715</v>
+      </c>
+      <c r="D274" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E274" s="6">
+      <c r="E274" s="5">
         <v>305022700</v>
       </c>
-      <c r="F274" s="7" t="s">
+      <c r="F274" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6749,16 +6746,16 @@
       <c r="B275" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C275" s="4">
-        <v>305022716</v>
-      </c>
-      <c r="D275" s="5" t="s">
+      <c r="C275">
+        <v>403112716</v>
+      </c>
+      <c r="D275" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E275" s="6">
+      <c r="E275" s="5">
         <v>305022700</v>
       </c>
-      <c r="F275" s="7" t="s">
+      <c r="F275" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6769,16 +6766,16 @@
       <c r="B276" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C276" s="4">
-        <v>305022717</v>
-      </c>
-      <c r="D276" s="5" t="s">
+      <c r="C276">
+        <v>403112717</v>
+      </c>
+      <c r="D276" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="E276" s="6">
+      <c r="E276" s="5">
         <v>305022700</v>
       </c>
-      <c r="F276" s="7" t="s">
+      <c r="F276" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6789,16 +6786,16 @@
       <c r="B277" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C277" s="4">
-        <v>305022718</v>
-      </c>
-      <c r="D277" s="5" t="s">
+      <c r="C277">
+        <v>403112718</v>
+      </c>
+      <c r="D277" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E277" s="6">
+      <c r="E277" s="5">
         <v>305022700</v>
       </c>
-      <c r="F277" s="7" t="s">
+      <c r="F277" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6809,16 +6806,16 @@
       <c r="B278" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C278" s="4">
-        <v>305022719</v>
-      </c>
-      <c r="D278" s="5" t="s">
+      <c r="C278">
+        <v>403112719</v>
+      </c>
+      <c r="D278" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="E278" s="6">
+      <c r="E278" s="5">
         <v>305022700</v>
       </c>
-      <c r="F278" s="7" t="s">
+      <c r="F278" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6829,16 +6826,16 @@
       <c r="B279" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C279" s="4">
-        <v>305022720</v>
-      </c>
-      <c r="D279" s="5" t="s">
+      <c r="C279">
+        <v>403112720</v>
+      </c>
+      <c r="D279" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E279" s="6">
+      <c r="E279" s="5">
         <v>305022700</v>
       </c>
-      <c r="F279" s="7" t="s">
+      <c r="F279" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6849,16 +6846,16 @@
       <c r="B280" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C280" s="4">
-        <v>305022721</v>
-      </c>
-      <c r="D280" s="5" t="s">
+      <c r="C280">
+        <v>403112721</v>
+      </c>
+      <c r="D280" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E280" s="6">
+      <c r="E280" s="5">
         <v>305022700</v>
       </c>
-      <c r="F280" s="7" t="s">
+      <c r="F280" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6869,16 +6866,16 @@
       <c r="B281" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C281" s="4">
-        <v>305022722</v>
-      </c>
-      <c r="D281" s="5" t="s">
+      <c r="C281">
+        <v>403112722</v>
+      </c>
+      <c r="D281" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E281" s="6">
+      <c r="E281" s="5">
         <v>305022700</v>
       </c>
-      <c r="F281" s="7" t="s">
+      <c r="F281" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6889,16 +6886,16 @@
       <c r="B282" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C282" s="4">
-        <v>305022723</v>
-      </c>
-      <c r="D282" s="5" t="s">
+      <c r="C282">
+        <v>403112723</v>
+      </c>
+      <c r="D282" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E282" s="6">
+      <c r="E282" s="5">
         <v>305022700</v>
       </c>
-      <c r="F282" s="7" t="s">
+      <c r="F282" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6909,16 +6906,16 @@
       <c r="B283" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C283" s="4">
-        <v>305022724</v>
-      </c>
-      <c r="D283" s="5" t="s">
+      <c r="C283">
+        <v>403112724</v>
+      </c>
+      <c r="D283" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E283" s="6">
+      <c r="E283" s="5">
         <v>305022700</v>
       </c>
-      <c r="F283" s="7" t="s">
+      <c r="F283" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6929,16 +6926,16 @@
       <c r="B284" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C284" s="4">
-        <v>305022725</v>
-      </c>
-      <c r="D284" s="5" t="s">
+      <c r="C284">
+        <v>403112725</v>
+      </c>
+      <c r="D284" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E284" s="6">
+      <c r="E284" s="5">
         <v>305022700</v>
       </c>
-      <c r="F284" s="7" t="s">
+      <c r="F284" s="6" t="s">
         <v>260</v>
       </c>
     </row>
@@ -6949,16 +6946,16 @@
       <c r="B285" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C285" s="4">
-        <v>305022801</v>
-      </c>
-      <c r="D285" s="5" t="s">
+      <c r="C285">
+        <v>403112801</v>
+      </c>
+      <c r="D285" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="E285" s="6">
+      <c r="E285" s="5">
         <v>305022800</v>
       </c>
-      <c r="F285" s="7" t="s">
+      <c r="F285" s="6" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6969,16 +6966,16 @@
       <c r="B286" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C286" s="4">
-        <v>305022901</v>
-      </c>
-      <c r="D286" s="5" t="s">
+      <c r="C286">
+        <v>403112901</v>
+      </c>
+      <c r="D286" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E286" s="6">
+      <c r="E286" s="5">
         <v>305022900</v>
       </c>
-      <c r="F286" s="7" t="s">
+      <c r="F286" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -6989,16 +6986,16 @@
       <c r="B287" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C287" s="4">
-        <v>305022902</v>
-      </c>
-      <c r="D287" s="5" t="s">
+      <c r="C287">
+        <v>403112902</v>
+      </c>
+      <c r="D287" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="E287" s="6">
+      <c r="E287" s="5">
         <v>305022900</v>
       </c>
-      <c r="F287" s="7" t="s">
+      <c r="F287" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7009,16 +7006,16 @@
       <c r="B288" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C288" s="4">
-        <v>305022903</v>
-      </c>
-      <c r="D288" s="5" t="s">
+      <c r="C288">
+        <v>403112903</v>
+      </c>
+      <c r="D288" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E288" s="6">
+      <c r="E288" s="5">
         <v>305022900</v>
       </c>
-      <c r="F288" s="7" t="s">
+      <c r="F288" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7029,16 +7026,16 @@
       <c r="B289" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C289" s="4">
-        <v>305022904</v>
-      </c>
-      <c r="D289" s="5" t="s">
+      <c r="C289">
+        <v>403112904</v>
+      </c>
+      <c r="D289" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="E289" s="6">
+      <c r="E289" s="5">
         <v>305022900</v>
       </c>
-      <c r="F289" s="7" t="s">
+      <c r="F289" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7049,16 +7046,16 @@
       <c r="B290" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C290" s="4">
-        <v>305022905</v>
-      </c>
-      <c r="D290" s="5" t="s">
+      <c r="C290">
+        <v>403112905</v>
+      </c>
+      <c r="D290" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="E290" s="6">
+      <c r="E290" s="5">
         <v>305022900</v>
       </c>
-      <c r="F290" s="7" t="s">
+      <c r="F290" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -7069,16 +7066,16 @@
       <c r="B291" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C291" s="4">
-        <v>305023001</v>
-      </c>
-      <c r="D291" s="5" t="s">
+      <c r="C291">
+        <v>403113001</v>
+      </c>
+      <c r="D291" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E291" s="6">
+      <c r="E291" s="5">
         <v>305023000</v>
       </c>
-      <c r="F291" s="7" t="s">
+      <c r="F291" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7089,16 +7086,16 @@
       <c r="B292" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C292" s="4">
-        <v>305023002</v>
-      </c>
-      <c r="D292" s="5" t="s">
+      <c r="C292">
+        <v>403113002</v>
+      </c>
+      <c r="D292" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E292" s="6">
+      <c r="E292" s="5">
         <v>305023000</v>
       </c>
-      <c r="F292" s="7" t="s">
+      <c r="F292" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7109,16 +7106,16 @@
       <c r="B293" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C293" s="4">
-        <v>305023003</v>
-      </c>
-      <c r="D293" s="5" t="s">
+      <c r="C293">
+        <v>403113003</v>
+      </c>
+      <c r="D293" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="E293" s="6">
+      <c r="E293" s="5">
         <v>305023000</v>
       </c>
-      <c r="F293" s="7" t="s">
+      <c r="F293" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7129,16 +7126,16 @@
       <c r="B294" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C294" s="4">
-        <v>305023004</v>
-      </c>
-      <c r="D294" s="5" t="s">
+      <c r="C294">
+        <v>403113004</v>
+      </c>
+      <c r="D294" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="E294" s="6">
+      <c r="E294" s="5">
         <v>305023000</v>
       </c>
-      <c r="F294" s="7" t="s">
+      <c r="F294" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7149,16 +7146,16 @@
       <c r="B295" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C295" s="4">
-        <v>305023005</v>
-      </c>
-      <c r="D295" s="5" t="s">
+      <c r="C295">
+        <v>403113005</v>
+      </c>
+      <c r="D295" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="E295" s="6">
+      <c r="E295" s="5">
         <v>305023000</v>
       </c>
-      <c r="F295" s="7" t="s">
+      <c r="F295" s="6" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7169,16 +7166,16 @@
       <c r="B296" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C296" s="4">
-        <v>305023101</v>
-      </c>
-      <c r="D296" s="5" t="s">
+      <c r="C296">
+        <v>403113101</v>
+      </c>
+      <c r="D296" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="E296" s="6">
+      <c r="E296" s="5">
         <v>305023100</v>
       </c>
-      <c r="F296" s="7" t="s">
+      <c r="F296" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7189,16 +7186,16 @@
       <c r="B297" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C297" s="4">
-        <v>305023102</v>
-      </c>
-      <c r="D297" s="5" t="s">
+      <c r="C297">
+        <v>403113102</v>
+      </c>
+      <c r="D297" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="E297" s="6">
+      <c r="E297" s="5">
         <v>305023100</v>
       </c>
-      <c r="F297" s="7" t="s">
+      <c r="F297" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7209,16 +7206,16 @@
       <c r="B298" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C298" s="4">
-        <v>305023103</v>
-      </c>
-      <c r="D298" s="5" t="s">
+      <c r="C298">
+        <v>403113103</v>
+      </c>
+      <c r="D298" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E298" s="6">
+      <c r="E298" s="5">
         <v>305023100</v>
       </c>
-      <c r="F298" s="7" t="s">
+      <c r="F298" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7229,16 +7226,16 @@
       <c r="B299" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C299" s="4">
-        <v>305023104</v>
-      </c>
-      <c r="D299" s="5" t="s">
+      <c r="C299">
+        <v>403113104</v>
+      </c>
+      <c r="D299" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="E299" s="6">
+      <c r="E299" s="5">
         <v>305023100</v>
       </c>
-      <c r="F299" s="7" t="s">
+      <c r="F299" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7249,16 +7246,16 @@
       <c r="B300" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C300" s="4">
-        <v>305023105</v>
-      </c>
-      <c r="D300" s="5" t="s">
+      <c r="C300">
+        <v>403113105</v>
+      </c>
+      <c r="D300" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="E300" s="6">
+      <c r="E300" s="5">
         <v>305023100</v>
       </c>
-      <c r="F300" s="7" t="s">
+      <c r="F300" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7269,16 +7266,16 @@
       <c r="B301" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C301" s="4">
-        <v>305023106</v>
-      </c>
-      <c r="D301" s="5" t="s">
+      <c r="C301">
+        <v>403113106</v>
+      </c>
+      <c r="D301" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E301" s="6">
+      <c r="E301" s="5">
         <v>305023100</v>
       </c>
-      <c r="F301" s="7" t="s">
+      <c r="F301" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7289,16 +7286,16 @@
       <c r="B302" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C302" s="4">
-        <v>305023107</v>
-      </c>
-      <c r="D302" s="5" t="s">
+      <c r="C302">
+        <v>403113107</v>
+      </c>
+      <c r="D302" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="E302" s="6">
+      <c r="E302" s="5">
         <v>305023100</v>
       </c>
-      <c r="F302" s="7" t="s">
+      <c r="F302" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7309,16 +7306,16 @@
       <c r="B303" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C303" s="4">
-        <v>305023108</v>
-      </c>
-      <c r="D303" s="5" t="s">
+      <c r="C303">
+        <v>403113108</v>
+      </c>
+      <c r="D303" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E303" s="6">
+      <c r="E303" s="5">
         <v>305023100</v>
       </c>
-      <c r="F303" s="7" t="s">
+      <c r="F303" s="6" t="s">
         <v>274</v>
       </c>
     </row>
@@ -7329,16 +7326,16 @@
       <c r="B304" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C304" s="4">
-        <v>305023201</v>
-      </c>
-      <c r="D304" s="5" t="s">
+      <c r="C304">
+        <v>403113201</v>
+      </c>
+      <c r="D304" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="E304" s="6">
+      <c r="E304" s="5">
         <v>305023200</v>
       </c>
-      <c r="F304" s="7" t="s">
+      <c r="F304" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7349,16 +7346,16 @@
       <c r="B305" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C305" s="4">
-        <v>305023202</v>
-      </c>
-      <c r="D305" s="5" t="s">
+      <c r="C305">
+        <v>403113202</v>
+      </c>
+      <c r="D305" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E305" s="6">
+      <c r="E305" s="5">
         <v>305023200</v>
       </c>
-      <c r="F305" s="7" t="s">
+      <c r="F305" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7369,16 +7366,16 @@
       <c r="B306" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C306" s="4">
-        <v>305023203</v>
-      </c>
-      <c r="D306" s="5" t="s">
+      <c r="C306">
+        <v>403113203</v>
+      </c>
+      <c r="D306" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="E306" s="6">
+      <c r="E306" s="5">
         <v>305023200</v>
       </c>
-      <c r="F306" s="7" t="s">
+      <c r="F306" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7389,16 +7386,16 @@
       <c r="B307" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C307" s="4">
-        <v>305023204</v>
-      </c>
-      <c r="D307" s="5" t="s">
+      <c r="C307">
+        <v>403113204</v>
+      </c>
+      <c r="D307" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="E307" s="6">
+      <c r="E307" s="5">
         <v>305023200</v>
       </c>
-      <c r="F307" s="7" t="s">
+      <c r="F307" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7409,16 +7406,16 @@
       <c r="B308" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C308" s="4">
-        <v>305023205</v>
-      </c>
-      <c r="D308" s="5" t="s">
+      <c r="C308">
+        <v>403113205</v>
+      </c>
+      <c r="D308" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E308" s="6">
+      <c r="E308" s="5">
         <v>305023200</v>
       </c>
-      <c r="F308" s="7" t="s">
+      <c r="F308" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7429,16 +7426,16 @@
       <c r="B309" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C309" s="4">
-        <v>305023206</v>
-      </c>
-      <c r="D309" s="5" t="s">
+      <c r="C309">
+        <v>403113206</v>
+      </c>
+      <c r="D309" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="E309" s="6">
+      <c r="E309" s="5">
         <v>305023200</v>
       </c>
-      <c r="F309" s="7" t="s">
+      <c r="F309" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7449,16 +7446,16 @@
       <c r="B310" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C310" s="4">
-        <v>305023207</v>
-      </c>
-      <c r="D310" s="5" t="s">
+      <c r="C310">
+        <v>403113207</v>
+      </c>
+      <c r="D310" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E310" s="6">
+      <c r="E310" s="5">
         <v>305023200</v>
       </c>
-      <c r="F310" s="7" t="s">
+      <c r="F310" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7469,16 +7466,16 @@
       <c r="B311" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C311" s="4">
-        <v>305023208</v>
-      </c>
-      <c r="D311" s="5" t="s">
+      <c r="C311">
+        <v>403113208</v>
+      </c>
+      <c r="D311" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="E311" s="6">
+      <c r="E311" s="5">
         <v>305023200</v>
       </c>
-      <c r="F311" s="7" t="s">
+      <c r="F311" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7489,16 +7486,16 @@
       <c r="B312" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C312" s="4">
-        <v>305023209</v>
-      </c>
-      <c r="D312" s="5" t="s">
+      <c r="C312">
+        <v>403113209</v>
+      </c>
+      <c r="D312" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E312" s="6">
+      <c r="E312" s="5">
         <v>305023200</v>
       </c>
-      <c r="F312" s="7" t="s">
+      <c r="F312" s="6" t="s">
         <v>276</v>
       </c>
     </row>
@@ -7509,16 +7506,16 @@
       <c r="B313" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C313" s="4">
-        <v>305023301</v>
-      </c>
-      <c r="D313" s="5" t="s">
+      <c r="C313">
+        <v>403113301</v>
+      </c>
+      <c r="D313" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="E313" s="6">
+      <c r="E313" s="5">
         <v>305023300</v>
       </c>
-      <c r="F313" s="7" t="s">
+      <c r="F313" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7529,16 +7526,16 @@
       <c r="B314" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C314" s="4">
-        <v>305023302</v>
-      </c>
-      <c r="D314" s="5" t="s">
+      <c r="C314">
+        <v>403113302</v>
+      </c>
+      <c r="D314" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="E314" s="6">
+      <c r="E314" s="5">
         <v>305023300</v>
       </c>
-      <c r="F314" s="7" t="s">
+      <c r="F314" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7549,16 +7546,16 @@
       <c r="B315" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C315" s="4">
-        <v>305023303</v>
-      </c>
-      <c r="D315" s="5" t="s">
+      <c r="C315">
+        <v>403113303</v>
+      </c>
+      <c r="D315" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="E315" s="6">
+      <c r="E315" s="5">
         <v>305023300</v>
       </c>
-      <c r="F315" s="7" t="s">
+      <c r="F315" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7569,16 +7566,16 @@
       <c r="B316" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C316" s="4">
-        <v>305023304</v>
-      </c>
-      <c r="D316" s="5" t="s">
+      <c r="C316">
+        <v>403113304</v>
+      </c>
+      <c r="D316" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="E316" s="6">
+      <c r="E316" s="5">
         <v>305023300</v>
       </c>
-      <c r="F316" s="7" t="s">
+      <c r="F316" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7589,16 +7586,16 @@
       <c r="B317" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C317" s="4">
-        <v>305023305</v>
-      </c>
-      <c r="D317" s="5" t="s">
+      <c r="C317">
+        <v>403113305</v>
+      </c>
+      <c r="D317" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="E317" s="6">
+      <c r="E317" s="5">
         <v>305023300</v>
       </c>
-      <c r="F317" s="7" t="s">
+      <c r="F317" s="6" t="s">
         <v>283</v>
       </c>
     </row>
@@ -7609,16 +7606,16 @@
       <c r="B318" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C318" s="4">
-        <v>305023401</v>
-      </c>
-      <c r="D318" s="5" t="s">
+      <c r="C318">
+        <v>403113401</v>
+      </c>
+      <c r="D318" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="E318" s="6">
+      <c r="E318" s="5">
         <v>305023400</v>
       </c>
-      <c r="F318" s="7" t="s">
+      <c r="F318" s="6" t="s">
         <v>289</v>
       </c>
     </row>
@@ -7629,16 +7626,16 @@
       <c r="B319" s="3">
         <v>2030000000</v>
       </c>
-      <c r="C319" s="4">
-        <v>305023402</v>
-      </c>
-      <c r="D319" s="5" t="s">
+      <c r="C319">
+        <v>403113402</v>
+      </c>
+      <c r="D319" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="E319" s="6">
+      <c r="E319" s="5">
         <v>305023400</v>
       </c>
-      <c r="F319" s="7" t="s">
+      <c r="F319" s="6" t="s">
         <v>289</v>
       </c>
     </row>
